--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -1929,6 +1929,9 @@
       <c r="AD7">
         <v>0</v>
       </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
       <c r="AF7">
         <v>5.9</v>
       </c>
@@ -2075,6 +2078,9 @@
       <c r="AD8">
         <v>0</v>
       </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
       <c r="AF8">
         <v>4.9</v>
       </c>
@@ -4605,6 +4611,9 @@
       <c r="AD25">
         <v>0</v>
       </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
       <c r="AF25">
         <v>3.6</v>
       </c>
@@ -4751,6 +4760,9 @@
       <c r="AD26">
         <v>0</v>
       </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
       <c r="AF26">
         <v>3.4</v>
       </c>
@@ -4897,6 +4909,9 @@
       <c r="AD27">
         <v>0</v>
       </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
       <c r="AF27">
         <v>3.8</v>
       </c>
@@ -5341,6 +5356,9 @@
       <c r="AD30">
         <v>0</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
       <c r="AF30">
         <v>4.9</v>
       </c>
@@ -5487,6 +5505,9 @@
       <c r="AD31">
         <v>0</v>
       </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
       <c r="AF31">
         <v>4.8</v>
       </c>
@@ -5782,6 +5803,9 @@
       <c r="AD33">
         <v>0</v>
       </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
       <c r="AF33">
         <v>4.3</v>
       </c>
@@ -6673,6 +6697,9 @@
       <c r="AD39">
         <v>0</v>
       </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
       <c r="AF39">
         <v>2.3</v>
       </c>
@@ -7264,6 +7291,9 @@
         <v>0</v>
       </c>
       <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="190">
   <si>
     <t>year_x</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>1982-83</t>
+  </si>
+  <si>
+    <t>Metta Sandiford-Artest.</t>
   </si>
   <si>
     <t>C</t>
@@ -1146,7 +1149,7 @@
         <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S2">
         <v>31</v>
@@ -1155,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V2" t="s">
         <v>118</v>
@@ -1239,10 +1242,10 @@
         <v>138</v>
       </c>
       <c r="AW2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1295,7 +1298,7 @@
         <v>94</v>
       </c>
       <c r="R3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S3">
         <v>23</v>
@@ -1304,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V3" t="s">
         <v>119</v>
@@ -1388,10 +1391,10 @@
         <v>139</v>
       </c>
       <c r="AW3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1444,7 +1447,7 @@
         <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S4">
         <v>27</v>
@@ -1453,7 +1456,7 @@
         <v>8</v>
       </c>
       <c r="U4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V4" t="s">
         <v>120</v>
@@ -1537,10 +1540,10 @@
         <v>140</v>
       </c>
       <c r="AW4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1593,7 +1596,7 @@
         <v>93</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S5">
         <v>28</v>
@@ -1602,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V5" t="s">
         <v>121</v>
@@ -1686,10 +1689,10 @@
         <v>141</v>
       </c>
       <c r="AW5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1742,7 +1745,7 @@
         <v>96</v>
       </c>
       <c r="R6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S6">
         <v>25</v>
@@ -1751,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V6" t="s">
         <v>122</v>
@@ -1835,10 +1838,10 @@
         <v>142</v>
       </c>
       <c r="AW6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1891,7 +1894,7 @@
         <v>93</v>
       </c>
       <c r="R7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S7">
         <v>26</v>
@@ -1900,7 +1903,7 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V7" t="s">
         <v>121</v>
@@ -1984,10 +1987,10 @@
         <v>143</v>
       </c>
       <c r="AW7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -2040,7 +2043,7 @@
         <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S8">
         <v>25</v>
@@ -2049,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V8" t="s">
         <v>121</v>
@@ -2133,10 +2136,10 @@
         <v>144</v>
       </c>
       <c r="AW8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2189,7 +2192,7 @@
         <v>97</v>
       </c>
       <c r="R9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S9">
         <v>26</v>
@@ -2198,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V9" t="s">
         <v>123</v>
@@ -2282,10 +2285,10 @@
         <v>145</v>
       </c>
       <c r="AW9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2338,7 +2341,7 @@
         <v>98</v>
       </c>
       <c r="R10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S10">
         <v>24</v>
@@ -2347,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V10" t="s">
         <v>124</v>
@@ -2431,10 +2434,10 @@
         <v>146</v>
       </c>
       <c r="AW10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2487,7 +2490,7 @@
         <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S11">
         <v>23</v>
@@ -2496,7 +2499,7 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V11" t="s">
         <v>124</v>
@@ -2580,10 +2583,10 @@
         <v>147</v>
       </c>
       <c r="AW11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2636,7 +2639,7 @@
         <v>99</v>
       </c>
       <c r="R12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S12">
         <v>28</v>
@@ -2645,7 +2648,7 @@
         <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V12" t="s">
         <v>125</v>
@@ -2729,10 +2732,10 @@
         <v>148</v>
       </c>
       <c r="AW12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -2785,7 +2788,7 @@
         <v>100</v>
       </c>
       <c r="R13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S13">
         <v>28</v>
@@ -2794,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V13" t="s">
         <v>119</v>
@@ -2878,10 +2881,10 @@
         <v>149</v>
       </c>
       <c r="AW13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -2934,7 +2937,7 @@
         <v>101</v>
       </c>
       <c r="R14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S14">
         <v>29</v>
@@ -2943,7 +2946,7 @@
         <v>11</v>
       </c>
       <c r="U14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V14" t="s">
         <v>126</v>
@@ -3027,10 +3030,10 @@
         <v>150</v>
       </c>
       <c r="AW14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -3083,7 +3086,7 @@
         <v>102</v>
       </c>
       <c r="R15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S15">
         <v>25</v>
@@ -3092,7 +3095,7 @@
         <v>7</v>
       </c>
       <c r="U15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V15" t="s">
         <v>127</v>
@@ -3176,10 +3179,10 @@
         <v>151</v>
       </c>
       <c r="AW15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -3232,7 +3235,7 @@
         <v>102</v>
       </c>
       <c r="R16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S16">
         <v>24</v>
@@ -3241,7 +3244,7 @@
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V16" t="s">
         <v>127</v>
@@ -3325,10 +3328,10 @@
         <v>152</v>
       </c>
       <c r="AW16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -3381,7 +3384,7 @@
         <v>102</v>
       </c>
       <c r="R17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S17">
         <v>23</v>
@@ -3390,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V17" t="s">
         <v>127</v>
@@ -3474,10 +3477,10 @@
         <v>153</v>
       </c>
       <c r="AW17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -3530,7 +3533,7 @@
         <v>103</v>
       </c>
       <c r="R18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S18">
         <v>31</v>
@@ -3539,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="U18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V18" t="s">
         <v>120</v>
@@ -3623,10 +3626,10 @@
         <v>154</v>
       </c>
       <c r="AW18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -3679,7 +3682,7 @@
         <v>104</v>
       </c>
       <c r="R19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S19">
         <v>32</v>
@@ -3688,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="U19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V19" t="s">
         <v>128</v>
@@ -3772,10 +3775,10 @@
         <v>155</v>
       </c>
       <c r="AW19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -3828,7 +3831,7 @@
         <v>105</v>
       </c>
       <c r="R20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S20">
         <v>31</v>
@@ -3837,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V20" t="s">
         <v>129</v>
@@ -3921,10 +3924,10 @@
         <v>156</v>
       </c>
       <c r="AW20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -3977,7 +3980,7 @@
         <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S21">
         <v>30</v>
@@ -3986,7 +3989,7 @@
         <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V21" t="s">
         <v>129</v>
@@ -4070,10 +4073,10 @@
         <v>157</v>
       </c>
       <c r="AW21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -4123,10 +4126,10 @@
         <v>70</v>
       </c>
       <c r="P22" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="R22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S22">
         <v>24</v>
@@ -4135,7 +4138,7 @@
         <v>5</v>
       </c>
       <c r="U22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V22" t="s">
         <v>130</v>
@@ -4219,10 +4222,10 @@
         <v>158</v>
       </c>
       <c r="AW22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -4275,7 +4278,7 @@
         <v>105</v>
       </c>
       <c r="R23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S23">
         <v>28</v>
@@ -4284,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V23" t="s">
         <v>129</v>
@@ -4368,10 +4371,10 @@
         <v>159</v>
       </c>
       <c r="AW23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -4424,7 +4427,7 @@
         <v>105</v>
       </c>
       <c r="R24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S24">
         <v>27</v>
@@ -4433,7 +4436,7 @@
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V24" t="s">
         <v>129</v>
@@ -4517,10 +4520,10 @@
         <v>160</v>
       </c>
       <c r="AW24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -4573,7 +4576,7 @@
         <v>107</v>
       </c>
       <c r="R25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S25">
         <v>34</v>
@@ -4582,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V25" t="s">
         <v>131</v>
@@ -4666,10 +4669,10 @@
         <v>161</v>
       </c>
       <c r="AW25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -4722,7 +4725,7 @@
         <v>107</v>
       </c>
       <c r="R26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S26">
         <v>34</v>
@@ -4731,7 +4734,7 @@
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V26" t="s">
         <v>133</v>
@@ -4815,10 +4818,10 @@
         <v>161</v>
       </c>
       <c r="AW26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -4871,7 +4874,7 @@
         <v>107</v>
       </c>
       <c r="R27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S27">
         <v>34</v>
@@ -4880,10 +4883,10 @@
         <v>10</v>
       </c>
       <c r="U27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="W27">
         <v>26</v>
@@ -4964,10 +4967,10 @@
         <v>161</v>
       </c>
       <c r="AW27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -5020,7 +5023,7 @@
         <v>108</v>
       </c>
       <c r="R28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S28">
         <v>29</v>
@@ -5029,7 +5032,7 @@
         <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V28" t="s">
         <v>132</v>
@@ -5113,10 +5116,10 @@
         <v>162</v>
       </c>
       <c r="AW28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -5169,7 +5172,7 @@
         <v>108</v>
       </c>
       <c r="R29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S29">
         <v>28</v>
@@ -5178,7 +5181,7 @@
         <v>7</v>
       </c>
       <c r="U29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V29" t="s">
         <v>132</v>
@@ -5262,10 +5265,10 @@
         <v>163</v>
       </c>
       <c r="AW29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -5318,7 +5321,7 @@
         <v>107</v>
       </c>
       <c r="R30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S30">
         <v>31</v>
@@ -5327,7 +5330,7 @@
         <v>7</v>
       </c>
       <c r="U30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V30" t="s">
         <v>133</v>
@@ -5411,10 +5414,10 @@
         <v>164</v>
       </c>
       <c r="AW30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -5467,7 +5470,7 @@
         <v>107</v>
       </c>
       <c r="R31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S31">
         <v>30</v>
@@ -5476,7 +5479,7 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V31" t="s">
         <v>133</v>
@@ -5560,10 +5563,10 @@
         <v>165</v>
       </c>
       <c r="AW31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -5616,7 +5619,7 @@
         <v>109</v>
       </c>
       <c r="R32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S32">
         <v>27</v>
@@ -5625,7 +5628,7 @@
         <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V32" t="s">
         <v>134</v>
@@ -5709,10 +5712,10 @@
         <v>166</v>
       </c>
       <c r="AW32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -5765,7 +5768,7 @@
         <v>107</v>
       </c>
       <c r="R33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S33">
         <v>28</v>
@@ -5774,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V33" t="s">
         <v>128</v>
@@ -5858,10 +5861,10 @@
         <v>167</v>
       </c>
       <c r="AW33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -5914,7 +5917,7 @@
         <v>110</v>
       </c>
       <c r="R34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S34">
         <v>31</v>
@@ -5923,7 +5926,7 @@
         <v>10</v>
       </c>
       <c r="U34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V34" t="s">
         <v>135</v>
@@ -6007,10 +6010,10 @@
         <v>168</v>
       </c>
       <c r="AW34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -6063,7 +6066,7 @@
         <v>110</v>
       </c>
       <c r="R35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S35">
         <v>30</v>
@@ -6072,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V35" t="s">
         <v>135</v>
@@ -6156,10 +6159,10 @@
         <v>169</v>
       </c>
       <c r="AW35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -6212,7 +6215,7 @@
         <v>111</v>
       </c>
       <c r="R36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S36">
         <v>26</v>
@@ -6221,7 +6224,7 @@
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V36" t="s">
         <v>124</v>
@@ -6305,10 +6308,10 @@
         <v>170</v>
       </c>
       <c r="AW36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AX36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -6361,7 +6364,7 @@
         <v>112</v>
       </c>
       <c r="R37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S37">
         <v>29</v>
@@ -6370,7 +6373,7 @@
         <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V37" t="s">
         <v>129</v>
@@ -6454,10 +6457,10 @@
         <v>171</v>
       </c>
       <c r="AW37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -6510,7 +6513,7 @@
         <v>112</v>
       </c>
       <c r="R38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S38">
         <v>28</v>
@@ -6519,7 +6522,7 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V38" t="s">
         <v>129</v>
@@ -6603,10 +6606,10 @@
         <v>172</v>
       </c>
       <c r="AW38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -6659,7 +6662,7 @@
         <v>113</v>
       </c>
       <c r="R39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S39">
         <v>32</v>
@@ -6668,7 +6671,7 @@
         <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V39" t="s">
         <v>121</v>
@@ -6752,10 +6755,10 @@
         <v>173</v>
       </c>
       <c r="AW39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:50">
@@ -6808,7 +6811,7 @@
         <v>114</v>
       </c>
       <c r="R40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S40">
         <v>24</v>
@@ -6817,7 +6820,7 @@
         <v>4</v>
       </c>
       <c r="U40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V40" t="s">
         <v>125</v>
@@ -6901,10 +6904,10 @@
         <v>174</v>
       </c>
       <c r="AW40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:50">
@@ -6957,7 +6960,7 @@
         <v>115</v>
       </c>
       <c r="R41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S41">
         <v>30</v>
@@ -6966,7 +6969,7 @@
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V41" t="s">
         <v>136</v>
@@ -7050,10 +7053,10 @@
         <v>175</v>
       </c>
       <c r="AW41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:50">
@@ -7106,7 +7109,7 @@
         <v>116</v>
       </c>
       <c r="R42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S42">
         <v>23</v>
@@ -7115,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="U42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V42" t="s">
         <v>124</v>
@@ -7199,10 +7202,10 @@
         <v>176</v>
       </c>
       <c r="AW42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:50">
@@ -7255,7 +7258,7 @@
         <v>113</v>
       </c>
       <c r="R43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S43">
         <v>28</v>
@@ -7264,7 +7267,7 @@
         <v>3</v>
       </c>
       <c r="U43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V43" t="s">
         <v>121</v>
@@ -7348,10 +7351,10 @@
         <v>177</v>
       </c>
       <c r="AW43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:50">
@@ -7404,7 +7407,7 @@
         <v>117</v>
       </c>
       <c r="R44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S44">
         <v>26</v>
@@ -7413,7 +7416,7 @@
         <v>5</v>
       </c>
       <c r="U44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V44" t="s">
         <v>122</v>
@@ -7497,10 +7500,10 @@
         <v>178</v>
       </c>
       <c r="AW44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:50">
@@ -7553,7 +7556,7 @@
         <v>117</v>
       </c>
       <c r="R45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S45">
         <v>25</v>
@@ -7562,7 +7565,7 @@
         <v>4</v>
       </c>
       <c r="U45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V45" t="s">
         <v>122</v>
@@ -7646,10 +7649,10 @@
         <v>179</v>
       </c>
       <c r="AW45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -556,7 +556,7 @@
     <t>1982-83</t>
   </si>
   <si>
-    <t>Metta Sandiford-Artest.</t>
+    <t>Metta Sandiford-Artest</t>
   </si>
   <si>
     <t>C</t>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="190">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="191">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2024</t>
@@ -941,13 +944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX45"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,22 +1101,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>72</v>
@@ -1128,7 +1134,7 @@
         <v>0.875</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K2">
         <v>31747</v>
@@ -1137,19 +1143,22 @@
         <v>4199</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N2">
         <v>31747</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Q2">
+        <v>1993</v>
       </c>
       <c r="R2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S2">
         <v>31</v>
@@ -1158,10 +1167,10 @@
         <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="W2">
         <v>76</v>
@@ -1239,30 +1248,33 @@
         <v>14</v>
       </c>
       <c r="AV2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AW2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX2" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY2">
+        <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -1277,7 +1289,7 @@
         <v>0.782</v>
       </c>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K3">
         <v>30733</v>
@@ -1286,19 +1298,22 @@
         <v>4632</v>
       </c>
       <c r="M3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N3">
         <v>30733</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="Q3">
+        <v>2000</v>
       </c>
       <c r="R3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S3">
         <v>23</v>
@@ -1307,10 +1322,10 @@
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W3">
         <v>63</v>
@@ -1388,30 +1403,33 @@
         <v>18.6</v>
       </c>
       <c r="AV3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AW3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX3" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY3">
+        <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F4">
         <v>37</v>
@@ -1426,7 +1444,7 @@
         <v>0.514</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K4">
         <v>30183</v>
@@ -1435,19 +1453,22 @@
         <v>4275</v>
       </c>
       <c r="M4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N4">
         <v>30183</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="Q4">
+        <v>1995</v>
       </c>
       <c r="R4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S4">
         <v>27</v>
@@ -1456,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="U4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W4">
         <v>71</v>
@@ -1537,30 +1558,33 @@
         <v>12.1</v>
       </c>
       <c r="AV4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AW4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX4" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY4">
+        <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>84</v>
@@ -1575,7 +1599,7 @@
         <v>0.928</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5">
         <v>29529</v>
@@ -1584,19 +1608,22 @@
         <v>4199</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N5">
         <v>29529</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Q5">
+        <v>1993</v>
       </c>
       <c r="R5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S5">
         <v>28</v>
@@ -1605,10 +1632,10 @@
         <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W5">
         <v>71</v>
@@ -1686,30 +1713,33 @@
         <v>14.3</v>
       </c>
       <c r="AV5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AW5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX5" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY5">
+        <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>75</v>
@@ -1724,7 +1754,7 @@
         <v>0.864</v>
       </c>
       <c r="J6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K6">
         <v>28507</v>
@@ -1733,19 +1763,22 @@
         <v>4164</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N6">
         <v>28507</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="Q6">
+        <v>1995</v>
       </c>
       <c r="R6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S6">
         <v>25</v>
@@ -1754,10 +1787,10 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W6">
         <v>63</v>
@@ -1835,30 +1868,33 @@
         <v>29.5</v>
       </c>
       <c r="AV6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AW6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX6" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY6">
+        <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7">
         <v>65</v>
@@ -1873,7 +1909,7 @@
         <v>0.822</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K7">
         <v>28147</v>
@@ -1882,19 +1918,22 @@
         <v>4199</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N7">
         <v>28147</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Q7">
+        <v>1993</v>
       </c>
       <c r="R7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S7">
         <v>26</v>
@@ -1903,10 +1942,10 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W7">
         <v>81</v>
@@ -1984,30 +2023,33 @@
         <v>15.9</v>
       </c>
       <c r="AV7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AW7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX7" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY7">
+        <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8">
         <v>89</v>
@@ -2022,7 +2064,7 @@
         <v>0.923</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8">
         <v>27467</v>
@@ -2031,19 +2073,22 @@
         <v>4199</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N8">
         <v>27467</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="Q8">
+        <v>1993</v>
       </c>
       <c r="R8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S8">
         <v>25</v>
@@ -2052,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W8">
         <v>56</v>
@@ -2133,30 +2178,33 @@
         <v>13.5</v>
       </c>
       <c r="AV8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AW8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX8" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY8">
+        <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F9">
         <v>73</v>
@@ -2171,7 +2219,7 @@
         <v>0.868</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>26494</v>
@@ -2180,19 +2228,22 @@
         <v>4085</v>
       </c>
       <c r="M9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N9">
         <v>26494</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="Q9">
+        <v>1991</v>
       </c>
       <c r="R9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S9">
         <v>26</v>
@@ -2201,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W9">
         <v>76</v>
@@ -2282,30 +2333,33 @@
         <v>10.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AW9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX9" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY9">
+        <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10">
         <v>84</v>
@@ -2320,7 +2374,7 @@
         <v>0.842</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K10">
         <v>26060</v>
@@ -2329,19 +2383,22 @@
         <v>4032</v>
       </c>
       <c r="M10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10">
         <v>26060</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Q10">
+        <v>1992</v>
       </c>
       <c r="R10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S10">
         <v>24</v>
@@ -2350,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W10">
         <v>72</v>
@@ -2431,30 +2488,33 @@
         <v>21.2</v>
       </c>
       <c r="AV10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AW10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX10" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY10">
+        <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11">
         <v>37</v>
@@ -2469,7 +2529,7 @@
         <v>0.516</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K11">
         <v>25447</v>
@@ -2478,19 +2538,22 @@
         <v>4032</v>
       </c>
       <c r="M11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11">
         <v>25447</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="Q11">
+        <v>1992</v>
       </c>
       <c r="R11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S11">
         <v>23</v>
@@ -2499,10 +2562,10 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W11">
         <v>64</v>
@@ -2580,30 +2643,33 @@
         <v>16.5</v>
       </c>
       <c r="AV11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AW11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX11" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY11">
+        <v>2015</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -2618,7 +2684,7 @@
         <v>0.888</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K12">
         <v>24779</v>
@@ -2627,19 +2693,22 @@
         <v>3763</v>
       </c>
       <c r="M12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12">
         <v>24779</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="Q12">
+        <v>1986</v>
       </c>
       <c r="R12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S12">
         <v>28</v>
@@ -2648,10 +2717,10 @@
         <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W12">
         <v>80</v>
@@ -2729,30 +2798,33 @@
         <v>12.6</v>
       </c>
       <c r="AV12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AW12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX12" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY12">
+        <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>30</v>
@@ -2767,7 +2839,7 @@
         <v>0.35</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K13">
         <v>24297</v>
@@ -2776,19 +2848,22 @@
         <v>3835</v>
       </c>
       <c r="M13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N13">
         <v>24297</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="Q13">
+        <v>1985</v>
       </c>
       <c r="R13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S13">
         <v>28</v>
@@ -2797,10 +2872,10 @@
         <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W13">
         <v>80</v>
@@ -2878,30 +2953,33 @@
         <v>14.1</v>
       </c>
       <c r="AV13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AW13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX13" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY13">
+        <v>2013</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14">
         <v>45</v>
@@ -2916,7 +2994,7 @@
         <v>0.514</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K14">
         <v>23892</v>
@@ -2925,19 +3003,22 @@
         <v>3360</v>
       </c>
       <c r="M14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N14">
         <v>23892</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="Q14">
+        <v>1983</v>
       </c>
       <c r="R14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S14">
         <v>29</v>
@@ -2946,10 +3027,10 @@
         <v>11</v>
       </c>
       <c r="U14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W14">
         <v>62</v>
@@ -3027,30 +3108,33 @@
         <v>11.3</v>
       </c>
       <c r="AV14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AW14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX14" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY14">
+        <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F15">
         <v>114</v>
@@ -3065,7 +3149,7 @@
         <v>0.975</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K15">
         <v>22919</v>
@@ -3074,19 +3158,22 @@
         <v>3520</v>
       </c>
       <c r="M15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15">
         <v>22919</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Q15">
+        <v>1986</v>
       </c>
       <c r="R15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S15">
         <v>25</v>
@@ -3095,10 +3182,10 @@
         <v>7</v>
       </c>
       <c r="U15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W15">
         <v>78</v>
@@ -3176,30 +3263,33 @@
         <v>22.9</v>
       </c>
       <c r="AV15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AW15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX15" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY15">
+        <v>2011</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16">
         <v>110</v>
@@ -3214,7 +3304,7 @@
         <v>0.944</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K16">
         <v>22328</v>
@@ -3223,19 +3313,22 @@
         <v>3520</v>
       </c>
       <c r="M16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16">
         <v>22328</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Q16">
+        <v>1986</v>
       </c>
       <c r="R16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S16">
         <v>24</v>
@@ -3244,10 +3337,10 @@
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W16">
         <v>82</v>
@@ -3325,30 +3418,33 @@
         <v>18.3</v>
       </c>
       <c r="AV16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AW16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX16" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY16">
+        <v>2010</v>
       </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:51">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17">
         <v>105</v>
@@ -3363,7 +3459,7 @@
         <v>0.911</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17">
         <v>21759</v>
@@ -3372,19 +3468,22 @@
         <v>3520</v>
       </c>
       <c r="M17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17">
         <v>21759</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="Q17">
+        <v>1986</v>
       </c>
       <c r="R17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S17">
         <v>23</v>
@@ -3393,10 +3492,10 @@
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="W17">
         <v>79</v>
@@ -3474,30 +3573,33 @@
         <v>20.6</v>
       </c>
       <c r="AV17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AW17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX17" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY17">
+        <v>2009</v>
       </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:51">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18">
         <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18">
         <v>90</v>
@@ -3512,7 +3614,7 @@
         <v>0.795</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K18">
         <v>21291</v>
@@ -3521,19 +3623,22 @@
         <v>2936</v>
       </c>
       <c r="M18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N18">
         <v>21291</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Q18">
+        <v>1977</v>
       </c>
       <c r="R18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S18">
         <v>31</v>
@@ -3542,10 +3647,10 @@
         <v>13</v>
       </c>
       <c r="U18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="W18">
         <v>71</v>
@@ -3623,30 +3728,33 @@
         <v>18.8</v>
       </c>
       <c r="AV18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AW18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX18" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY18">
+        <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:51">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19">
         <v>70</v>
@@ -3661,7 +3769,7 @@
         <v>0.663</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19">
         <v>20786</v>
@@ -3670,19 +3778,22 @@
         <v>3004</v>
       </c>
       <c r="M19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N19">
         <v>20786</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Q19">
+        <v>1975</v>
       </c>
       <c r="R19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S19">
         <v>32</v>
@@ -3691,10 +3802,10 @@
         <v>11</v>
       </c>
       <c r="U19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W19">
         <v>70</v>
@@ -3772,30 +3883,33 @@
         <v>11.2</v>
       </c>
       <c r="AV19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AW19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX19" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY19">
+        <v>2007</v>
       </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:51">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20">
         <v>58</v>
@@ -3810,7 +3924,7 @@
         <v>0.677</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20">
         <v>19951</v>
@@ -3819,19 +3933,22 @@
         <v>2971</v>
       </c>
       <c r="M20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N20">
         <v>19951</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Q20">
+        <v>1975</v>
       </c>
       <c r="R20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S20">
         <v>31</v>
@@ -3840,10 +3957,10 @@
         <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W20">
         <v>82</v>
@@ -3921,30 +4038,33 @@
         <v>7.3</v>
       </c>
       <c r="AV20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AW20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX20" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY20">
+        <v>2006</v>
       </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:51">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21">
         <v>45</v>
@@ -3959,7 +4079,7 @@
         <v>0.542</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21">
         <v>19367</v>
@@ -3968,19 +4088,22 @@
         <v>2971</v>
       </c>
       <c r="M21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N21">
         <v>19367</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Q21">
+        <v>1975</v>
       </c>
       <c r="R21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S21">
         <v>30</v>
@@ -3989,10 +4112,10 @@
         <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W21">
         <v>74</v>
@@ -4070,30 +4193,33 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AV21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AW21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX21" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY21">
+        <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:51">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D22">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F22">
         <v>80</v>
@@ -4108,7 +4234,7 @@
         <v>0.787</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K22">
         <v>19099</v>
@@ -4117,19 +4243,22 @@
         <v>3205</v>
       </c>
       <c r="M22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N22">
         <v>19099</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Q22">
+        <v>1980</v>
       </c>
       <c r="R22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S22">
         <v>24</v>
@@ -4138,10 +4267,10 @@
         <v>5</v>
       </c>
       <c r="U22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W22">
         <v>73</v>
@@ -4219,30 +4348,33 @@
         <v>18.3</v>
       </c>
       <c r="AV22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AW22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX22" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY22">
+        <v>2004</v>
       </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:51">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -4257,7 +4389,7 @@
         <v>0.908</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23">
         <v>18288</v>
@@ -4266,19 +4398,22 @@
         <v>2971</v>
       </c>
       <c r="M23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N23">
         <v>18288</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Q23">
+        <v>1975</v>
       </c>
       <c r="R23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S23">
         <v>28</v>
@@ -4287,10 +4422,10 @@
         <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W23">
         <v>73</v>
@@ -4368,30 +4503,33 @@
         <v>6.9</v>
       </c>
       <c r="AV23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AW23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX23" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY23">
+        <v>2003</v>
       </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:51">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D24">
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24">
         <v>116</v>
@@ -4406,7 +4544,7 @@
         <v>0.967</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K24">
         <v>17783</v>
@@ -4415,19 +4553,22 @@
         <v>2971</v>
       </c>
       <c r="M24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N24">
         <v>17783</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Q24">
+        <v>1975</v>
       </c>
       <c r="R24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S24">
         <v>27</v>
@@ -4436,10 +4577,10 @@
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W24">
         <v>80</v>
@@ -4517,30 +4658,33 @@
         <v>7.6</v>
       </c>
       <c r="AV24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AW24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX24" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY24">
+        <v>2002</v>
       </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25">
         <v>48</v>
@@ -4555,7 +4699,7 @@
         <v>0.39</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25">
         <v>17363</v>
@@ -4564,19 +4708,22 @@
         <v>2648</v>
       </c>
       <c r="M25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N25">
         <v>17363</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q25">
+        <v>1967</v>
       </c>
       <c r="R25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S25">
         <v>34</v>
@@ -4585,10 +4732,10 @@
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="W25">
         <v>75</v>
@@ -4666,30 +4813,33 @@
         <v>10</v>
       </c>
       <c r="AV25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AW25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX25" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY25">
+        <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26">
         <v>48</v>
@@ -4704,7 +4854,7 @@
         <v>0.39</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K26">
         <v>17363</v>
@@ -4713,19 +4863,22 @@
         <v>2648</v>
       </c>
       <c r="M26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N26">
         <v>17364</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q26">
+        <v>1967</v>
       </c>
       <c r="R26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S26">
         <v>34</v>
@@ -4734,10 +4887,10 @@
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W26">
         <v>49</v>
@@ -4815,30 +4968,33 @@
         <v>9.1</v>
       </c>
       <c r="AV26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AW26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX26" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY26">
+        <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27">
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27">
         <v>48</v>
@@ -4853,7 +5009,7 @@
         <v>0.39</v>
       </c>
       <c r="J27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K27">
         <v>17363</v>
@@ -4862,19 +5018,22 @@
         <v>2648</v>
       </c>
       <c r="M27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N27">
         <v>17365</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q27">
+        <v>1967</v>
       </c>
       <c r="R27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S27">
         <v>34</v>
@@ -4883,10 +5042,10 @@
         <v>10</v>
       </c>
       <c r="U27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W27">
         <v>26</v>
@@ -4964,30 +5123,33 @@
         <v>11.7</v>
       </c>
       <c r="AV27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AW27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX27" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY27">
+        <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28">
         <v>62</v>
@@ -5002,7 +5164,7 @@
         <v>0.512</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K28">
         <v>16726</v>
@@ -5011,19 +5173,22 @@
         <v>2696</v>
       </c>
       <c r="M28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N28">
         <v>16726</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Q28">
+        <v>1971</v>
       </c>
       <c r="R28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S28">
         <v>29</v>
@@ -5032,10 +5197,10 @@
         <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W28">
         <v>79</v>
@@ -5113,30 +5278,33 @@
         <v>21.7</v>
       </c>
       <c r="AV28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AW28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX28" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY28">
+        <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29">
         <v>89</v>
@@ -5151,7 +5319,7 @@
         <v>0.754</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29">
         <v>16217</v>
@@ -5160,19 +5328,22 @@
         <v>2696</v>
       </c>
       <c r="M29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>16217</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Q29">
+        <v>1971</v>
       </c>
       <c r="R29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S29">
         <v>28</v>
@@ -5181,10 +5352,10 @@
         <v>7</v>
       </c>
       <c r="U29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W29">
         <v>46</v>
@@ -5262,30 +5433,33 @@
         <v>20.1</v>
       </c>
       <c r="AV29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AW29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX29" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY29">
+        <v>1999</v>
       </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F30">
         <v>39</v>
@@ -5300,7 +5474,7 @@
         <v>0.336</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K30">
         <v>15842</v>
@@ -5309,19 +5483,22 @@
         <v>2648</v>
       </c>
       <c r="M30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N30">
         <v>15842</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q30">
+        <v>1967</v>
       </c>
       <c r="R30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S30">
         <v>31</v>
@@ -5330,10 +5507,10 @@
         <v>7</v>
       </c>
       <c r="U30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W30">
         <v>82</v>
@@ -5411,30 +5588,33 @@
         <v>13.4</v>
       </c>
       <c r="AV30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AW30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX30" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY30">
+        <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31">
         <v>60</v>
@@ -5449,7 +5629,7 @@
         <v>0.522</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K31">
         <v>15239</v>
@@ -5458,19 +5638,22 @@
         <v>2648</v>
       </c>
       <c r="M31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N31">
         <v>15239</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q31">
+        <v>1967</v>
       </c>
       <c r="R31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S31">
         <v>30</v>
@@ -5479,10 +5662,10 @@
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W31">
         <v>80</v>
@@ -5560,30 +5743,33 @@
         <v>13.3</v>
       </c>
       <c r="AV31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AW31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX31" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY31">
+        <v>1997</v>
       </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32">
         <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32">
         <v>56</v>
@@ -5598,7 +5784,7 @@
         <v>0.496</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K32">
         <v>14747</v>
@@ -5607,19 +5793,22 @@
         <v>2585</v>
       </c>
       <c r="M32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N32">
         <v>14747</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Q32">
+        <v>1969</v>
       </c>
       <c r="R32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S32">
         <v>27</v>
@@ -5628,10 +5817,10 @@
         <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W32">
         <v>81</v>
@@ -5709,30 +5898,33 @@
         <v>19.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AW32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX32" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY32">
+        <v>1996</v>
       </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33">
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33">
         <v>45</v>
@@ -5747,7 +5939,7 @@
         <v>0.429</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K33">
         <v>14209</v>
@@ -5756,19 +5948,22 @@
         <v>2648</v>
       </c>
       <c r="M33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N33">
         <v>14209</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Q33">
+        <v>1967</v>
       </c>
       <c r="R33" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S33">
         <v>28</v>
@@ -5777,10 +5972,10 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W33">
         <v>82</v>
@@ -5858,30 +6053,33 @@
         <v>11.5</v>
       </c>
       <c r="AV33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AW33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX33" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY33">
+        <v>1995</v>
       </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34">
         <v>23</v>
@@ -5896,7 +6094,7 @@
         <v>0.228</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K34">
         <v>13792</v>
@@ -5905,19 +6103,22 @@
         <v>2176</v>
       </c>
       <c r="M34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N34">
         <v>13792</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Q34">
+        <v>1963</v>
       </c>
       <c r="R34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S34">
         <v>31</v>
@@ -5926,10 +6127,10 @@
         <v>10</v>
       </c>
       <c r="U34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W34">
         <v>80</v>
@@ -6007,30 +6208,33 @@
         <v>27.3</v>
       </c>
       <c r="AV34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AW34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX34" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY34">
+        <v>1994</v>
       </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F35">
         <v>73</v>
@@ -6045,7 +6249,7 @@
         <v>0.745</v>
       </c>
       <c r="J35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K35">
         <v>13326</v>
@@ -6054,19 +6258,22 @@
         <v>2176</v>
       </c>
       <c r="M35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N35">
         <v>13326</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Q35">
+        <v>1963</v>
       </c>
       <c r="R35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S35">
         <v>30</v>
@@ -6075,10 +6282,10 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W35">
         <v>82</v>
@@ -6156,30 +6363,33 @@
         <v>26.1</v>
       </c>
       <c r="AV35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AW35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX35" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY35">
+        <v>1993</v>
       </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F36">
         <v>46</v>
@@ -6194,7 +6404,7 @@
         <v>0.479</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K36">
         <v>12802</v>
@@ -6203,19 +6413,22 @@
         <v>2494</v>
       </c>
       <c r="M36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N36">
         <v>12802</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Q36">
+        <v>1966</v>
       </c>
       <c r="R36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S36">
         <v>26</v>
@@ -6224,10 +6437,10 @@
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W36">
         <v>68</v>
@@ -6305,30 +6518,33 @@
         <v>23.2</v>
       </c>
       <c r="AV36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AW36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX36" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY36">
+        <v>1992</v>
       </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37">
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37">
         <v>51</v>
@@ -6343,7 +6559,7 @@
         <v>0.531</v>
       </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K37">
         <v>12366</v>
@@ -6352,19 +6568,22 @@
         <v>2301</v>
       </c>
       <c r="M37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N37">
         <v>12366</v>
       </c>
       <c r="O37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Q37">
+        <v>1962</v>
       </c>
       <c r="R37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S37">
         <v>29</v>
@@ -6373,10 +6592,10 @@
         <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W37">
         <v>82</v>
@@ -6454,30 +6673,33 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AV37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AW37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX37" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY37">
+        <v>1991</v>
       </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38">
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F38">
         <v>49</v>
@@ -6492,7 +6714,7 @@
         <v>0.533</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K38">
         <v>11899</v>
@@ -6501,19 +6723,22 @@
         <v>2301</v>
       </c>
       <c r="M38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N38">
         <v>11899</v>
       </c>
       <c r="O38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Q38">
+        <v>1962</v>
       </c>
       <c r="R38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S38">
         <v>28</v>
@@ -6522,10 +6747,10 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W38">
         <v>82</v>
@@ -6603,30 +6828,33 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AV38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AW38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX38" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY38">
+        <v>1990</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39">
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39">
         <v>26</v>
@@ -6641,7 +6869,7 @@
         <v>0.306</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K39">
         <v>11635</v>
@@ -6650,19 +6878,22 @@
         <v>2081</v>
       </c>
       <c r="M39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N39">
         <v>11635</v>
       </c>
       <c r="O39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Q39">
+        <v>1957</v>
       </c>
       <c r="R39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S39">
         <v>32</v>
@@ -6671,10 +6902,10 @@
         <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W39">
         <v>82</v>
@@ -6752,30 +6983,33 @@
         <v>6.2</v>
       </c>
       <c r="AV39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AW39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX39" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY39">
+        <v>1989</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40">
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40">
         <v>37</v>
@@ -6790,7 +7024,7 @@
         <v>0.463</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K40">
         <v>11208</v>
@@ -6799,19 +7033,22 @@
         <v>2193</v>
       </c>
       <c r="M40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N40">
         <v>11208</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Q40">
+        <v>1964</v>
       </c>
       <c r="R40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S40">
         <v>24</v>
@@ -6820,10 +7057,10 @@
         <v>4</v>
       </c>
       <c r="U40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="W40">
         <v>82</v>
@@ -6901,30 +7138,33 @@
         <v>35</v>
       </c>
       <c r="AV40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AW40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX40" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY40">
+        <v>1988</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41">
         <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F41">
         <v>25</v>
@@ -6939,7 +7179,7 @@
         <v>0.321</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K41">
         <v>10811</v>
@@ -6948,19 +7188,22 @@
         <v>1823</v>
       </c>
       <c r="M41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N41">
         <v>10811</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Q41">
+        <v>1957</v>
       </c>
       <c r="R41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S41">
         <v>30</v>
@@ -6969,10 +7212,10 @@
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W41">
         <v>82</v>
@@ -7050,30 +7293,33 @@
         <v>10.5</v>
       </c>
       <c r="AV41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AW41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX41" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY41">
+        <v>1987</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D42">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42">
         <v>27</v>
@@ -7088,7 +7334,7 @@
         <v>0.346</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>10190</v>
@@ -7097,19 +7343,22 @@
         <v>2158</v>
       </c>
       <c r="M42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N42">
         <v>10190</v>
       </c>
       <c r="O42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Q42">
+        <v>1963</v>
       </c>
       <c r="R42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S42">
         <v>23</v>
@@ -7118,10 +7367,10 @@
         <v>2</v>
       </c>
       <c r="U42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="W42">
         <v>82</v>
@@ -7199,30 +7448,33 @@
         <v>17</v>
       </c>
       <c r="AV42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AW42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX42" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY42">
+        <v>1986</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43">
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43">
         <v>32</v>
@@ -7237,7 +7489,7 @@
         <v>0.41</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K43">
         <v>10042</v>
@@ -7246,19 +7498,22 @@
         <v>2081</v>
       </c>
       <c r="M43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N43">
         <v>10042</v>
       </c>
       <c r="O43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Q43">
+        <v>1957</v>
       </c>
       <c r="R43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S43">
         <v>28</v>
@@ -7267,10 +7522,10 @@
         <v>3</v>
       </c>
       <c r="U43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W43">
         <v>82</v>
@@ -7348,30 +7603,33 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AV43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AW43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX43" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY43">
+        <v>1985</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:51">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44">
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <v>19</v>
@@ -7386,7 +7644,7 @@
         <v>0.25</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K44">
         <v>9782</v>
@@ -7395,19 +7653,22 @@
         <v>1889</v>
       </c>
       <c r="M44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N44">
         <v>9782</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P44" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Q44">
+        <v>1958</v>
       </c>
       <c r="R44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S44">
         <v>26</v>
@@ -7416,10 +7677,10 @@
         <v>5</v>
       </c>
       <c r="U44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W44">
         <v>79</v>
@@ -7497,30 +7758,33 @@
         <v>20.9</v>
       </c>
       <c r="AV44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AW44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX44" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY44">
+        <v>1984</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:51">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F45">
         <v>14</v>
@@ -7535,7 +7799,7 @@
         <v>0.187</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K45">
         <v>9435</v>
@@ -7544,19 +7808,22 @@
         <v>1889</v>
       </c>
       <c r="M45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N45">
         <v>9435</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Q45">
+        <v>1958</v>
       </c>
       <c r="R45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S45">
         <v>25</v>
@@ -7565,10 +7832,10 @@
         <v>4</v>
       </c>
       <c r="U45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W45">
         <v>76</v>
@@ -7646,13 +7913,16 @@
         <v>22.5</v>
       </c>
       <c r="AV45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AW45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AX45" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="AY45">
+        <v>1983</v>
       </c>
     </row>
   </sheetData>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -1155,13 +1155,13 @@
         <v>94</v>
       </c>
       <c r="Q2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R2" t="s">
         <v>182</v>
       </c>
       <c r="S2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2">
         <v>11</v>
@@ -1310,13 +1310,13 @@
         <v>95</v>
       </c>
       <c r="Q3">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="R3" t="s">
         <v>182</v>
       </c>
       <c r="S3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3">
         <v>5</v>
@@ -1465,13 +1465,13 @@
         <v>96</v>
       </c>
       <c r="Q4">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R4" t="s">
         <v>183</v>
       </c>
       <c r="S4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T4">
         <v>8</v>
@@ -1620,13 +1620,13 @@
         <v>94</v>
       </c>
       <c r="Q5">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R5" t="s">
         <v>182</v>
       </c>
       <c r="S5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5">
         <v>8</v>
@@ -1775,13 +1775,13 @@
         <v>97</v>
       </c>
       <c r="Q6">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="R6" t="s">
         <v>184</v>
       </c>
       <c r="S6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T6">
         <v>7</v>
@@ -1930,13 +1930,13 @@
         <v>94</v>
       </c>
       <c r="Q7">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R7" t="s">
         <v>182</v>
       </c>
       <c r="S7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -2085,13 +2085,13 @@
         <v>94</v>
       </c>
       <c r="Q8">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="R8" t="s">
         <v>182</v>
       </c>
       <c r="S8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -2240,13 +2240,13 @@
         <v>98</v>
       </c>
       <c r="Q9">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R9" t="s">
         <v>184</v>
       </c>
       <c r="S9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -2395,13 +2395,13 @@
         <v>99</v>
       </c>
       <c r="Q10">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R10" t="s">
         <v>185</v>
       </c>
       <c r="S10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T10">
         <v>5</v>
@@ -2550,13 +2550,13 @@
         <v>99</v>
       </c>
       <c r="Q11">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="R11" t="s">
         <v>185</v>
       </c>
       <c r="S11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T11">
         <v>4</v>
@@ -2705,13 +2705,13 @@
         <v>100</v>
       </c>
       <c r="Q12">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R12" t="s">
         <v>182</v>
       </c>
       <c r="S12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T12">
         <v>7</v>
@@ -2860,13 +2860,13 @@
         <v>101</v>
       </c>
       <c r="Q13">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R13" t="s">
         <v>182</v>
       </c>
       <c r="S13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T13">
         <v>5</v>
@@ -3015,13 +3015,13 @@
         <v>102</v>
       </c>
       <c r="Q14">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="R14" t="s">
         <v>182</v>
       </c>
       <c r="S14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T14">
         <v>11</v>
@@ -3170,13 +3170,13 @@
         <v>103</v>
       </c>
       <c r="Q15">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R15" t="s">
         <v>182</v>
       </c>
       <c r="S15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T15">
         <v>7</v>
@@ -3325,13 +3325,13 @@
         <v>103</v>
       </c>
       <c r="Q16">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R16" t="s">
         <v>182</v>
       </c>
       <c r="S16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T16">
         <v>6</v>
@@ -3480,13 +3480,13 @@
         <v>103</v>
       </c>
       <c r="Q17">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="R17" t="s">
         <v>182</v>
       </c>
       <c r="S17">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T17">
         <v>5</v>
@@ -3635,13 +3635,13 @@
         <v>104</v>
       </c>
       <c r="Q18">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="R18" t="s">
         <v>184</v>
       </c>
       <c r="S18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18">
         <v>13</v>
@@ -3790,13 +3790,13 @@
         <v>105</v>
       </c>
       <c r="Q19">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R19" t="s">
         <v>182</v>
       </c>
       <c r="S19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19">
         <v>11</v>
@@ -3945,13 +3945,13 @@
         <v>106</v>
       </c>
       <c r="Q20">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R20" t="s">
         <v>182</v>
       </c>
       <c r="S20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20">
         <v>10</v>
@@ -4100,13 +4100,13 @@
         <v>106</v>
       </c>
       <c r="Q21">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R21" t="s">
         <v>182</v>
       </c>
       <c r="S21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T21">
         <v>9</v>
@@ -4255,13 +4255,13 @@
         <v>181</v>
       </c>
       <c r="Q22">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="R22" t="s">
         <v>185</v>
       </c>
       <c r="S22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -4410,13 +4410,13 @@
         <v>106</v>
       </c>
       <c r="Q23">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R23" t="s">
         <v>182</v>
       </c>
       <c r="S23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T23">
         <v>7</v>
@@ -4565,13 +4565,13 @@
         <v>106</v>
       </c>
       <c r="Q24">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="R24" t="s">
         <v>182</v>
       </c>
       <c r="S24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T24">
         <v>6</v>
@@ -4720,13 +4720,13 @@
         <v>108</v>
       </c>
       <c r="Q25">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R25" t="s">
         <v>182</v>
       </c>
       <c r="S25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T25">
         <v>10</v>
@@ -4875,13 +4875,13 @@
         <v>108</v>
       </c>
       <c r="Q26">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R26" t="s">
         <v>182</v>
       </c>
       <c r="S26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T26">
         <v>10</v>
@@ -5030,13 +5030,13 @@
         <v>108</v>
       </c>
       <c r="Q27">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R27" t="s">
         <v>182</v>
       </c>
       <c r="S27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T27">
         <v>10</v>
@@ -5185,13 +5185,13 @@
         <v>109</v>
       </c>
       <c r="Q28">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="R28" t="s">
         <v>182</v>
       </c>
       <c r="S28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T28">
         <v>8</v>
@@ -5340,13 +5340,13 @@
         <v>109</v>
       </c>
       <c r="Q29">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="R29" t="s">
         <v>182</v>
       </c>
       <c r="S29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T29">
         <v>7</v>
@@ -5495,13 +5495,13 @@
         <v>108</v>
       </c>
       <c r="Q30">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R30" t="s">
         <v>182</v>
       </c>
       <c r="S30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T30">
         <v>7</v>
@@ -5650,13 +5650,13 @@
         <v>108</v>
       </c>
       <c r="Q31">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R31" t="s">
         <v>182</v>
       </c>
       <c r="S31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -5805,13 +5805,13 @@
         <v>110</v>
       </c>
       <c r="Q32">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="R32" t="s">
         <v>183</v>
       </c>
       <c r="S32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T32">
         <v>6</v>
@@ -5960,13 +5960,13 @@
         <v>108</v>
       </c>
       <c r="Q33">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="R33" t="s">
         <v>182</v>
       </c>
       <c r="S33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T33">
         <v>4</v>
@@ -6115,13 +6115,13 @@
         <v>111</v>
       </c>
       <c r="Q34">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R34" t="s">
         <v>182</v>
       </c>
       <c r="S34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T34">
         <v>10</v>
@@ -6270,13 +6270,13 @@
         <v>111</v>
       </c>
       <c r="Q35">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R35" t="s">
         <v>182</v>
       </c>
       <c r="S35">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T35">
         <v>9</v>
@@ -6425,13 +6425,13 @@
         <v>112</v>
       </c>
       <c r="Q36">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="R36" t="s">
         <v>182</v>
       </c>
       <c r="S36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T36">
         <v>3</v>
@@ -6580,13 +6580,13 @@
         <v>113</v>
       </c>
       <c r="Q37">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R37" t="s">
         <v>185</v>
       </c>
       <c r="S37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T37">
         <v>5</v>
@@ -6735,13 +6735,13 @@
         <v>113</v>
       </c>
       <c r="Q38">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R38" t="s">
         <v>185</v>
       </c>
       <c r="S38">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T38">
         <v>4</v>
@@ -6890,13 +6890,13 @@
         <v>114</v>
       </c>
       <c r="Q39">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R39" t="s">
         <v>182</v>
       </c>
       <c r="S39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39">
         <v>7</v>
@@ -7045,13 +7045,13 @@
         <v>115</v>
       </c>
       <c r="Q40">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="R40" t="s">
         <v>186</v>
       </c>
       <c r="S40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T40">
         <v>4</v>
@@ -7200,13 +7200,13 @@
         <v>116</v>
       </c>
       <c r="Q41">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R41" t="s">
         <v>186</v>
       </c>
       <c r="S41">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T41">
         <v>9</v>
@@ -7355,13 +7355,13 @@
         <v>117</v>
       </c>
       <c r="Q42">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R42" t="s">
         <v>186</v>
       </c>
       <c r="S42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T42">
         <v>2</v>
@@ -7510,13 +7510,13 @@
         <v>114</v>
       </c>
       <c r="Q43">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R43" t="s">
         <v>182</v>
       </c>
       <c r="S43">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T43">
         <v>3</v>
@@ -7665,13 +7665,13 @@
         <v>118</v>
       </c>
       <c r="Q44">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R44" t="s">
         <v>186</v>
       </c>
       <c r="S44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T44">
         <v>5</v>
@@ -7820,13 +7820,13 @@
         <v>118</v>
       </c>
       <c r="Q45">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="R45" t="s">
         <v>186</v>
       </c>
       <c r="S45">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T45">
         <v>4</v>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="189">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -172,9 +172,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
-    <t>Jaren Jackson Jr.</t>
-  </si>
-  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -376,27 +370,27 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>MEM</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>UTA</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>GSW</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
     <t>NYK</t>
   </si>
   <si>
@@ -436,9 +430,6 @@
     <t>2023-24</t>
   </si>
   <si>
-    <t>2022-23</t>
-  </si>
-  <si>
     <t>2021-22</t>
   </si>
   <si>
@@ -557,6 +548,9 @@
   </si>
   <si>
     <t>1982-83</t>
+  </si>
+  <si>
+    <t>Vladimir Radmanović</t>
   </si>
   <si>
     <t>Metta Sandiford-Artest</t>
@@ -944,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY45"/>
+  <dimension ref="A1:AY44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,16 +1104,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F2">
         <v>72</v>
@@ -1134,7 +1128,7 @@
         <v>0.875</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K2">
         <v>31747</v>
@@ -1143,7 +1137,7 @@
         <v>4199</v>
       </c>
       <c r="M2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N2">
         <v>31747</v>
@@ -1152,13 +1146,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>1992</v>
       </c>
       <c r="R2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S2">
         <v>32</v>
@@ -1167,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W2">
         <v>76</v>
@@ -1248,13 +1242,13 @@
         <v>14</v>
       </c>
       <c r="AV2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AW2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1265,154 +1259,154 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="H3">
         <v>500</v>
       </c>
       <c r="I3">
-        <v>0.782</v>
+        <v>0.514</v>
       </c>
       <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3">
+        <v>30183</v>
+      </c>
+      <c r="L3">
+        <v>4275</v>
+      </c>
+      <c r="M3" t="s">
         <v>138</v>
       </c>
-      <c r="K3">
-        <v>30733</v>
-      </c>
-      <c r="L3">
-        <v>4632</v>
-      </c>
-      <c r="M3" t="s">
-        <v>140</v>
-      </c>
       <c r="N3">
-        <v>30733</v>
+        <v>30183</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q3">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="R3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3">
+        <v>71</v>
+      </c>
+      <c r="X3">
+        <v>71</v>
+      </c>
+      <c r="Y3">
+        <v>32.3</v>
+      </c>
+      <c r="Z3">
+        <v>4.2</v>
+      </c>
+      <c r="AA3">
+        <v>10.1</v>
+      </c>
+      <c r="AB3">
+        <v>0.418</v>
+      </c>
+      <c r="AC3">
+        <v>1.7</v>
+      </c>
+      <c r="AD3">
+        <v>5.1</v>
+      </c>
+      <c r="AE3">
+        <v>0.331</v>
+      </c>
+      <c r="AF3">
+        <v>2.5</v>
+      </c>
+      <c r="AG3">
         <v>5</v>
       </c>
-      <c r="U3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3">
-        <v>63</v>
-      </c>
-      <c r="X3">
-        <v>63</v>
-      </c>
-      <c r="Y3">
-        <v>28.4</v>
-      </c>
-      <c r="Z3">
-        <v>6.6</v>
-      </c>
-      <c r="AA3">
-        <v>13</v>
-      </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.506</v>
       </c>
-      <c r="AC3">
-        <v>1.6</v>
-      </c>
-      <c r="AD3">
-        <v>4.5</v>
-      </c>
-      <c r="AE3">
-        <v>0.355</v>
-      </c>
-      <c r="AF3">
-        <v>5</v>
-      </c>
-      <c r="AG3">
-        <v>8.6</v>
-      </c>
-      <c r="AH3">
-        <v>0.585</v>
-      </c>
       <c r="AI3">
-        <v>0.5669999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>2.5</v>
+      </c>
+      <c r="AL3">
+        <v>0.793</v>
+      </c>
+      <c r="AM3">
+        <v>0.6</v>
+      </c>
+      <c r="AN3">
+        <v>3.2</v>
+      </c>
+      <c r="AO3">
         <v>3.8</v>
       </c>
-      <c r="AK3">
-        <v>4.9</v>
-      </c>
-      <c r="AL3">
-        <v>0.788</v>
-      </c>
-      <c r="AM3">
+      <c r="AP3">
+        <v>5.9</v>
+      </c>
+      <c r="AQ3">
         <v>1.7</v>
       </c>
-      <c r="AN3">
-        <v>5</v>
-      </c>
-      <c r="AO3">
-        <v>6.8</v>
-      </c>
-      <c r="AP3">
-        <v>1</v>
-      </c>
-      <c r="AQ3">
-        <v>1</v>
-      </c>
       <c r="AR3">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AS3">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AT3">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AU3">
-        <v>18.6</v>
+        <v>12.1</v>
       </c>
       <c r="AV3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AW3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -1420,67 +1414,67 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>257</v>
+        <v>464</v>
       </c>
       <c r="H4">
         <v>500</v>
       </c>
       <c r="I4">
-        <v>0.514</v>
+        <v>0.928</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K4">
-        <v>30183</v>
+        <v>29529</v>
       </c>
       <c r="L4">
-        <v>4275</v>
+        <v>4199</v>
       </c>
       <c r="M4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N4">
-        <v>30183</v>
+        <v>29529</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q4">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4">
         <v>8</v>
       </c>
       <c r="U4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W4">
         <v>71</v>
@@ -1489,85 +1483,85 @@
         <v>71</v>
       </c>
       <c r="Y4">
-        <v>32.3</v>
+        <v>30.8</v>
       </c>
       <c r="Z4">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AA4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.675</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>5.5</v>
+      </c>
+      <c r="AG4">
+        <v>8.1</v>
+      </c>
+      <c r="AH4">
+        <v>0.68</v>
+      </c>
+      <c r="AI4">
+        <v>0.675</v>
+      </c>
+      <c r="AJ4">
+        <v>3.3</v>
+      </c>
+      <c r="AK4">
+        <v>5.3</v>
+      </c>
+      <c r="AL4">
+        <v>0.623</v>
+      </c>
+      <c r="AM4">
+        <v>3.4</v>
+      </c>
+      <c r="AN4">
         <v>10.1</v>
       </c>
-      <c r="AB4">
-        <v>0.418</v>
-      </c>
-      <c r="AC4">
+      <c r="AO4">
+        <v>13.5</v>
+      </c>
+      <c r="AP4">
+        <v>1.3</v>
+      </c>
+      <c r="AQ4">
+        <v>0.6</v>
+      </c>
+      <c r="AR4">
+        <v>2.7</v>
+      </c>
+      <c r="AS4">
         <v>1.7</v>
-      </c>
-      <c r="AD4">
-        <v>5.1</v>
-      </c>
-      <c r="AE4">
-        <v>0.331</v>
-      </c>
-      <c r="AF4">
-        <v>2.5</v>
-      </c>
-      <c r="AG4">
-        <v>5</v>
-      </c>
-      <c r="AH4">
-        <v>0.506</v>
-      </c>
-      <c r="AI4">
-        <v>0.501</v>
-      </c>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AK4">
-        <v>2.5</v>
-      </c>
-      <c r="AL4">
-        <v>0.793</v>
-      </c>
-      <c r="AM4">
-        <v>0.6</v>
-      </c>
-      <c r="AN4">
-        <v>3.2</v>
-      </c>
-      <c r="AO4">
-        <v>3.8</v>
-      </c>
-      <c r="AP4">
-        <v>5.9</v>
-      </c>
-      <c r="AQ4">
-        <v>1.7</v>
-      </c>
-      <c r="AR4">
-        <v>0.3</v>
-      </c>
-      <c r="AS4">
-        <v>2.2</v>
       </c>
       <c r="AT4">
         <v>2.3</v>
       </c>
       <c r="AU4">
-        <v>12.1</v>
+        <v>14.3</v>
       </c>
       <c r="AV4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AW4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AX4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1575,154 +1569,154 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G5">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="H5">
         <v>500</v>
       </c>
       <c r="I5">
-        <v>0.928</v>
+        <v>0.864</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K5">
-        <v>29529</v>
+        <v>28507</v>
       </c>
       <c r="L5">
-        <v>4199</v>
+        <v>4164</v>
       </c>
       <c r="M5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N5">
-        <v>29529</v>
+        <v>28507</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="R5" t="s">
         <v>182</v>
       </c>
       <c r="S5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
+        <v>185</v>
+      </c>
+      <c r="V5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5">
+        <v>63</v>
+      </c>
+      <c r="X5">
+        <v>63</v>
+      </c>
+      <c r="Y5">
+        <v>30.4</v>
+      </c>
+      <c r="Z5">
+        <v>10.9</v>
+      </c>
+      <c r="AA5">
+        <v>19.7</v>
+      </c>
+      <c r="AB5">
+        <v>0.553</v>
+      </c>
+      <c r="AC5">
+        <v>1.4</v>
+      </c>
+      <c r="AD5">
+        <v>4.7</v>
+      </c>
+      <c r="AE5">
+        <v>0.304</v>
+      </c>
+      <c r="AF5">
+        <v>9.5</v>
+      </c>
+      <c r="AG5">
+        <v>15</v>
+      </c>
+      <c r="AH5">
+        <v>0.631</v>
+      </c>
+      <c r="AI5">
+        <v>0.589</v>
+      </c>
+      <c r="AJ5">
+        <v>6.3</v>
+      </c>
+      <c r="AK5">
+        <v>10</v>
+      </c>
+      <c r="AL5">
+        <v>0.633</v>
+      </c>
+      <c r="AM5">
+        <v>2.2</v>
+      </c>
+      <c r="AN5">
+        <v>11.4</v>
+      </c>
+      <c r="AO5">
+        <v>13.6</v>
+      </c>
+      <c r="AP5">
+        <v>5.6</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>3.7</v>
+      </c>
+      <c r="AT5">
+        <v>3.1</v>
+      </c>
+      <c r="AU5">
+        <v>29.5</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW5" t="s">
         <v>187</v>
       </c>
-      <c r="V5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W5">
-        <v>71</v>
-      </c>
-      <c r="X5">
-        <v>71</v>
-      </c>
-      <c r="Y5">
-        <v>30.8</v>
-      </c>
-      <c r="Z5">
-        <v>5.5</v>
-      </c>
-      <c r="AA5">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.675</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.1</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>5.5</v>
-      </c>
-      <c r="AG5">
-        <v>8.1</v>
-      </c>
-      <c r="AH5">
-        <v>0.68</v>
-      </c>
-      <c r="AI5">
-        <v>0.675</v>
-      </c>
-      <c r="AJ5">
-        <v>3.3</v>
-      </c>
-      <c r="AK5">
-        <v>5.3</v>
-      </c>
-      <c r="AL5">
-        <v>0.623</v>
-      </c>
-      <c r="AM5">
-        <v>3.4</v>
-      </c>
-      <c r="AN5">
-        <v>10.1</v>
-      </c>
-      <c r="AO5">
-        <v>13.5</v>
-      </c>
-      <c r="AP5">
-        <v>1.3</v>
-      </c>
-      <c r="AQ5">
-        <v>0.6</v>
-      </c>
-      <c r="AR5">
-        <v>2.7</v>
-      </c>
-      <c r="AS5">
-        <v>1.7</v>
-      </c>
-      <c r="AT5">
-        <v>2.3</v>
-      </c>
-      <c r="AU5">
-        <v>14.3</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>189</v>
-      </c>
       <c r="AX5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1730,154 +1724,154 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G6">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6">
-        <v>0.864</v>
+        <v>0.822</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K6">
-        <v>28507</v>
+        <v>28147</v>
       </c>
       <c r="L6">
-        <v>4164</v>
+        <v>4199</v>
       </c>
       <c r="M6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N6">
-        <v>28507</v>
+        <v>28147</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q6">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="R6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U6" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6">
+        <v>81</v>
+      </c>
+      <c r="X6">
+        <v>80</v>
+      </c>
+      <c r="Y6">
+        <v>31.8</v>
+      </c>
+      <c r="Z6">
+        <v>5.9</v>
+      </c>
+      <c r="AA6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>0.669</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>5.9</v>
+      </c>
+      <c r="AG6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.669</v>
+      </c>
+      <c r="AI6">
+        <v>0.669</v>
+      </c>
+      <c r="AJ6">
+        <v>4.1</v>
+      </c>
+      <c r="AK6">
+        <v>6.4</v>
+      </c>
+      <c r="AL6">
+        <v>0.636</v>
+      </c>
+      <c r="AM6">
+        <v>3.8</v>
+      </c>
+      <c r="AN6">
+        <v>9</v>
+      </c>
+      <c r="AO6">
+        <v>12.9</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>0.8</v>
+      </c>
+      <c r="AR6">
+        <v>2.3</v>
+      </c>
+      <c r="AS6">
+        <v>1.6</v>
+      </c>
+      <c r="AT6">
+        <v>2.9</v>
+      </c>
+      <c r="AU6">
+        <v>15.9</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW6" t="s">
         <v>187</v>
       </c>
-      <c r="V6" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6">
-        <v>63</v>
-      </c>
-      <c r="X6">
-        <v>63</v>
-      </c>
-      <c r="Y6">
-        <v>30.4</v>
-      </c>
-      <c r="Z6">
-        <v>10.9</v>
-      </c>
-      <c r="AA6">
-        <v>19.7</v>
-      </c>
-      <c r="AB6">
-        <v>0.553</v>
-      </c>
-      <c r="AC6">
-        <v>1.4</v>
-      </c>
-      <c r="AD6">
-        <v>4.7</v>
-      </c>
-      <c r="AE6">
-        <v>0.304</v>
-      </c>
-      <c r="AF6">
-        <v>9.5</v>
-      </c>
-      <c r="AG6">
-        <v>15</v>
-      </c>
-      <c r="AH6">
-        <v>0.631</v>
-      </c>
-      <c r="AI6">
-        <v>0.589</v>
-      </c>
-      <c r="AJ6">
-        <v>6.3</v>
-      </c>
-      <c r="AK6">
-        <v>10</v>
-      </c>
-      <c r="AL6">
-        <v>0.633</v>
-      </c>
-      <c r="AM6">
-        <v>2.2</v>
-      </c>
-      <c r="AN6">
-        <v>11.4</v>
-      </c>
-      <c r="AO6">
-        <v>13.6</v>
-      </c>
-      <c r="AP6">
-        <v>5.6</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
-        <v>3.7</v>
-      </c>
-      <c r="AT6">
-        <v>3.1</v>
-      </c>
-      <c r="AU6">
-        <v>29.5</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>189</v>
-      </c>
       <c r="AX6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1885,85 +1879,85 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
       <c r="D7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F7">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="H7">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I7">
-        <v>0.822</v>
+        <v>0.923</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K7">
-        <v>28147</v>
+        <v>27467</v>
       </c>
       <c r="L7">
         <v>4199</v>
       </c>
       <c r="M7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N7">
-        <v>28147</v>
+        <v>27467</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>1992</v>
       </c>
       <c r="R7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W7">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="X7">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Y7">
-        <v>31.8</v>
+        <v>32.4</v>
       </c>
       <c r="Z7">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AA7">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="AB7">
-        <v>0.669</v>
+        <v>0.622</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1975,37 +1969,37 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AG7">
-        <v>8.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="AH7">
-        <v>0.669</v>
+        <v>0.622</v>
       </c>
       <c r="AI7">
-        <v>0.669</v>
+        <v>0.622</v>
       </c>
       <c r="AJ7">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AK7">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="AL7">
-        <v>0.636</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="AM7">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="AN7">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AO7">
-        <v>12.9</v>
+        <v>10.7</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2014,25 +2008,25 @@
         <v>2.3</v>
       </c>
       <c r="AS7">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AT7">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AU7">
-        <v>15.9</v>
+        <v>13.5</v>
       </c>
       <c r="AV7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AW7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY7">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -2040,154 +2034,154 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G8">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="H8">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I8">
-        <v>0.923</v>
+        <v>0.868</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K8">
-        <v>27467</v>
+        <v>26494</v>
       </c>
       <c r="L8">
-        <v>4199</v>
+        <v>4085</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N8">
-        <v>27467</v>
+        <v>26494</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="R8" t="s">
         <v>182</v>
       </c>
       <c r="S8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T8">
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="X8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Y8">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="Z8">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AA8">
+        <v>8.6</v>
+      </c>
+      <c r="AB8">
+        <v>0.418</v>
+      </c>
+      <c r="AC8">
+        <v>1.1</v>
+      </c>
+      <c r="AD8">
+        <v>3.5</v>
+      </c>
+      <c r="AE8">
+        <v>0.308</v>
+      </c>
+      <c r="AF8">
+        <v>2.5</v>
+      </c>
+      <c r="AG8">
+        <v>5.1</v>
+      </c>
+      <c r="AH8">
+        <v>0.494</v>
+      </c>
+      <c r="AI8">
+        <v>0.481</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>2.8</v>
+      </c>
+      <c r="AL8">
+        <v>0.709</v>
+      </c>
+      <c r="AM8">
+        <v>1.3</v>
+      </c>
+      <c r="AN8">
+        <v>6.6</v>
+      </c>
+      <c r="AO8">
         <v>7.9</v>
       </c>
-      <c r="AB8">
-        <v>0.622</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>4.9</v>
-      </c>
-      <c r="AG8">
-        <v>7.9</v>
-      </c>
-      <c r="AH8">
-        <v>0.622</v>
-      </c>
-      <c r="AI8">
-        <v>0.622</v>
-      </c>
-      <c r="AJ8">
-        <v>3.6</v>
-      </c>
-      <c r="AK8">
-        <v>5.3</v>
-      </c>
-      <c r="AL8">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="AM8">
+      <c r="AP8">
+        <v>7</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>1.4</v>
+      </c>
+      <c r="AS8">
+        <v>2.4</v>
+      </c>
+      <c r="AT8">
         <v>2.9</v>
       </c>
-      <c r="AN8">
-        <v>7.8</v>
-      </c>
-      <c r="AO8">
-        <v>10.7</v>
-      </c>
-      <c r="AP8">
-        <v>1.4</v>
-      </c>
-      <c r="AQ8">
-        <v>0.8</v>
-      </c>
-      <c r="AR8">
-        <v>2.3</v>
-      </c>
-      <c r="AS8">
-        <v>1.9</v>
-      </c>
-      <c r="AT8">
-        <v>2.7</v>
-      </c>
       <c r="AU8">
-        <v>13.5</v>
+        <v>10.2</v>
       </c>
       <c r="AV8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AW8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY8">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2195,154 +2189,154 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G9">
-        <v>434</v>
+        <v>547</v>
       </c>
       <c r="H9">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="I9">
-        <v>0.868</v>
+        <v>0.842</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K9">
-        <v>26494</v>
+        <v>26060</v>
       </c>
       <c r="L9">
-        <v>4085</v>
+        <v>4032</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N9">
-        <v>26494</v>
+        <v>26060</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q9">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="R9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T9">
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y9">
-        <v>32.5</v>
+        <v>33.1</v>
       </c>
       <c r="Z9">
-        <v>3.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA9">
-        <v>8.6</v>
+        <v>15.1</v>
       </c>
       <c r="AB9">
-        <v>0.418</v>
+        <v>0.506</v>
       </c>
       <c r="AC9">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AE9">
-        <v>0.308</v>
+        <v>0.443</v>
       </c>
       <c r="AF9">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="AG9">
-        <v>5.1</v>
+        <v>11.1</v>
       </c>
       <c r="AH9">
-        <v>0.494</v>
+        <v>0.528</v>
       </c>
       <c r="AI9">
-        <v>0.481</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="AK9">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="AL9">
-        <v>0.709</v>
+        <v>0.874</v>
       </c>
       <c r="AM9">
         <v>1.3</v>
       </c>
       <c r="AN9">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="AO9">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="AP9">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AU9">
-        <v>10.2</v>
+        <v>21.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AW9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY9">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2350,154 +2344,154 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F10">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>547</v>
+        <v>333</v>
       </c>
       <c r="H10">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="I10">
-        <v>0.842</v>
+        <v>0.516</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K10">
-        <v>26060</v>
+        <v>25447</v>
       </c>
       <c r="L10">
         <v>4032</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N10">
-        <v>26060</v>
+        <v>25447</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q10">
         <v>1991</v>
       </c>
       <c r="R10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10">
+        <v>24</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
         <v>185</v>
       </c>
-      <c r="S10">
-        <v>25</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10" t="s">
-        <v>187</v>
-      </c>
       <c r="V10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W10">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="X10">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Y10">
-        <v>33.1</v>
+        <v>31.8</v>
       </c>
       <c r="Z10">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="AA10">
-        <v>15.1</v>
+        <v>12.8</v>
       </c>
       <c r="AB10">
-        <v>0.506</v>
+        <v>0.479</v>
       </c>
       <c r="AC10">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>0.443</v>
+        <v>0.349</v>
       </c>
       <c r="AF10">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="AG10">
-        <v>11.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.528</v>
+        <v>0.519</v>
       </c>
       <c r="AI10">
-        <v>0.5649999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="AJ10">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AK10">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AL10">
-        <v>0.874</v>
+        <v>0.802</v>
       </c>
       <c r="AM10">
         <v>1.3</v>
       </c>
       <c r="AN10">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AO10">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AP10">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AS10">
         <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AU10">
-        <v>21.2</v>
+        <v>16.5</v>
       </c>
       <c r="AV10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AW10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY10">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2505,154 +2499,154 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>333</v>
+        <v>555</v>
       </c>
       <c r="H11">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="I11">
-        <v>0.516</v>
+        <v>0.888</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11">
-        <v>25447</v>
+        <v>24779</v>
       </c>
       <c r="L11">
-        <v>4032</v>
+        <v>3763</v>
       </c>
       <c r="M11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N11">
-        <v>25447</v>
+        <v>24779</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q11">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="R11" t="s">
+        <v>180</v>
+      </c>
+      <c r="S11">
+        <v>29</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11" t="s">
         <v>185</v>
       </c>
-      <c r="S11">
-        <v>24</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
+        <v>123</v>
+      </c>
+      <c r="W11">
+        <v>80</v>
+      </c>
+      <c r="X11">
+        <v>80</v>
+      </c>
+      <c r="Y11">
+        <v>35.3</v>
+      </c>
+      <c r="Z11">
+        <v>4.8</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>0.475</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>4.8</v>
+      </c>
+      <c r="AG11">
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <v>0.476</v>
+      </c>
+      <c r="AI11">
+        <v>0.475</v>
+      </c>
+      <c r="AJ11">
+        <v>3.1</v>
+      </c>
+      <c r="AK11">
+        <v>4.2</v>
+      </c>
+      <c r="AL11">
+        <v>0.737</v>
+      </c>
+      <c r="AM11">
+        <v>3.5</v>
+      </c>
+      <c r="AN11">
+        <v>7.7</v>
+      </c>
+      <c r="AO11">
+        <v>11.3</v>
+      </c>
+      <c r="AP11">
+        <v>5.4</v>
+      </c>
+      <c r="AQ11">
+        <v>1.2</v>
+      </c>
+      <c r="AR11">
+        <v>1.5</v>
+      </c>
+      <c r="AS11">
+        <v>2.4</v>
+      </c>
+      <c r="AT11">
+        <v>3.1</v>
+      </c>
+      <c r="AU11">
+        <v>12.6</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW11" t="s">
         <v>187</v>
       </c>
-      <c r="V11" t="s">
-        <v>125</v>
-      </c>
-      <c r="W11">
-        <v>64</v>
-      </c>
-      <c r="X11">
-        <v>64</v>
-      </c>
-      <c r="Y11">
-        <v>31.8</v>
-      </c>
-      <c r="Z11">
-        <v>6.2</v>
-      </c>
-      <c r="AA11">
-        <v>12.8</v>
-      </c>
-      <c r="AB11">
-        <v>0.479</v>
-      </c>
-      <c r="AC11">
-        <v>1</v>
-      </c>
-      <c r="AD11">
-        <v>3</v>
-      </c>
-      <c r="AE11">
-        <v>0.349</v>
-      </c>
-      <c r="AF11">
-        <v>5.1</v>
-      </c>
-      <c r="AG11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH11">
-        <v>0.519</v>
-      </c>
-      <c r="AI11">
-        <v>0.52</v>
-      </c>
-      <c r="AJ11">
-        <v>3.2</v>
-      </c>
-      <c r="AK11">
-        <v>3.9</v>
-      </c>
-      <c r="AL11">
-        <v>0.802</v>
-      </c>
-      <c r="AM11">
-        <v>1.3</v>
-      </c>
-      <c r="AN11">
-        <v>5.9</v>
-      </c>
-      <c r="AO11">
-        <v>7.2</v>
-      </c>
-      <c r="AP11">
-        <v>2.5</v>
-      </c>
-      <c r="AQ11">
-        <v>2.3</v>
-      </c>
-      <c r="AR11">
-        <v>0.8</v>
-      </c>
-      <c r="AS11">
-        <v>1.5</v>
-      </c>
-      <c r="AT11">
-        <v>2</v>
-      </c>
-      <c r="AU11">
-        <v>16.5</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>190</v>
-      </c>
       <c r="AX11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2660,67 +2654,67 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>555</v>
+        <v>212</v>
       </c>
       <c r="H12">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="I12">
-        <v>0.888</v>
+        <v>0.35</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K12">
-        <v>24779</v>
+        <v>24297</v>
       </c>
       <c r="L12">
-        <v>3763</v>
+        <v>3835</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N12">
-        <v>24779</v>
+        <v>24297</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q12">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="R12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S12">
         <v>29</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W12">
         <v>80</v>
@@ -2729,85 +2723,85 @@
         <v>80</v>
       </c>
       <c r="Y12">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="Z12">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>10.9</v>
       </c>
       <c r="AB12">
-        <v>0.475</v>
+        <v>0.494</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AF12">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AG12">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="AH12">
-        <v>0.476</v>
+        <v>0.501</v>
       </c>
       <c r="AI12">
-        <v>0.475</v>
+        <v>0.494</v>
       </c>
       <c r="AJ12">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AK12">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AL12">
-        <v>0.737</v>
+        <v>0.848</v>
       </c>
       <c r="AM12">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AN12">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="AO12">
-        <v>11.3</v>
+        <v>7.8</v>
       </c>
       <c r="AP12">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AS12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT12">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU12">
-        <v>12.6</v>
+        <v>14.1</v>
       </c>
       <c r="AV12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AW12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2815,154 +2809,154 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G13">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="H13">
         <v>605</v>
       </c>
       <c r="I13">
-        <v>0.35</v>
+        <v>0.514</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K13">
-        <v>24297</v>
+        <v>23892</v>
       </c>
       <c r="L13">
-        <v>3835</v>
+        <v>3360</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N13">
-        <v>24297</v>
+        <v>23896</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="Q13">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="R13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="W13">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="X13">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>35</v>
+        <v>15.4</v>
       </c>
       <c r="Z13">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA13">
-        <v>10.9</v>
+        <v>4</v>
       </c>
       <c r="AB13">
-        <v>0.494</v>
+        <v>0.376</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="AE13">
-        <v>0.07099999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="AF13">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="AG13">
-        <v>10.7</v>
+        <v>1.3</v>
       </c>
       <c r="AH13">
-        <v>0.501</v>
+        <v>0.387</v>
       </c>
       <c r="AI13">
-        <v>0.494</v>
+        <v>0.503</v>
       </c>
       <c r="AJ13">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="AK13">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="AL13">
-        <v>0.848</v>
+        <v>0.759</v>
       </c>
       <c r="AM13">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="AN13">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO13">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="AP13">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR13">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="AT13">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="AU13">
-        <v>14.1</v>
+        <v>4.5</v>
       </c>
       <c r="AV13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AW13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY13">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2970,154 +2964,154 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="G14">
-        <v>311</v>
+        <v>585</v>
       </c>
       <c r="H14">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="I14">
-        <v>0.514</v>
+        <v>0.975</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K14">
-        <v>23892</v>
+        <v>22919</v>
       </c>
       <c r="L14">
-        <v>3360</v>
+        <v>3520</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N14">
-        <v>23892</v>
+        <v>22919</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q14">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="R14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S14">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="T14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W14">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="X14">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="Y14">
-        <v>33.2</v>
+        <v>37.6</v>
       </c>
       <c r="Z14">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="AA14">
-        <v>5.7</v>
+        <v>13.4</v>
       </c>
       <c r="AB14">
-        <v>0.679</v>
+        <v>0.593</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>3.9</v>
+        <v>7.9</v>
       </c>
       <c r="AG14">
-        <v>5.7</v>
+        <v>13.3</v>
       </c>
       <c r="AH14">
-        <v>0.6830000000000001</v>
+        <v>0.597</v>
       </c>
       <c r="AI14">
-        <v>0.679</v>
+        <v>0.593</v>
       </c>
       <c r="AJ14">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="AK14">
-        <v>5.1</v>
+        <v>11.7</v>
       </c>
       <c r="AL14">
-        <v>0.6889999999999999</v>
+        <v>0.596</v>
       </c>
       <c r="AM14">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AN14">
-        <v>6.5</v>
+        <v>10.1</v>
       </c>
       <c r="AO14">
-        <v>9.9</v>
+        <v>14.1</v>
       </c>
       <c r="AP14">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AR14">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="AT14">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AU14">
-        <v>11.3</v>
+        <v>22.9</v>
       </c>
       <c r="AV14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AW14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AX14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY14">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3125,85 +3119,85 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F15">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G15">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="H15">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="I15">
-        <v>0.975</v>
+        <v>0.944</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K15">
-        <v>22919</v>
+        <v>22328</v>
       </c>
       <c r="L15">
         <v>3520</v>
       </c>
       <c r="M15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N15">
-        <v>22919</v>
+        <v>22328</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q15">
         <v>1985</v>
       </c>
       <c r="R15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y15">
-        <v>37.6</v>
+        <v>34.7</v>
       </c>
       <c r="Z15">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="AA15">
-        <v>13.4</v>
+        <v>10.2</v>
       </c>
       <c r="AB15">
-        <v>0.593</v>
+        <v>0.612</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -3215,64 +3209,64 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="AG15">
-        <v>13.3</v>
+        <v>10.1</v>
       </c>
       <c r="AH15">
-        <v>0.597</v>
+        <v>0.617</v>
       </c>
       <c r="AI15">
-        <v>0.593</v>
+        <v>0.612</v>
       </c>
       <c r="AJ15">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AK15">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="AL15">
-        <v>0.596</v>
+        <v>0.592</v>
       </c>
       <c r="AM15">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AN15">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AO15">
-        <v>14.1</v>
+        <v>13.2</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AR15">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AS15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AT15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU15">
-        <v>22.9</v>
+        <v>18.3</v>
       </c>
       <c r="AV15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AW15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY15">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3280,154 +3274,154 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F16">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G16">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="H16">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="I16">
-        <v>0.944</v>
+        <v>0.911</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K16">
-        <v>22328</v>
+        <v>21759</v>
       </c>
       <c r="L16">
         <v>3520</v>
       </c>
       <c r="M16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N16">
-        <v>22328</v>
+        <v>21759</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q16">
         <v>1985</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="W16">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X16">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y16">
-        <v>34.7</v>
+        <v>35.7</v>
       </c>
       <c r="Z16">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA16">
-        <v>10.2</v>
+        <v>12.4</v>
       </c>
       <c r="AB16">
-        <v>0.612</v>
+        <v>0.572</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AG16">
-        <v>10.1</v>
+        <v>12.4</v>
       </c>
       <c r="AH16">
-        <v>0.617</v>
+        <v>0.573</v>
       </c>
       <c r="AI16">
-        <v>0.612</v>
+        <v>0.572</v>
       </c>
       <c r="AJ16">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AK16">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="AL16">
-        <v>0.592</v>
+        <v>0.594</v>
       </c>
       <c r="AM16">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="AN16">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AO16">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AS16">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AT16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU16">
-        <v>18.3</v>
+        <v>20.6</v>
       </c>
       <c r="AV16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AW16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY16">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3435,154 +3429,154 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G17">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="H17">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="I17">
-        <v>0.911</v>
+        <v>0.795</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K17">
-        <v>21759</v>
+        <v>21291</v>
       </c>
       <c r="L17">
-        <v>3520</v>
+        <v>2936</v>
       </c>
       <c r="M17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N17">
-        <v>21759</v>
+        <v>21291</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q17">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="R17" t="s">
         <v>182</v>
       </c>
       <c r="S17">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="W17">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="X17">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y17">
-        <v>35.7</v>
+        <v>32.8</v>
       </c>
       <c r="Z17">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA17">
-        <v>12.4</v>
+        <v>13.9</v>
       </c>
       <c r="AB17">
-        <v>0.572</v>
+        <v>0.539</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AG17">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="AH17">
-        <v>0.573</v>
+        <v>0.545</v>
       </c>
       <c r="AI17">
-        <v>0.572</v>
+        <v>0.539</v>
       </c>
       <c r="AJ17">
-        <v>6.4</v>
+        <v>3.8</v>
       </c>
       <c r="AK17">
-        <v>10.7</v>
+        <v>4.7</v>
       </c>
       <c r="AL17">
-        <v>0.594</v>
+        <v>0.801</v>
       </c>
       <c r="AM17">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="AN17">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="AO17">
-        <v>13.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AP17">
+        <v>3.4</v>
+      </c>
+      <c r="AQ17">
         <v>1.4</v>
       </c>
-      <c r="AQ17">
-        <v>1</v>
-      </c>
       <c r="AR17">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AU17">
-        <v>20.6</v>
+        <v>18.8</v>
       </c>
       <c r="AV17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY17">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3590,154 +3584,154 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="H18">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="I18">
-        <v>0.795</v>
+        <v>0.663</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K18">
-        <v>21291</v>
+        <v>20786</v>
       </c>
       <c r="L18">
-        <v>2936</v>
+        <v>3004</v>
       </c>
       <c r="M18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N18">
-        <v>21291</v>
+        <v>20786</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q18">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="R18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V18" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="W18">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X18">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y18">
-        <v>32.8</v>
+        <v>33.8</v>
       </c>
       <c r="Z18">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AA18">
-        <v>13.9</v>
+        <v>9.4</v>
       </c>
       <c r="AB18">
-        <v>0.539</v>
+        <v>0.473</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG18">
-        <v>13.8</v>
+        <v>9.4</v>
       </c>
       <c r="AH18">
-        <v>0.545</v>
+        <v>0.475</v>
       </c>
       <c r="AI18">
-        <v>0.539</v>
+        <v>0.473</v>
       </c>
       <c r="AJ18">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="AK18">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="AL18">
-        <v>0.801</v>
+        <v>0.729</v>
       </c>
       <c r="AM18">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AN18">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AO18">
-        <v>9.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AP18">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="AS18">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AT18">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AU18">
-        <v>18.8</v>
+        <v>11.2</v>
       </c>
       <c r="AV18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AW18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AX18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY18">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3745,85 +3739,85 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H19">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="I19">
-        <v>0.663</v>
+        <v>0.677</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K19">
-        <v>20786</v>
+        <v>19951</v>
       </c>
       <c r="L19">
-        <v>3004</v>
+        <v>2971</v>
       </c>
       <c r="M19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N19">
-        <v>20786</v>
+        <v>19951</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q19">
         <v>1974</v>
       </c>
       <c r="R19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W19">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="X19">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Y19">
-        <v>33.8</v>
+        <v>35.2</v>
       </c>
       <c r="Z19">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="AA19">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB19">
-        <v>0.473</v>
+        <v>0.51</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3835,64 +3829,64 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="AG19">
-        <v>9.4</v>
+        <v>5.6</v>
       </c>
       <c r="AH19">
-        <v>0.475</v>
+        <v>0.514</v>
       </c>
       <c r="AI19">
-        <v>0.473</v>
+        <v>0.51</v>
       </c>
       <c r="AJ19">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AK19">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AL19">
-        <v>0.729</v>
+        <v>0.416</v>
       </c>
       <c r="AM19">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="AN19">
-        <v>9.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AO19">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="AP19">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AR19">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="AS19">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AT19">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AU19">
-        <v>11.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AW19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY19">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3900,154 +3894,154 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F20">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="H20">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="I20">
-        <v>0.677</v>
+        <v>0.542</v>
       </c>
       <c r="J20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K20">
-        <v>19951</v>
+        <v>19367</v>
       </c>
       <c r="L20">
         <v>2971</v>
       </c>
       <c r="M20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N20">
-        <v>19951</v>
+        <v>19367</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q20">
         <v>1974</v>
       </c>
       <c r="R20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W20">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="X20">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Y20">
-        <v>35.2</v>
+        <v>36.1</v>
       </c>
       <c r="Z20">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AA20">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.51</v>
+        <v>0.453</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AF20">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AG20">
-        <v>5.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH20">
-        <v>0.514</v>
+        <v>0.458</v>
       </c>
       <c r="AI20">
-        <v>0.51</v>
+        <v>0.454</v>
       </c>
       <c r="AJ20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AK20">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AL20">
-        <v>0.416</v>
+        <v>0.428</v>
       </c>
       <c r="AM20">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AN20">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO20">
-        <v>11.3</v>
+        <v>12.2</v>
       </c>
       <c r="AP20">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AQ20">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AS20">
         <v>1.1</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU20">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AW20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY20">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="21" spans="1:51">
@@ -4055,154 +4049,154 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G21">
-        <v>339</v>
+        <v>476</v>
       </c>
       <c r="H21">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="I21">
-        <v>0.542</v>
+        <v>0.787</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K21">
-        <v>19367</v>
+        <v>19099</v>
       </c>
       <c r="L21">
-        <v>2971</v>
+        <v>3205</v>
       </c>
       <c r="M21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N21">
-        <v>19367</v>
+        <v>19099</v>
       </c>
       <c r="O21" t="s">
         <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="Q21">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="R21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S21">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W21">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X21">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y21">
-        <v>36.1</v>
+        <v>37.2</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="AA21">
-        <v>8.800000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="AB21">
-        <v>0.453</v>
+        <v>0.421</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="AE21">
-        <v>0.111</v>
+        <v>0.31</v>
       </c>
       <c r="AF21">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="AG21">
-        <v>8.699999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="AH21">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
       <c r="AI21">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="AJ21">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="AK21">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AL21">
-        <v>0.428</v>
+        <v>0.733</v>
       </c>
       <c r="AM21">
+        <v>1.4</v>
+      </c>
+      <c r="AN21">
         <v>3.9</v>
       </c>
-      <c r="AN21">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AO21">
-        <v>12.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP21">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AR21">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="AS21">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="AT21">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="AU21">
-        <v>9.699999999999999</v>
+        <v>18.3</v>
       </c>
       <c r="AV21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AW21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY21">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -4210,154 +4204,154 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="H22">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="I22">
-        <v>0.787</v>
+        <v>0.908</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K22">
-        <v>19099</v>
+        <v>18288</v>
       </c>
       <c r="L22">
-        <v>3205</v>
+        <v>2971</v>
       </c>
       <c r="M22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N22">
-        <v>19099</v>
+        <v>18288</v>
       </c>
       <c r="O22" t="s">
         <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="Q22">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="R22" t="s">
+        <v>180</v>
+      </c>
+      <c r="S22">
+        <v>29</v>
+      </c>
+      <c r="T22">
+        <v>7</v>
+      </c>
+      <c r="U22" t="s">
         <v>185</v>
       </c>
-      <c r="S22">
-        <v>25</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="U22" t="s">
-        <v>187</v>
-      </c>
       <c r="V22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="W22">
         <v>73</v>
       </c>
       <c r="X22">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y22">
-        <v>37.2</v>
+        <v>39.4</v>
       </c>
       <c r="Z22">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="AA22">
-        <v>15.2</v>
+        <v>6</v>
       </c>
       <c r="AB22">
-        <v>0.421</v>
+        <v>0.481</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="AE22">
-        <v>0.31</v>
+        <v>0.167</v>
       </c>
       <c r="AF22">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="AG22">
-        <v>11.9</v>
+        <v>5.9</v>
       </c>
       <c r="AH22">
-        <v>0.452</v>
+        <v>0.485</v>
       </c>
       <c r="AI22">
-        <v>0.455</v>
+        <v>0.482</v>
       </c>
       <c r="AJ22">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="AK22">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="AL22">
-        <v>0.733</v>
+        <v>0.45</v>
       </c>
       <c r="AM22">
+        <v>4</v>
+      </c>
+      <c r="AN22">
+        <v>11.4</v>
+      </c>
+      <c r="AO22">
+        <v>15.4</v>
+      </c>
+      <c r="AP22">
+        <v>1.6</v>
+      </c>
+      <c r="AQ22">
         <v>1.4</v>
       </c>
-      <c r="AN22">
-        <v>3.9</v>
-      </c>
-      <c r="AO22">
-        <v>5.3</v>
-      </c>
-      <c r="AP22">
-        <v>3.7</v>
-      </c>
-      <c r="AQ22">
-        <v>2.1</v>
-      </c>
       <c r="AR22">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="AS22">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AU22">
-        <v>18.3</v>
+        <v>6.9</v>
       </c>
       <c r="AV22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AW22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY22">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -4365,154 +4359,154 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G23">
-        <v>531</v>
+        <v>116</v>
       </c>
       <c r="H23">
-        <v>585</v>
+        <v>120</v>
       </c>
       <c r="I23">
-        <v>0.908</v>
+        <v>0.967</v>
       </c>
       <c r="J23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K23">
-        <v>18288</v>
+        <v>17783</v>
       </c>
       <c r="L23">
         <v>2971</v>
       </c>
       <c r="M23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N23">
-        <v>18288</v>
+        <v>17783</v>
       </c>
       <c r="O23" t="s">
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q23">
         <v>1974</v>
       </c>
       <c r="R23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W23">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="X23">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y23">
-        <v>39.4</v>
+        <v>36.5</v>
       </c>
       <c r="Z23">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AA23">
         <v>6</v>
       </c>
       <c r="AB23">
-        <v>0.481</v>
+        <v>0.531</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AG23">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AH23">
-        <v>0.485</v>
+        <v>0.535</v>
       </c>
       <c r="AI23">
-        <v>0.482</v>
+        <v>0.531</v>
       </c>
       <c r="AJ23">
         <v>1.2</v>
       </c>
       <c r="AK23">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AL23">
-        <v>0.45</v>
+        <v>0.423</v>
       </c>
       <c r="AM23">
         <v>4</v>
       </c>
       <c r="AN23">
-        <v>11.4</v>
+        <v>9</v>
       </c>
       <c r="AO23">
-        <v>15.4</v>
+        <v>13</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR23">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AS23">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AT23">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU23">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="AV23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AW23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY23">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4520,43 +4514,43 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>130</v>
       </c>
       <c r="F24">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="G24">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H24">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I24">
-        <v>0.967</v>
+        <v>0.39</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K24">
-        <v>17783</v>
+        <v>17363</v>
       </c>
       <c r="L24">
-        <v>2971</v>
+        <v>2648</v>
       </c>
       <c r="M24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N24">
-        <v>17783</v>
+        <v>17363</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -4565,40 +4559,40 @@
         <v>106</v>
       </c>
       <c r="Q24">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="R24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V24" t="s">
         <v>130</v>
       </c>
       <c r="W24">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X24">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y24">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="Z24">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AB24">
-        <v>0.531</v>
+        <v>0.484</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -4610,81 +4604,81 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AG24">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AH24">
-        <v>0.535</v>
+        <v>0.484</v>
       </c>
       <c r="AI24">
-        <v>0.531</v>
+        <v>0.484</v>
       </c>
       <c r="AJ24">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="AK24">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AL24">
-        <v>0.423</v>
+        <v>0.725</v>
       </c>
       <c r="AM24">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AN24">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AO24">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="AR24">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AS24">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="AT24">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AU24">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AW24" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AX24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY24">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25">
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F25">
         <v>48</v>
@@ -4699,7 +4693,7 @@
         <v>0.39</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K25">
         <v>17363</v>
@@ -4708,22 +4702,22 @@
         <v>2648</v>
       </c>
       <c r="M25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N25">
-        <v>17363</v>
+        <v>17364</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q25">
         <v>1966</v>
       </c>
       <c r="R25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S25">
         <v>35</v>
@@ -4732,28 +4726,28 @@
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V25" t="s">
         <v>132</v>
       </c>
       <c r="W25">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="X25">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="Y25">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="Z25">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AA25">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB25">
-        <v>0.484</v>
+        <v>0.477</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4765,61 +4759,61 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AG25">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AH25">
-        <v>0.484</v>
+        <v>0.477</v>
       </c>
       <c r="AI25">
-        <v>0.484</v>
+        <v>0.477</v>
       </c>
       <c r="AJ25">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK25">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AL25">
-        <v>0.725</v>
+        <v>0.695</v>
       </c>
       <c r="AM25">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AN25">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="AO25">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ25">
         <v>0.4</v>
       </c>
       <c r="AR25">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AS25">
         <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AU25">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="AV25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AW25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4827,19 +4821,19 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F26">
         <v>48</v>
@@ -4854,7 +4848,7 @@
         <v>0.39</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K26">
         <v>17363</v>
@@ -4863,22 +4857,22 @@
         <v>2648</v>
       </c>
       <c r="M26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N26">
-        <v>17364</v>
+        <v>17365</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q26">
         <v>1966</v>
       </c>
       <c r="R26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S26">
         <v>35</v>
@@ -4887,28 +4881,28 @@
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V26" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="W26">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X26">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="Y26">
-        <v>35</v>
+        <v>33.7</v>
       </c>
       <c r="Z26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AA26">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AB26">
-        <v>0.477</v>
+        <v>0.495</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4920,61 +4914,61 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AG26">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AH26">
-        <v>0.477</v>
+        <v>0.495</v>
       </c>
       <c r="AI26">
-        <v>0.477</v>
+        <v>0.495</v>
       </c>
       <c r="AJ26">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="AK26">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="AL26">
-        <v>0.695</v>
+        <v>0.759</v>
       </c>
       <c r="AM26">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AN26">
-        <v>10.3</v>
+        <v>7.8</v>
       </c>
       <c r="AO26">
-        <v>14.1</v>
+        <v>12.4</v>
       </c>
       <c r="AP26">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AR26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AS26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU26">
-        <v>9.1</v>
+        <v>11.7</v>
       </c>
       <c r="AV26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AW26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AX26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY26">
         <v>2001</v>
@@ -4985,154 +4979,154 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F27">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G27">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H27">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I27">
-        <v>0.39</v>
+        <v>0.512</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K27">
-        <v>17363</v>
+        <v>16726</v>
       </c>
       <c r="L27">
-        <v>2648</v>
+        <v>2696</v>
       </c>
       <c r="M27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N27">
-        <v>17365</v>
+        <v>16726</v>
       </c>
       <c r="O27" t="s">
         <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q27">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="R27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S27">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V27" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="X27">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="Y27">
-        <v>33.7</v>
+        <v>34.8</v>
       </c>
       <c r="Z27">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA27">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="AB27">
-        <v>0.495</v>
+        <v>0.551</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG27">
-        <v>7.8</v>
+        <v>14.9</v>
       </c>
       <c r="AH27">
-        <v>0.495</v>
+        <v>0.553</v>
       </c>
       <c r="AI27">
-        <v>0.495</v>
+        <v>0.551</v>
       </c>
       <c r="AJ27">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AK27">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="AL27">
-        <v>0.759</v>
+        <v>0.711</v>
       </c>
       <c r="AM27">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="AN27">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AO27">
-        <v>12.4</v>
+        <v>9.5</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="AT27">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AU27">
-        <v>11.7</v>
+        <v>21.7</v>
       </c>
       <c r="AV27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AW27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY27">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:51">
@@ -5140,154 +5134,154 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="H28">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I28">
-        <v>0.512</v>
+        <v>0.754</v>
       </c>
       <c r="J28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>16726</v>
+        <v>16217</v>
       </c>
       <c r="L28">
         <v>2696</v>
       </c>
       <c r="M28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N28">
-        <v>16726</v>
+        <v>16217</v>
       </c>
       <c r="O28" t="s">
         <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q28">
         <v>1970</v>
       </c>
       <c r="R28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W28">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="X28">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="Y28">
-        <v>34.8</v>
+        <v>38.1</v>
       </c>
       <c r="Z28">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AA28">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="AB28">
-        <v>0.551</v>
+        <v>0.511</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AG28">
-        <v>14.9</v>
+        <v>13.7</v>
       </c>
       <c r="AH28">
-        <v>0.553</v>
+        <v>0.513</v>
       </c>
       <c r="AI28">
-        <v>0.551</v>
+        <v>0.511</v>
       </c>
       <c r="AJ28">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AK28">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AL28">
+        <v>0.652</v>
+      </c>
+      <c r="AM28">
+        <v>3.6</v>
+      </c>
+      <c r="AN28">
         <v>7.4</v>
       </c>
-      <c r="AL28">
-        <v>0.711</v>
-      </c>
-      <c r="AM28">
-        <v>2.7</v>
-      </c>
-      <c r="AN28">
-        <v>6.8</v>
-      </c>
       <c r="AO28">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP28">
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AR28">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AS28">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AT28">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU28">
-        <v>21.7</v>
+        <v>20.1</v>
       </c>
       <c r="AV28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AW28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AX28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY28">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="29" spans="1:51">
@@ -5295,85 +5289,85 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G29">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I29">
-        <v>0.754</v>
+        <v>0.336</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K29">
-        <v>16217</v>
+        <v>15842</v>
       </c>
       <c r="L29">
-        <v>2696</v>
+        <v>2648</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N29">
-        <v>16217</v>
+        <v>15842</v>
       </c>
       <c r="O29" t="s">
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q29">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="R29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S29">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T29">
         <v>7</v>
       </c>
       <c r="U29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W29">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="X29">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="Y29">
-        <v>38.1</v>
+        <v>35.6</v>
       </c>
       <c r="Z29">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="AA29">
-        <v>13.8</v>
+        <v>9.1</v>
       </c>
       <c r="AB29">
-        <v>0.511</v>
+        <v>0.537</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -5385,64 +5379,64 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="AG29">
-        <v>13.7</v>
+        <v>9.1</v>
       </c>
       <c r="AH29">
-        <v>0.513</v>
+        <v>0.537</v>
       </c>
       <c r="AI29">
-        <v>0.511</v>
+        <v>0.537</v>
       </c>
       <c r="AJ29">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AK29">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="AL29">
-        <v>0.652</v>
+        <v>0.67</v>
       </c>
       <c r="AM29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AN29">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AO29">
-        <v>11</v>
+        <v>11.4</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AR29">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AU29">
-        <v>20.1</v>
+        <v>13.4</v>
       </c>
       <c r="AV29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AW29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -5450,85 +5444,85 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H30">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30">
-        <v>0.336</v>
+        <v>0.522</v>
       </c>
       <c r="J30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K30">
-        <v>15842</v>
+        <v>15239</v>
       </c>
       <c r="L30">
         <v>2648</v>
       </c>
       <c r="M30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N30">
-        <v>15842</v>
+        <v>15239</v>
       </c>
       <c r="O30" t="s">
         <v>77</v>
       </c>
       <c r="P30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q30">
         <v>1966</v>
       </c>
       <c r="R30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="W30">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X30">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y30">
-        <v>35.6</v>
+        <v>37.2</v>
       </c>
       <c r="Z30">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AA30">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AB30">
-        <v>0.537</v>
+        <v>0.527</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -5540,64 +5534,64 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AG30">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AH30">
-        <v>0.537</v>
+        <v>0.527</v>
       </c>
       <c r="AI30">
-        <v>0.537</v>
+        <v>0.527</v>
       </c>
       <c r="AJ30">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AK30">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AL30">
-        <v>0.67</v>
+        <v>0.705</v>
       </c>
       <c r="AM30">
         <v>3.4</v>
       </c>
       <c r="AN30">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AO30">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AT30">
         <v>3.1</v>
       </c>
       <c r="AU30">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="AV30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AW30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY30">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5605,43 +5599,43 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
         <v>108</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H31">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I31">
-        <v>0.522</v>
+        <v>0.496</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K31">
-        <v>15239</v>
+        <v>14747</v>
       </c>
       <c r="L31">
-        <v>2648</v>
+        <v>2585</v>
       </c>
       <c r="M31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N31">
-        <v>15239</v>
+        <v>14747</v>
       </c>
       <c r="O31" t="s">
         <v>78</v>
@@ -5650,109 +5644,109 @@
         <v>108</v>
       </c>
       <c r="Q31">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="R31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S31">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W31">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X31">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y31">
-        <v>37.2</v>
+        <v>39</v>
       </c>
       <c r="Z31">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA31">
-        <v>9</v>
+        <v>15.8</v>
       </c>
       <c r="AB31">
-        <v>0.527</v>
+        <v>0.484</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="AF31">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="AG31">
-        <v>9</v>
+        <v>12.1</v>
       </c>
       <c r="AH31">
-        <v>0.527</v>
+        <v>0.532</v>
       </c>
       <c r="AI31">
-        <v>0.527</v>
+        <v>0.523</v>
       </c>
       <c r="AJ31">
+        <v>2.8</v>
+      </c>
+      <c r="AK31">
         <v>3.8</v>
       </c>
-      <c r="AK31">
-        <v>5.4</v>
-      </c>
       <c r="AL31">
-        <v>0.705</v>
+        <v>0.748</v>
       </c>
       <c r="AM31">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="AN31">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="AO31">
-        <v>11.6</v>
+        <v>4.2</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="AQ31">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="AR31">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="AS31">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AT31">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
-        <v>13.3</v>
+        <v>19.3</v>
       </c>
       <c r="AV31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AW31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY31">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5760,154 +5754,154 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F32">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G32">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I32">
-        <v>0.496</v>
+        <v>0.429</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K32">
-        <v>14747</v>
+        <v>14209</v>
       </c>
       <c r="L32">
-        <v>2585</v>
+        <v>2648</v>
       </c>
       <c r="M32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N32">
-        <v>14747</v>
+        <v>14209</v>
       </c>
       <c r="O32" t="s">
         <v>79</v>
       </c>
       <c r="P32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q32">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="R32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U32" t="s">
+        <v>185</v>
+      </c>
+      <c r="V32" t="s">
+        <v>127</v>
+      </c>
+      <c r="W32">
+        <v>82</v>
+      </c>
+      <c r="X32">
+        <v>82</v>
+      </c>
+      <c r="Y32">
+        <v>37.8</v>
+      </c>
+      <c r="Z32">
+        <v>4.3</v>
+      </c>
+      <c r="AA32">
+        <v>7.7</v>
+      </c>
+      <c r="AB32">
+        <v>0.556</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>4.3</v>
+      </c>
+      <c r="AG32">
+        <v>7.7</v>
+      </c>
+      <c r="AH32">
+        <v>0.556</v>
+      </c>
+      <c r="AI32">
+        <v>0.556</v>
+      </c>
+      <c r="AJ32">
+        <v>3</v>
+      </c>
+      <c r="AK32">
+        <v>4.6</v>
+      </c>
+      <c r="AL32">
+        <v>0.654</v>
+      </c>
+      <c r="AM32">
+        <v>3.9</v>
+      </c>
+      <c r="AN32">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AO32">
+        <v>12.5</v>
+      </c>
+      <c r="AP32">
+        <v>1.4</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>3.9</v>
+      </c>
+      <c r="AS32">
+        <v>2.3</v>
+      </c>
+      <c r="AT32">
+        <v>3.5</v>
+      </c>
+      <c r="AU32">
+        <v>11.5</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW32" t="s">
         <v>187</v>
       </c>
-      <c r="V32" t="s">
-        <v>135</v>
-      </c>
-      <c r="W32">
-        <v>81</v>
-      </c>
-      <c r="X32">
-        <v>81</v>
-      </c>
-      <c r="Y32">
-        <v>39</v>
-      </c>
-      <c r="Z32">
-        <v>7.6</v>
-      </c>
-      <c r="AA32">
-        <v>15.8</v>
-      </c>
-      <c r="AB32">
-        <v>0.484</v>
-      </c>
-      <c r="AC32">
-        <v>1.2</v>
-      </c>
-      <c r="AD32">
-        <v>3.7</v>
-      </c>
-      <c r="AE32">
-        <v>0.328</v>
-      </c>
-      <c r="AF32">
-        <v>6.4</v>
-      </c>
-      <c r="AG32">
-        <v>12.1</v>
-      </c>
-      <c r="AH32">
-        <v>0.532</v>
-      </c>
-      <c r="AI32">
-        <v>0.523</v>
-      </c>
-      <c r="AJ32">
-        <v>2.8</v>
-      </c>
-      <c r="AK32">
-        <v>3.8</v>
-      </c>
-      <c r="AL32">
-        <v>0.748</v>
-      </c>
-      <c r="AM32">
-        <v>1.3</v>
-      </c>
-      <c r="AN32">
-        <v>2.9</v>
-      </c>
-      <c r="AO32">
-        <v>4.2</v>
-      </c>
-      <c r="AP32">
-        <v>7.5</v>
-      </c>
-      <c r="AQ32">
-        <v>2.9</v>
-      </c>
-      <c r="AR32">
-        <v>0.2</v>
-      </c>
-      <c r="AS32">
-        <v>3.2</v>
-      </c>
-      <c r="AT32">
-        <v>2.7</v>
-      </c>
-      <c r="AU32">
-        <v>19.3</v>
-      </c>
-      <c r="AV32" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>190</v>
-      </c>
       <c r="AX32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY32">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -5915,154 +5909,154 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F33">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="G33">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H33">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I33">
-        <v>0.429</v>
+        <v>0.228</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K33">
-        <v>14209</v>
+        <v>13792</v>
       </c>
       <c r="L33">
-        <v>2648</v>
+        <v>2176</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N33">
-        <v>14209</v>
+        <v>13792</v>
       </c>
       <c r="O33" t="s">
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q33">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="R33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U33" t="s">
+        <v>185</v>
+      </c>
+      <c r="V33" t="s">
+        <v>134</v>
+      </c>
+      <c r="W33">
+        <v>80</v>
+      </c>
+      <c r="X33">
+        <v>80</v>
+      </c>
+      <c r="Y33">
+        <v>41</v>
+      </c>
+      <c r="Z33">
+        <v>11.2</v>
+      </c>
+      <c r="AA33">
+        <v>21.2</v>
+      </c>
+      <c r="AB33">
+        <v>0.528</v>
+      </c>
+      <c r="AC33">
+        <v>0.1</v>
+      </c>
+      <c r="AD33">
+        <v>0.2</v>
+      </c>
+      <c r="AE33">
+        <v>0.421</v>
+      </c>
+      <c r="AF33">
+        <v>11.1</v>
+      </c>
+      <c r="AG33">
+        <v>20.9</v>
+      </c>
+      <c r="AH33">
+        <v>0.529</v>
+      </c>
+      <c r="AI33">
+        <v>0.53</v>
+      </c>
+      <c r="AJ33">
+        <v>4.9</v>
+      </c>
+      <c r="AK33">
+        <v>6.8</v>
+      </c>
+      <c r="AL33">
+        <v>0.716</v>
+      </c>
+      <c r="AM33">
+        <v>2.9</v>
+      </c>
+      <c r="AN33">
+        <v>9.1</v>
+      </c>
+      <c r="AO33">
+        <v>11.9</v>
+      </c>
+      <c r="AP33">
+        <v>3.6</v>
+      </c>
+      <c r="AQ33">
+        <v>1.6</v>
+      </c>
+      <c r="AR33">
+        <v>3.7</v>
+      </c>
+      <c r="AS33">
+        <v>3.4</v>
+      </c>
+      <c r="AT33">
+        <v>3.6</v>
+      </c>
+      <c r="AU33">
+        <v>27.3</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>166</v>
+      </c>
+      <c r="AW33" t="s">
         <v>187</v>
       </c>
-      <c r="V33" t="s">
-        <v>129</v>
-      </c>
-      <c r="W33">
-        <v>82</v>
-      </c>
-      <c r="X33">
-        <v>82</v>
-      </c>
-      <c r="Y33">
-        <v>37.8</v>
-      </c>
-      <c r="Z33">
-        <v>4.3</v>
-      </c>
-      <c r="AA33">
-        <v>7.7</v>
-      </c>
-      <c r="AB33">
-        <v>0.556</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>4.3</v>
-      </c>
-      <c r="AG33">
-        <v>7.7</v>
-      </c>
-      <c r="AH33">
-        <v>0.556</v>
-      </c>
-      <c r="AI33">
-        <v>0.556</v>
-      </c>
-      <c r="AJ33">
-        <v>3</v>
-      </c>
-      <c r="AK33">
-        <v>4.6</v>
-      </c>
-      <c r="AL33">
-        <v>0.654</v>
-      </c>
-      <c r="AM33">
-        <v>3.9</v>
-      </c>
-      <c r="AN33">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AO33">
-        <v>12.5</v>
-      </c>
-      <c r="AP33">
-        <v>1.4</v>
-      </c>
-      <c r="AQ33">
-        <v>0.5</v>
-      </c>
-      <c r="AR33">
-        <v>3.9</v>
-      </c>
-      <c r="AS33">
-        <v>2.3</v>
-      </c>
-      <c r="AT33">
-        <v>3.5</v>
-      </c>
-      <c r="AU33">
-        <v>11.5</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>168</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>189</v>
-      </c>
       <c r="AX33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY33">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="34" spans="1:51">
@@ -6070,154 +6064,154 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34">
+        <v>73</v>
+      </c>
+      <c r="G34">
+        <v>73</v>
+      </c>
+      <c r="H34">
+        <v>98</v>
+      </c>
+      <c r="I34">
+        <v>0.745</v>
+      </c>
+      <c r="J34" t="s">
         <v>136</v>
       </c>
-      <c r="F34">
-        <v>23</v>
-      </c>
-      <c r="G34">
-        <v>23</v>
-      </c>
-      <c r="H34">
-        <v>101</v>
-      </c>
-      <c r="I34">
-        <v>0.228</v>
-      </c>
-      <c r="J34" t="s">
-        <v>138</v>
-      </c>
       <c r="K34">
-        <v>13792</v>
+        <v>13326</v>
       </c>
       <c r="L34">
         <v>2176</v>
       </c>
       <c r="M34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N34">
-        <v>13792</v>
+        <v>13326</v>
       </c>
       <c r="O34" t="s">
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q34">
         <v>1962</v>
       </c>
       <c r="R34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U34" t="s">
+        <v>185</v>
+      </c>
+      <c r="V34" t="s">
+        <v>134</v>
+      </c>
+      <c r="W34">
+        <v>82</v>
+      </c>
+      <c r="X34">
+        <v>82</v>
+      </c>
+      <c r="Y34">
+        <v>39.5</v>
+      </c>
+      <c r="Z34">
+        <v>10.3</v>
+      </c>
+      <c r="AA34">
+        <v>19.5</v>
+      </c>
+      <c r="AB34">
+        <v>0.529</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0.1</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>10.3</v>
+      </c>
+      <c r="AG34">
+        <v>19.5</v>
+      </c>
+      <c r="AH34">
+        <v>0.532</v>
+      </c>
+      <c r="AI34">
+        <v>0.529</v>
+      </c>
+      <c r="AJ34">
+        <v>5.4</v>
+      </c>
+      <c r="AK34">
+        <v>7</v>
+      </c>
+      <c r="AL34">
+        <v>0.779</v>
+      </c>
+      <c r="AM34">
+        <v>3.5</v>
+      </c>
+      <c r="AN34">
+        <v>9.6</v>
+      </c>
+      <c r="AO34">
+        <v>13</v>
+      </c>
+      <c r="AP34">
+        <v>3.5</v>
+      </c>
+      <c r="AQ34">
+        <v>1.8</v>
+      </c>
+      <c r="AR34">
+        <v>4.2</v>
+      </c>
+      <c r="AS34">
+        <v>3.2</v>
+      </c>
+      <c r="AT34">
+        <v>3.7</v>
+      </c>
+      <c r="AU34">
+        <v>26.1</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW34" t="s">
         <v>187</v>
       </c>
-      <c r="V34" t="s">
-        <v>136</v>
-      </c>
-      <c r="W34">
-        <v>80</v>
-      </c>
-      <c r="X34">
-        <v>80</v>
-      </c>
-      <c r="Y34">
-        <v>41</v>
-      </c>
-      <c r="Z34">
-        <v>11.2</v>
-      </c>
-      <c r="AA34">
-        <v>21.2</v>
-      </c>
-      <c r="AB34">
-        <v>0.528</v>
-      </c>
-      <c r="AC34">
-        <v>0.1</v>
-      </c>
-      <c r="AD34">
-        <v>0.2</v>
-      </c>
-      <c r="AE34">
-        <v>0.421</v>
-      </c>
-      <c r="AF34">
-        <v>11.1</v>
-      </c>
-      <c r="AG34">
-        <v>20.9</v>
-      </c>
-      <c r="AH34">
-        <v>0.529</v>
-      </c>
-      <c r="AI34">
-        <v>0.53</v>
-      </c>
-      <c r="AJ34">
-        <v>4.9</v>
-      </c>
-      <c r="AK34">
-        <v>6.8</v>
-      </c>
-      <c r="AL34">
-        <v>0.716</v>
-      </c>
-      <c r="AM34">
-        <v>2.9</v>
-      </c>
-      <c r="AN34">
-        <v>9.1</v>
-      </c>
-      <c r="AO34">
-        <v>11.9</v>
-      </c>
-      <c r="AP34">
-        <v>3.6</v>
-      </c>
-      <c r="AQ34">
-        <v>1.6</v>
-      </c>
-      <c r="AR34">
-        <v>3.7</v>
-      </c>
-      <c r="AS34">
-        <v>3.4</v>
-      </c>
-      <c r="AT34">
-        <v>3.6</v>
-      </c>
-      <c r="AU34">
-        <v>27.3</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>189</v>
-      </c>
       <c r="AX34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY34">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="35" spans="1:51">
@@ -6225,85 +6219,85 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>46</v>
+      </c>
+      <c r="H35">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>0.479</v>
+      </c>
+      <c r="J35" t="s">
         <v>136</v>
       </c>
-      <c r="F35">
-        <v>73</v>
-      </c>
-      <c r="G35">
-        <v>73</v>
-      </c>
-      <c r="H35">
-        <v>98</v>
-      </c>
-      <c r="I35">
-        <v>0.745</v>
-      </c>
-      <c r="J35" t="s">
-        <v>138</v>
-      </c>
       <c r="K35">
-        <v>13326</v>
+        <v>12802</v>
       </c>
       <c r="L35">
-        <v>2176</v>
+        <v>2494</v>
       </c>
       <c r="M35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N35">
-        <v>13326</v>
+        <v>12802</v>
       </c>
       <c r="O35" t="s">
         <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q35">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="R35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S35">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V35" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="W35">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="X35">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="Y35">
-        <v>39.5</v>
+        <v>37.7</v>
       </c>
       <c r="Z35">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA35">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="AB35">
-        <v>0.529</v>
+        <v>0.551</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -6312,67 +6306,67 @@
         <v>0.1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AF35">
-        <v>10.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG35">
-        <v>19.5</v>
+        <v>15.7</v>
       </c>
       <c r="AH35">
-        <v>0.532</v>
+        <v>0.554</v>
       </c>
       <c r="AI35">
-        <v>0.529</v>
+        <v>0.552</v>
       </c>
       <c r="AJ35">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AK35">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL35">
-        <v>0.779</v>
+        <v>0.701</v>
       </c>
       <c r="AM35">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AN35">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO35">
-        <v>13</v>
+        <v>12.2</v>
       </c>
       <c r="AP35">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AR35">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AS35">
+        <v>2.7</v>
+      </c>
+      <c r="AT35">
         <v>3.2</v>
       </c>
-      <c r="AT35">
-        <v>3.7</v>
-      </c>
       <c r="AU35">
-        <v>26.1</v>
+        <v>23.2</v>
       </c>
       <c r="AV35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AW35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AX35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY35">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="36" spans="1:51">
@@ -6380,154 +6374,154 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F36">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G36">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H36">
         <v>96</v>
       </c>
       <c r="I36">
-        <v>0.479</v>
+        <v>0.531</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K36">
-        <v>12802</v>
+        <v>12366</v>
       </c>
       <c r="L36">
-        <v>2494</v>
+        <v>2301</v>
       </c>
       <c r="M36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N36">
-        <v>12802</v>
+        <v>12366</v>
       </c>
       <c r="O36" t="s">
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q36">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="R36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S36">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W36">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="X36">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Y36">
-        <v>37.7</v>
+        <v>33.5</v>
       </c>
       <c r="Z36">
-        <v>8.699999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AA36">
-        <v>15.8</v>
+        <v>6.8</v>
       </c>
       <c r="AB36">
-        <v>0.551</v>
+        <v>0.493</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD36">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AE36">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="AF36">
-        <v>8.699999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="AG36">
-        <v>15.7</v>
+        <v>6.5</v>
       </c>
       <c r="AH36">
-        <v>0.554</v>
+        <v>0.509</v>
       </c>
       <c r="AI36">
-        <v>0.552</v>
+        <v>0.498</v>
       </c>
       <c r="AJ36">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="AK36">
-        <v>8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AL36">
-        <v>0.701</v>
+        <v>0.631</v>
       </c>
       <c r="AM36">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AN36">
-        <v>8.4</v>
+        <v>8.1</v>
       </c>
       <c r="AO36">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="AP36">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="AS36">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="AT36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU36">
-        <v>23.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AW36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AX36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY36">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="37" spans="1:51">
@@ -6535,130 +6529,130 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F37">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I37">
-        <v>0.531</v>
+        <v>0.533</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K37">
-        <v>12366</v>
+        <v>11899</v>
       </c>
       <c r="L37">
         <v>2301</v>
       </c>
       <c r="M37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N37">
-        <v>12366</v>
+        <v>11899</v>
       </c>
       <c r="O37" t="s">
         <v>84</v>
       </c>
       <c r="P37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q37">
         <v>1961</v>
       </c>
       <c r="R37" t="s">
+        <v>183</v>
+      </c>
+      <c r="S37">
+        <v>29</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37" t="s">
         <v>185</v>
       </c>
-      <c r="S37">
-        <v>30</v>
-      </c>
-      <c r="T37">
-        <v>5</v>
-      </c>
-      <c r="U37" t="s">
-        <v>187</v>
-      </c>
       <c r="V37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="W37">
         <v>82</v>
       </c>
       <c r="X37">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="Y37">
-        <v>33.5</v>
+        <v>29</v>
       </c>
       <c r="Z37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA37">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AB37">
-        <v>0.493</v>
+        <v>0.581</v>
       </c>
       <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <v>0.1</v>
       </c>
-      <c r="AD37">
-        <v>0.4</v>
-      </c>
       <c r="AE37">
-        <v>0.2</v>
+        <v>0.111</v>
       </c>
       <c r="AF37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AG37">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AH37">
-        <v>0.509</v>
+        <v>0.589</v>
       </c>
       <c r="AI37">
-        <v>0.498</v>
+        <v>0.582</v>
       </c>
       <c r="AJ37">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AK37">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AL37">
-        <v>0.631</v>
+        <v>0.654</v>
       </c>
       <c r="AM37">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AN37">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="AO37">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>0.7</v>
@@ -6670,19 +6664,19 @@
         <v>3.4</v>
       </c>
       <c r="AU37">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AW37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY37">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="38" spans="1:51">
@@ -6690,154 +6684,154 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F38">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G38">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="H38">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I38">
-        <v>0.533</v>
+        <v>0.306</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K38">
-        <v>11899</v>
+        <v>11635</v>
       </c>
       <c r="L38">
-        <v>2301</v>
+        <v>2081</v>
       </c>
       <c r="M38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N38">
-        <v>11899</v>
+        <v>11635</v>
       </c>
       <c r="O38" t="s">
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q38">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="R38" t="s">
+        <v>180</v>
+      </c>
+      <c r="S38">
+        <v>33</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38" t="s">
         <v>185</v>
       </c>
-      <c r="S38">
-        <v>29</v>
-      </c>
-      <c r="T38">
-        <v>4</v>
-      </c>
-      <c r="U38" t="s">
-        <v>187</v>
-      </c>
       <c r="V38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="W38">
         <v>82</v>
       </c>
       <c r="X38">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="Y38">
-        <v>29</v>
+        <v>35.5</v>
       </c>
       <c r="Z38">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AA38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB38">
-        <v>0.581</v>
+        <v>0.462</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="AF38">
+        <v>2.3</v>
+      </c>
+      <c r="AG38">
+        <v>5</v>
+      </c>
+      <c r="AH38">
+        <v>0.462</v>
+      </c>
+      <c r="AI38">
+        <v>0.462</v>
+      </c>
+      <c r="AJ38">
+        <v>1.6</v>
+      </c>
+      <c r="AK38">
+        <v>2.4</v>
+      </c>
+      <c r="AL38">
+        <v>0.66</v>
+      </c>
+      <c r="AM38">
+        <v>2.8</v>
+      </c>
+      <c r="AN38">
+        <v>7.5</v>
+      </c>
+      <c r="AO38">
+        <v>10.3</v>
+      </c>
+      <c r="AP38">
+        <v>1</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5</v>
+      </c>
+      <c r="AR38">
+        <v>3.8</v>
+      </c>
+      <c r="AS38">
+        <v>1.7</v>
+      </c>
+      <c r="AT38">
         <v>3.5</v>
       </c>
-      <c r="AG38">
-        <v>5.9</v>
-      </c>
-      <c r="AH38">
-        <v>0.589</v>
-      </c>
-      <c r="AI38">
-        <v>0.582</v>
-      </c>
-      <c r="AJ38">
-        <v>1.7</v>
-      </c>
-      <c r="AK38">
-        <v>2.6</v>
-      </c>
-      <c r="AL38">
-        <v>0.654</v>
-      </c>
-      <c r="AM38">
-        <v>4.1</v>
-      </c>
-      <c r="AN38">
-        <v>5.6</v>
-      </c>
-      <c r="AO38">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AP38">
-        <v>0.9</v>
-      </c>
-      <c r="AQ38">
-        <v>0.6</v>
-      </c>
-      <c r="AR38">
-        <v>0.7</v>
-      </c>
-      <c r="AS38">
-        <v>1.1</v>
-      </c>
-      <c r="AT38">
-        <v>3.4</v>
-      </c>
       <c r="AU38">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AV38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AW38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY38">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="39" spans="1:51">
@@ -6845,67 +6839,67 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F39">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I39">
-        <v>0.306</v>
+        <v>0.463</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K39">
-        <v>11635</v>
+        <v>11208</v>
       </c>
       <c r="L39">
-        <v>2081</v>
+        <v>2193</v>
       </c>
       <c r="M39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N39">
-        <v>11635</v>
+        <v>11208</v>
       </c>
       <c r="O39" t="s">
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q39">
-        <v>1956</v>
+        <v>1963</v>
       </c>
       <c r="R39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S39">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="T39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W39">
         <v>82</v>
@@ -6914,85 +6908,85 @@
         <v>82</v>
       </c>
       <c r="Y39">
-        <v>35.5</v>
+        <v>40.4</v>
       </c>
       <c r="Z39">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="AA39">
-        <v>5</v>
+        <v>24.4</v>
       </c>
       <c r="AB39">
-        <v>0.462</v>
+        <v>0.535</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="AF39">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="AG39">
-        <v>5</v>
+        <v>23.7</v>
       </c>
       <c r="AH39">
-        <v>0.462</v>
+        <v>0.546</v>
       </c>
       <c r="AI39">
-        <v>0.462</v>
+        <v>0.537</v>
       </c>
       <c r="AJ39">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK39">
+        <v>10.5</v>
+      </c>
+      <c r="AL39">
+        <v>0.841</v>
+      </c>
+      <c r="AM39">
+        <v>1.7</v>
+      </c>
+      <c r="AN39">
+        <v>3.8</v>
+      </c>
+      <c r="AO39">
+        <v>5.5</v>
+      </c>
+      <c r="AP39">
+        <v>5.9</v>
+      </c>
+      <c r="AQ39">
+        <v>3.2</v>
+      </c>
+      <c r="AR39">
         <v>1.6</v>
       </c>
-      <c r="AK39">
-        <v>2.4</v>
-      </c>
-      <c r="AL39">
-        <v>0.66</v>
-      </c>
-      <c r="AM39">
-        <v>2.8</v>
-      </c>
-      <c r="AN39">
-        <v>7.5</v>
-      </c>
-      <c r="AO39">
-        <v>10.3</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39">
-        <v>0.5</v>
-      </c>
-      <c r="AR39">
-        <v>3.8</v>
-      </c>
       <c r="AS39">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="AT39">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AU39">
-        <v>6.2</v>
+        <v>35</v>
       </c>
       <c r="AV39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AW39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY39">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="40" spans="1:51">
@@ -7000,154 +6994,154 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G40">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H40">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I40">
-        <v>0.463</v>
+        <v>0.321</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K40">
-        <v>11208</v>
+        <v>10811</v>
       </c>
       <c r="L40">
-        <v>2193</v>
+        <v>1823</v>
       </c>
       <c r="M40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N40">
-        <v>11208</v>
+        <v>10811</v>
       </c>
       <c r="O40" t="s">
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q40">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="R40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S40">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V40" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="W40">
         <v>82</v>
       </c>
       <c r="X40">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="Y40">
-        <v>40.4</v>
+        <v>27.5</v>
       </c>
       <c r="Z40">
-        <v>13</v>
+        <v>3.9</v>
       </c>
       <c r="AA40">
-        <v>24.4</v>
+        <v>9</v>
       </c>
       <c r="AB40">
-        <v>0.535</v>
+        <v>0.438</v>
       </c>
       <c r="AC40">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AD40">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="AE40">
-        <v>0.132</v>
+        <v>0.385</v>
       </c>
       <c r="AF40">
-        <v>13</v>
+        <v>2.8</v>
       </c>
       <c r="AG40">
-        <v>23.7</v>
+        <v>6.2</v>
       </c>
       <c r="AH40">
-        <v>0.546</v>
+        <v>0.461</v>
       </c>
       <c r="AI40">
-        <v>0.537</v>
+        <v>0.498</v>
       </c>
       <c r="AJ40">
-        <v>8.800000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="AK40">
+        <v>1.8</v>
+      </c>
+      <c r="AL40">
+        <v>0.851</v>
+      </c>
+      <c r="AM40">
+        <v>0.7</v>
+      </c>
+      <c r="AN40">
+        <v>2.4</v>
+      </c>
+      <c r="AO40">
+        <v>3.1</v>
+      </c>
+      <c r="AP40">
+        <v>4.5</v>
+      </c>
+      <c r="AQ40">
+        <v>1</v>
+      </c>
+      <c r="AR40">
+        <v>0.5</v>
+      </c>
+      <c r="AS40">
+        <v>1.2</v>
+      </c>
+      <c r="AT40">
+        <v>2.4</v>
+      </c>
+      <c r="AU40">
         <v>10.5</v>
       </c>
-      <c r="AL40">
-        <v>0.841</v>
-      </c>
-      <c r="AM40">
-        <v>1.7</v>
-      </c>
-      <c r="AN40">
-        <v>3.8</v>
-      </c>
-      <c r="AO40">
-        <v>5.5</v>
-      </c>
-      <c r="AP40">
-        <v>5.9</v>
-      </c>
-      <c r="AQ40">
-        <v>3.2</v>
-      </c>
-      <c r="AR40">
-        <v>1.6</v>
-      </c>
-      <c r="AS40">
-        <v>3.1</v>
-      </c>
-      <c r="AT40">
-        <v>3.3</v>
-      </c>
-      <c r="AU40">
-        <v>35</v>
-      </c>
       <c r="AV40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AW40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY40">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="41" spans="1:51">
@@ -7155,154 +7149,154 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H41">
         <v>78</v>
       </c>
       <c r="I41">
-        <v>0.321</v>
+        <v>0.346</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K41">
-        <v>10811</v>
+        <v>10190</v>
       </c>
       <c r="L41">
-        <v>1823</v>
+        <v>2158</v>
       </c>
       <c r="M41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N41">
-        <v>10811</v>
+        <v>10190</v>
       </c>
       <c r="O41" t="s">
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q41">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="R41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S41">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V41" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="W41">
         <v>82</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="Y41">
-        <v>27.5</v>
+        <v>35.1</v>
       </c>
       <c r="Z41">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>13.3</v>
       </c>
       <c r="AB41">
-        <v>0.438</v>
+        <v>0.514</v>
       </c>
       <c r="AC41">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD41">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="AE41">
-        <v>0.385</v>
+        <v>0.276</v>
       </c>
       <c r="AF41">
-        <v>2.8</v>
+        <v>6.8</v>
       </c>
       <c r="AG41">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="AH41">
-        <v>0.461</v>
+        <v>0.521</v>
       </c>
       <c r="AI41">
-        <v>0.498</v>
+        <v>0.518</v>
       </c>
       <c r="AJ41">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="AK41">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="AL41">
-        <v>0.851</v>
+        <v>0.795</v>
       </c>
       <c r="AM41">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="AN41">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="AO41">
-        <v>3.1</v>
+        <v>6.3</v>
       </c>
       <c r="AP41">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="AR41">
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="AT41">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="AU41">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AV41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AW41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY41">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="42" spans="1:51">
@@ -7310,67 +7304,67 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F42">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G42">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>78</v>
       </c>
       <c r="I42">
-        <v>0.346</v>
+        <v>0.41</v>
       </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K42">
-        <v>10190</v>
+        <v>10042</v>
       </c>
       <c r="L42">
-        <v>2158</v>
+        <v>2081</v>
       </c>
       <c r="M42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N42">
-        <v>10190</v>
+        <v>10042</v>
       </c>
       <c r="O42" t="s">
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q42">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="R42" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="S42">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="W42">
         <v>82</v>
@@ -7379,85 +7373,85 @@
         <v>82</v>
       </c>
       <c r="Y42">
-        <v>35.1</v>
+        <v>34.3</v>
       </c>
       <c r="Z42">
-        <v>6.9</v>
+        <v>3.7</v>
       </c>
       <c r="AA42">
-        <v>13.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.514</v>
+        <v>0.449</v>
       </c>
       <c r="AC42">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>3.7</v>
+      </c>
+      <c r="AG42">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH42">
+        <v>0.449</v>
+      </c>
+      <c r="AI42">
+        <v>0.449</v>
+      </c>
+      <c r="AJ42">
+        <v>2.3</v>
+      </c>
+      <c r="AK42">
+        <v>3.3</v>
+      </c>
+      <c r="AL42">
+        <v>0.712</v>
+      </c>
+      <c r="AM42">
+        <v>2.5</v>
+      </c>
+      <c r="AN42">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO42">
+        <v>11.3</v>
+      </c>
+      <c r="AP42">
+        <v>1.5</v>
+      </c>
+      <c r="AQ42">
         <v>0.4</v>
       </c>
-      <c r="AE42">
-        <v>0.276</v>
-      </c>
-      <c r="AF42">
-        <v>6.8</v>
-      </c>
-      <c r="AG42">
-        <v>13</v>
-      </c>
-      <c r="AH42">
-        <v>0.521</v>
-      </c>
-      <c r="AI42">
-        <v>0.518</v>
-      </c>
-      <c r="AJ42">
-        <v>3.2</v>
-      </c>
-      <c r="AK42">
-        <v>4</v>
-      </c>
-      <c r="AL42">
-        <v>0.795</v>
-      </c>
-      <c r="AM42">
-        <v>2.2</v>
-      </c>
-      <c r="AN42">
-        <v>4</v>
-      </c>
-      <c r="AO42">
-        <v>6.3</v>
-      </c>
-      <c r="AP42">
-        <v>5.5</v>
-      </c>
-      <c r="AQ42">
-        <v>3.7</v>
-      </c>
       <c r="AR42">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="AS42">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AT42">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AU42">
-        <v>17</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AW42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY42">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="43" spans="1:51">
@@ -7465,154 +7459,154 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H43">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I43">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K43">
-        <v>10042</v>
+        <v>9782</v>
       </c>
       <c r="L43">
-        <v>2081</v>
+        <v>1889</v>
       </c>
       <c r="M43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N43">
-        <v>10042</v>
+        <v>9782</v>
       </c>
       <c r="O43" t="s">
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q43">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="R43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S43">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W43">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X43">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y43">
-        <v>34.3</v>
+        <v>38.9</v>
       </c>
       <c r="Z43">
-        <v>3.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA43">
-        <v>8.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AB43">
-        <v>0.449</v>
+        <v>0.498</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>0.278</v>
       </c>
       <c r="AF43">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="AG43">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AH43">
-        <v>0.449</v>
+        <v>0.501</v>
       </c>
       <c r="AI43">
-        <v>0.449</v>
+        <v>0.5</v>
       </c>
       <c r="AJ43">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="AK43">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="AL43">
-        <v>0.712</v>
+        <v>0.848</v>
       </c>
       <c r="AM43">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AN43">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="AO43">
-        <v>11.3</v>
+        <v>6.7</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="AQ43">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
       <c r="AS43">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AT43">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="AU43">
-        <v>9.699999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="AV43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AW43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY43">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="44" spans="1:51">
@@ -7620,308 +7614,153 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H44">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I44">
-        <v>0.25</v>
+        <v>0.187</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K44">
-        <v>9782</v>
+        <v>9435</v>
       </c>
       <c r="L44">
         <v>1889</v>
       </c>
       <c r="M44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N44">
-        <v>9782</v>
+        <v>9435</v>
       </c>
       <c r="O44" t="s">
         <v>91</v>
       </c>
       <c r="P44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q44">
         <v>1957</v>
       </c>
       <c r="R44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W44">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X44">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y44">
-        <v>38.9</v>
+        <v>35.7</v>
       </c>
       <c r="Z44">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AA44">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="AB44">
-        <v>0.498</v>
+        <v>0.524</v>
       </c>
       <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
         <v>0.1</v>
       </c>
-      <c r="AD44">
-        <v>0.2</v>
-      </c>
       <c r="AE44">
-        <v>0.278</v>
+        <v>0.1</v>
       </c>
       <c r="AF44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG44">
-        <v>14</v>
+        <v>15.1</v>
       </c>
       <c r="AH44">
-        <v>0.501</v>
+        <v>0.528</v>
       </c>
       <c r="AI44">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="AJ44">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AK44">
         <v>7.9</v>
       </c>
       <c r="AL44">
-        <v>0.848</v>
+        <v>0.826</v>
       </c>
       <c r="AM44">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AN44">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AO44">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="AP44">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>0.3</v>
       </c>
       <c r="AS44">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AT44">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AU44">
-        <v>20.9</v>
+        <v>22.5</v>
       </c>
       <c r="AV44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AW44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY44">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="45" spans="1:51">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>14</v>
-      </c>
-      <c r="H45">
-        <v>75</v>
-      </c>
-      <c r="I45">
-        <v>0.187</v>
-      </c>
-      <c r="J45" t="s">
-        <v>138</v>
-      </c>
-      <c r="K45">
-        <v>9435</v>
-      </c>
-      <c r="L45">
-        <v>1889</v>
-      </c>
-      <c r="M45" t="s">
-        <v>180</v>
-      </c>
-      <c r="N45">
-        <v>9435</v>
-      </c>
-      <c r="O45" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q45">
-        <v>1957</v>
-      </c>
-      <c r="R45" t="s">
-        <v>186</v>
-      </c>
-      <c r="S45">
-        <v>26</v>
-      </c>
-      <c r="T45">
-        <v>4</v>
-      </c>
-      <c r="U45" t="s">
-        <v>187</v>
-      </c>
-      <c r="V45" t="s">
-        <v>123</v>
-      </c>
-      <c r="W45">
-        <v>76</v>
-      </c>
-      <c r="X45">
-        <v>76</v>
-      </c>
-      <c r="Y45">
-        <v>35.7</v>
-      </c>
-      <c r="Z45">
-        <v>8</v>
-      </c>
-      <c r="AA45">
-        <v>15.2</v>
-      </c>
-      <c r="AB45">
-        <v>0.524</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0.1</v>
-      </c>
-      <c r="AE45">
-        <v>0.1</v>
-      </c>
-      <c r="AF45">
-        <v>8</v>
-      </c>
-      <c r="AG45">
-        <v>15.1</v>
-      </c>
-      <c r="AH45">
-        <v>0.528</v>
-      </c>
-      <c r="AI45">
-        <v>0.525</v>
-      </c>
-      <c r="AJ45">
-        <v>6.6</v>
-      </c>
-      <c r="AK45">
-        <v>7.9</v>
-      </c>
-      <c r="AL45">
-        <v>0.826</v>
-      </c>
-      <c r="AM45">
-        <v>2.5</v>
-      </c>
-      <c r="AN45">
-        <v>3.2</v>
-      </c>
-      <c r="AO45">
-        <v>5.8</v>
-      </c>
-      <c r="AP45">
-        <v>3.9</v>
-      </c>
-      <c r="AQ45">
-        <v>1.5</v>
-      </c>
-      <c r="AR45">
-        <v>0.3</v>
-      </c>
-      <c r="AS45">
-        <v>2.6</v>
-      </c>
-      <c r="AT45">
-        <v>2.4</v>
-      </c>
-      <c r="AU45">
-        <v>22.5</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>190</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY45">
         <v>1983</v>
       </c>
     </row>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="191">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -172,6 +172,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
@@ -298,6 +301,9 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
     <t>Marcus Smart</t>
   </si>
   <si>
@@ -370,6 +376,9 @@
     <t>MIN</t>
   </si>
   <si>
+    <t>MEM</t>
+  </si>
+  <si>
     <t>BOS</t>
   </si>
   <si>
@@ -388,9 +397,6 @@
     <t>CHI</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
     <t>NYK</t>
   </si>
   <si>
@@ -430,6 +436,9 @@
     <t>2023-24</t>
   </si>
   <si>
+    <t>2022-23</t>
+  </si>
+  <si>
     <t>2021-22</t>
   </si>
   <si>
@@ -548,9 +557,6 @@
   </si>
   <si>
     <t>1982-83</t>
-  </si>
-  <si>
-    <t>Vladimir Radmanović</t>
   </si>
   <si>
     <t>Metta Sandiford-Artest</t>
@@ -938,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY44"/>
+  <dimension ref="A1:AY45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,16 +1110,16 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2">
         <v>72</v>
@@ -1128,7 +1134,7 @@
         <v>0.875</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K2">
         <v>31747</v>
@@ -1137,7 +1143,7 @@
         <v>4199</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N2">
         <v>31747</v>
@@ -1146,13 +1152,13 @@
         <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>1992</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S2">
         <v>32</v>
@@ -1161,10 +1167,10 @@
         <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="W2">
         <v>76</v>
@@ -1242,13 +1248,13 @@
         <v>14</v>
       </c>
       <c r="AV2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AW2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1259,154 +1265,154 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>257</v>
+        <v>391</v>
       </c>
       <c r="H3">
         <v>500</v>
       </c>
       <c r="I3">
-        <v>0.514</v>
+        <v>0.782</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K3">
-        <v>30183</v>
+        <v>30733</v>
       </c>
       <c r="L3">
-        <v>4275</v>
+        <v>4632</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N3">
-        <v>30183</v>
+        <v>30733</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q3">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="R3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="W3">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X3">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Y3">
-        <v>32.3</v>
+        <v>28.4</v>
       </c>
       <c r="Z3">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA3">
-        <v>10.1</v>
+        <v>13</v>
       </c>
       <c r="AB3">
-        <v>0.418</v>
+        <v>0.506</v>
       </c>
       <c r="AC3">
+        <v>1.6</v>
+      </c>
+      <c r="AD3">
+        <v>4.5</v>
+      </c>
+      <c r="AE3">
+        <v>0.355</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>8.6</v>
+      </c>
+      <c r="AH3">
+        <v>0.585</v>
+      </c>
+      <c r="AI3">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>3.8</v>
+      </c>
+      <c r="AK3">
+        <v>4.9</v>
+      </c>
+      <c r="AL3">
+        <v>0.788</v>
+      </c>
+      <c r="AM3">
         <v>1.7</v>
       </c>
-      <c r="AD3">
-        <v>5.1</v>
-      </c>
-      <c r="AE3">
-        <v>0.331</v>
-      </c>
-      <c r="AF3">
-        <v>2.5</v>
-      </c>
-      <c r="AG3">
+      <c r="AN3">
         <v>5</v>
       </c>
-      <c r="AH3">
-        <v>0.506</v>
-      </c>
-      <c r="AI3">
-        <v>0.501</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <v>2.5</v>
-      </c>
-      <c r="AL3">
-        <v>0.793</v>
-      </c>
-      <c r="AM3">
-        <v>0.6</v>
-      </c>
-      <c r="AN3">
-        <v>3.2</v>
-      </c>
       <c r="AO3">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="AP3">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3">
         <v>1.7</v>
       </c>
-      <c r="AR3">
-        <v>0.3</v>
-      </c>
-      <c r="AS3">
-        <v>2.2</v>
-      </c>
       <c r="AT3">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="AU3">
-        <v>12.1</v>
+        <v>18.6</v>
       </c>
       <c r="AV3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AW3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:51">
@@ -1414,67 +1420,67 @@
         <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F4">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>464</v>
+        <v>257</v>
       </c>
       <c r="H4">
         <v>500</v>
       </c>
       <c r="I4">
-        <v>0.928</v>
+        <v>0.514</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4">
-        <v>29529</v>
+        <v>30183</v>
       </c>
       <c r="L4">
-        <v>4199</v>
+        <v>4275</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N4">
-        <v>29529</v>
+        <v>30183</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="R4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4">
         <v>8</v>
       </c>
       <c r="U4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W4">
         <v>71</v>
@@ -1483,85 +1489,85 @@
         <v>71</v>
       </c>
       <c r="Y4">
-        <v>30.8</v>
+        <v>32.3</v>
       </c>
       <c r="Z4">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA4">
-        <v>8.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="AB4">
-        <v>0.675</v>
+        <v>0.418</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD4">
-        <v>0.1</v>
+        <v>5.1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.331</v>
       </c>
       <c r="AF4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="AG4">
-        <v>8.1</v>
+        <v>5</v>
       </c>
       <c r="AH4">
-        <v>0.68</v>
+        <v>0.506</v>
       </c>
       <c r="AI4">
-        <v>0.675</v>
+        <v>0.501</v>
       </c>
       <c r="AJ4">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="AK4">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="AL4">
-        <v>0.623</v>
+        <v>0.793</v>
       </c>
       <c r="AM4">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="AN4">
-        <v>10.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO4">
-        <v>13.5</v>
+        <v>3.8</v>
       </c>
       <c r="AP4">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="AR4">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="AS4">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AT4">
         <v>2.3</v>
       </c>
       <c r="AU4">
-        <v>14.3</v>
+        <v>12.1</v>
       </c>
       <c r="AV4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AW4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:51">
@@ -1569,154 +1575,154 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G5">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="H5">
         <v>500</v>
       </c>
       <c r="I5">
-        <v>0.864</v>
+        <v>0.928</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K5">
-        <v>28507</v>
+        <v>29529</v>
       </c>
       <c r="L5">
-        <v>4164</v>
+        <v>4199</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N5">
-        <v>28507</v>
+        <v>29529</v>
       </c>
       <c r="O5" t="s">
         <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q5">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="R5" t="s">
         <v>182</v>
       </c>
       <c r="S5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W5">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="X5">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Y5">
-        <v>30.4</v>
+        <v>30.8</v>
       </c>
       <c r="Z5">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA5">
-        <v>19.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.553</v>
+        <v>0.675</v>
       </c>
       <c r="AC5">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>4.7</v>
+        <v>0.1</v>
       </c>
       <c r="AE5">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AG5">
-        <v>15</v>
+        <v>8.1</v>
       </c>
       <c r="AH5">
-        <v>0.631</v>
+        <v>0.68</v>
       </c>
       <c r="AI5">
-        <v>0.589</v>
+        <v>0.675</v>
       </c>
       <c r="AJ5">
-        <v>6.3</v>
+        <v>3.3</v>
       </c>
       <c r="AK5">
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="AL5">
-        <v>0.633</v>
+        <v>0.623</v>
       </c>
       <c r="AM5">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="AN5">
-        <v>11.4</v>
+        <v>10.1</v>
       </c>
       <c r="AO5">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="AP5">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AS5">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="AT5">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AU5">
-        <v>29.5</v>
+        <v>14.3</v>
       </c>
       <c r="AV5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AW5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:51">
@@ -1724,154 +1730,154 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G6">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="H6">
         <v>500</v>
       </c>
       <c r="I6">
-        <v>0.822</v>
+        <v>0.864</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K6">
-        <v>28147</v>
+        <v>28507</v>
       </c>
       <c r="L6">
-        <v>4199</v>
+        <v>4164</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N6">
-        <v>28147</v>
+        <v>28507</v>
       </c>
       <c r="O6" t="s">
         <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q6">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="R6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="S6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W6">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="X6">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Y6">
-        <v>31.8</v>
+        <v>30.4</v>
       </c>
       <c r="Z6">
-        <v>5.9</v>
+        <v>10.9</v>
       </c>
       <c r="AA6">
-        <v>8.800000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="AB6">
-        <v>0.669</v>
+        <v>0.553</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="AF6">
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
       <c r="AG6">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AH6">
-        <v>0.669</v>
+        <v>0.631</v>
       </c>
       <c r="AI6">
-        <v>0.669</v>
+        <v>0.589</v>
       </c>
       <c r="AJ6">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="AK6">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AL6">
-        <v>0.636</v>
+        <v>0.633</v>
       </c>
       <c r="AM6">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AN6">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="AO6">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="AT6">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU6">
-        <v>15.9</v>
+        <v>29.5</v>
       </c>
       <c r="AV6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AW6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:51">
@@ -1879,85 +1885,85 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F7">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="G7">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H7">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I7">
-        <v>0.923</v>
+        <v>0.822</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7">
-        <v>27467</v>
+        <v>28147</v>
       </c>
       <c r="L7">
         <v>4199</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N7">
-        <v>27467</v>
+        <v>28147</v>
       </c>
       <c r="O7" t="s">
         <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>1992</v>
       </c>
       <c r="R7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W7">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="X7">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Y7">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="Z7">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AA7">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.622</v>
+        <v>0.669</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1969,37 +1975,37 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AG7">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.622</v>
+        <v>0.669</v>
       </c>
       <c r="AI7">
-        <v>0.622</v>
+        <v>0.669</v>
       </c>
       <c r="AJ7">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AK7">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="AL7">
-        <v>0.6820000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="AM7">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AN7">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AO7">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2008,25 +2014,25 @@
         <v>2.3</v>
       </c>
       <c r="AS7">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AT7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AU7">
-        <v>13.5</v>
+        <v>15.9</v>
       </c>
       <c r="AV7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AW7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY7">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:51">
@@ -2034,154 +2040,154 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G8">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="H8">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I8">
-        <v>0.868</v>
+        <v>0.923</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8">
-        <v>26494</v>
+        <v>27467</v>
       </c>
       <c r="L8">
-        <v>4085</v>
+        <v>4199</v>
       </c>
       <c r="M8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N8">
-        <v>26494</v>
+        <v>27467</v>
       </c>
       <c r="O8" t="s">
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q8">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="R8" t="s">
         <v>182</v>
       </c>
       <c r="S8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T8">
         <v>5</v>
       </c>
       <c r="U8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="W8">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="X8">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="Y8">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="Z8">
+        <v>4.9</v>
+      </c>
+      <c r="AA8">
+        <v>7.9</v>
+      </c>
+      <c r="AB8">
+        <v>0.622</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>4.9</v>
+      </c>
+      <c r="AG8">
+        <v>7.9</v>
+      </c>
+      <c r="AH8">
+        <v>0.622</v>
+      </c>
+      <c r="AI8">
+        <v>0.622</v>
+      </c>
+      <c r="AJ8">
         <v>3.6</v>
       </c>
-      <c r="AA8">
-        <v>8.6</v>
-      </c>
-      <c r="AB8">
-        <v>0.418</v>
-      </c>
-      <c r="AC8">
-        <v>1.1</v>
-      </c>
-      <c r="AD8">
-        <v>3.5</v>
-      </c>
-      <c r="AE8">
-        <v>0.308</v>
-      </c>
-      <c r="AF8">
-        <v>2.5</v>
-      </c>
-      <c r="AG8">
-        <v>5.1</v>
-      </c>
-      <c r="AH8">
-        <v>0.494</v>
-      </c>
-      <c r="AI8">
-        <v>0.481</v>
-      </c>
-      <c r="AJ8">
-        <v>2</v>
-      </c>
       <c r="AK8">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="AL8">
-        <v>0.709</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="AM8">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="AN8">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO8">
-        <v>7.9</v>
+        <v>10.7</v>
       </c>
       <c r="AP8">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AR8">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="AS8">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AT8">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AU8">
-        <v>10.2</v>
+        <v>13.5</v>
       </c>
       <c r="AV8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AW8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:51">
@@ -2189,154 +2195,154 @@
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F9">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G9">
-        <v>547</v>
+        <v>434</v>
       </c>
       <c r="H9">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="I9">
-        <v>0.842</v>
+        <v>0.868</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K9">
-        <v>26060</v>
+        <v>26494</v>
       </c>
       <c r="L9">
-        <v>4032</v>
+        <v>4085</v>
       </c>
       <c r="M9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N9">
-        <v>26060</v>
+        <v>26494</v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T9">
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y9">
-        <v>33.1</v>
+        <v>32.5</v>
       </c>
       <c r="Z9">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
       <c r="AA9">
-        <v>15.1</v>
+        <v>8.6</v>
       </c>
       <c r="AB9">
-        <v>0.506</v>
+        <v>0.418</v>
       </c>
       <c r="AC9">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AE9">
-        <v>0.443</v>
+        <v>0.308</v>
       </c>
       <c r="AF9">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="AG9">
-        <v>11.1</v>
+        <v>5.1</v>
       </c>
       <c r="AH9">
-        <v>0.528</v>
+        <v>0.494</v>
       </c>
       <c r="AI9">
-        <v>0.5649999999999999</v>
+        <v>0.481</v>
       </c>
       <c r="AJ9">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="AK9">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="AL9">
-        <v>0.874</v>
+        <v>0.709</v>
       </c>
       <c r="AM9">
         <v>1.3</v>
       </c>
       <c r="AN9">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO9">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="AP9">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="AQ9">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT9">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AU9">
-        <v>21.2</v>
+        <v>10.2</v>
       </c>
       <c r="AV9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AW9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:51">
@@ -2344,154 +2350,154 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F10">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G10">
-        <v>333</v>
+        <v>547</v>
       </c>
       <c r="H10">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="I10">
-        <v>0.516</v>
+        <v>0.842</v>
       </c>
       <c r="J10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10">
-        <v>25447</v>
+        <v>26060</v>
       </c>
       <c r="L10">
         <v>4032</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N10">
-        <v>25447</v>
+        <v>26060</v>
       </c>
       <c r="O10" t="s">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>1991</v>
       </c>
       <c r="R10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>187</v>
+      </c>
+      <c r="V10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10">
+        <v>72</v>
+      </c>
+      <c r="X10">
+        <v>72</v>
+      </c>
+      <c r="Y10">
+        <v>33.1</v>
+      </c>
+      <c r="Z10">
+        <v>7.7</v>
+      </c>
+      <c r="AA10">
+        <v>15.1</v>
+      </c>
+      <c r="AB10">
+        <v>0.506</v>
+      </c>
+      <c r="AC10">
+        <v>1.8</v>
+      </c>
+      <c r="AD10">
         <v>4</v>
       </c>
-      <c r="U10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10">
-        <v>64</v>
-      </c>
-      <c r="X10">
-        <v>64</v>
-      </c>
-      <c r="Y10">
-        <v>31.8</v>
-      </c>
-      <c r="Z10">
-        <v>6.2</v>
-      </c>
-      <c r="AA10">
-        <v>12.8</v>
-      </c>
-      <c r="AB10">
-        <v>0.479</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>3</v>
-      </c>
       <c r="AE10">
-        <v>0.349</v>
+        <v>0.443</v>
       </c>
       <c r="AF10">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AG10">
-        <v>9.800000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="AH10">
-        <v>0.519</v>
+        <v>0.528</v>
       </c>
       <c r="AI10">
-        <v>0.52</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="AJ10">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AK10">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="AL10">
-        <v>0.802</v>
+        <v>0.874</v>
       </c>
       <c r="AM10">
         <v>1.3</v>
       </c>
       <c r="AN10">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO10">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AR10">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AS10">
         <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU10">
-        <v>16.5</v>
+        <v>21.2</v>
       </c>
       <c r="AV10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AW10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="11" spans="1:51">
@@ -2499,154 +2505,154 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>555</v>
+        <v>333</v>
       </c>
       <c r="H11">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="I11">
-        <v>0.888</v>
+        <v>0.516</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K11">
-        <v>24779</v>
+        <v>25447</v>
       </c>
       <c r="L11">
-        <v>3763</v>
+        <v>4032</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11">
-        <v>24779</v>
+        <v>25447</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="R11" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W11">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="X11">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="Y11">
-        <v>35.3</v>
+        <v>31.8</v>
       </c>
       <c r="Z11">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>12.8</v>
       </c>
       <c r="AB11">
-        <v>0.475</v>
+        <v>0.479</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.349</v>
       </c>
       <c r="AF11">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AG11">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.476</v>
+        <v>0.519</v>
       </c>
       <c r="AI11">
-        <v>0.475</v>
+        <v>0.52</v>
       </c>
       <c r="AJ11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AK11">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AL11">
-        <v>0.737</v>
+        <v>0.802</v>
       </c>
       <c r="AM11">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>7.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO11">
-        <v>11.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP11">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="AR11">
+        <v>0.8</v>
+      </c>
+      <c r="AS11">
         <v>1.5</v>
       </c>
-      <c r="AS11">
-        <v>2.4</v>
-      </c>
       <c r="AT11">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AU11">
-        <v>12.6</v>
+        <v>16.5</v>
       </c>
       <c r="AV11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AW11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY11">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="12" spans="1:51">
@@ -2654,67 +2660,67 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G12">
-        <v>212</v>
+        <v>555</v>
       </c>
       <c r="H12">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="I12">
-        <v>0.35</v>
+        <v>0.888</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K12">
-        <v>24297</v>
+        <v>24779</v>
       </c>
       <c r="L12">
-        <v>3835</v>
+        <v>3763</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N12">
-        <v>24297</v>
+        <v>24779</v>
       </c>
       <c r="O12" t="s">
         <v>61</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q12">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="R12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S12">
         <v>29</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W12">
         <v>80</v>
@@ -2723,85 +2729,85 @@
         <v>80</v>
       </c>
       <c r="Y12">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="Z12">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AA12">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="AB12">
-        <v>0.494</v>
+        <v>0.475</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AF12">
+        <v>4.8</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>0.476</v>
+      </c>
+      <c r="AI12">
+        <v>0.475</v>
+      </c>
+      <c r="AJ12">
+        <v>3.1</v>
+      </c>
+      <c r="AK12">
+        <v>4.2</v>
+      </c>
+      <c r="AL12">
+        <v>0.737</v>
+      </c>
+      <c r="AM12">
+        <v>3.5</v>
+      </c>
+      <c r="AN12">
+        <v>7.7</v>
+      </c>
+      <c r="AO12">
+        <v>11.3</v>
+      </c>
+      <c r="AP12">
         <v>5.4</v>
       </c>
-      <c r="AG12">
-        <v>10.7</v>
-      </c>
-      <c r="AH12">
-        <v>0.501</v>
-      </c>
-      <c r="AI12">
-        <v>0.494</v>
-      </c>
-      <c r="AJ12">
-        <v>3.4</v>
-      </c>
-      <c r="AK12">
-        <v>4</v>
-      </c>
-      <c r="AL12">
-        <v>0.848</v>
-      </c>
-      <c r="AM12">
-        <v>2.3</v>
-      </c>
-      <c r="AN12">
-        <v>5.5</v>
-      </c>
-      <c r="AO12">
-        <v>7.8</v>
-      </c>
-      <c r="AP12">
-        <v>4</v>
-      </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AT12">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU12">
-        <v>14.1</v>
+        <v>12.6</v>
       </c>
       <c r="AV12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AW12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="13" spans="1:51">
@@ -2809,154 +2815,154 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="H13">
         <v>605</v>
       </c>
       <c r="I13">
-        <v>0.514</v>
+        <v>0.35</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K13">
-        <v>23892</v>
+        <v>24297</v>
       </c>
       <c r="L13">
-        <v>3360</v>
+        <v>3835</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N13">
-        <v>23896</v>
+        <v>24297</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="Q13">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="R13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="W13">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="Y13">
-        <v>15.4</v>
+        <v>35</v>
       </c>
       <c r="Z13">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="AA13">
+        <v>10.9</v>
+      </c>
+      <c r="AB13">
+        <v>0.494</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.2</v>
+      </c>
+      <c r="AE13">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>5.4</v>
+      </c>
+      <c r="AG13">
+        <v>10.7</v>
+      </c>
+      <c r="AH13">
+        <v>0.501</v>
+      </c>
+      <c r="AI13">
+        <v>0.494</v>
+      </c>
+      <c r="AJ13">
+        <v>3.4</v>
+      </c>
+      <c r="AK13">
         <v>4</v>
       </c>
-      <c r="AB13">
-        <v>0.376</v>
-      </c>
-      <c r="AC13">
+      <c r="AL13">
+        <v>0.848</v>
+      </c>
+      <c r="AM13">
+        <v>2.3</v>
+      </c>
+      <c r="AN13">
+        <v>5.5</v>
+      </c>
+      <c r="AO13">
+        <v>7.8</v>
+      </c>
+      <c r="AP13">
+        <v>4</v>
+      </c>
+      <c r="AQ13">
         <v>1</v>
       </c>
-      <c r="AD13">
-        <v>2.8</v>
-      </c>
-      <c r="AE13">
-        <v>0.37</v>
-      </c>
-      <c r="AF13">
-        <v>0.5</v>
-      </c>
-      <c r="AG13">
-        <v>1.3</v>
-      </c>
-      <c r="AH13">
-        <v>0.387</v>
-      </c>
-      <c r="AI13">
-        <v>0.503</v>
-      </c>
-      <c r="AJ13">
-        <v>0.4</v>
-      </c>
-      <c r="AK13">
-        <v>0.6</v>
-      </c>
-      <c r="AL13">
-        <v>0.759</v>
-      </c>
-      <c r="AM13">
-        <v>0.7</v>
-      </c>
-      <c r="AN13">
-        <v>2.2</v>
-      </c>
-      <c r="AO13">
-        <v>2.9</v>
-      </c>
-      <c r="AP13">
-        <v>1.1</v>
-      </c>
-      <c r="AQ13">
-        <v>0.4</v>
-      </c>
       <c r="AR13">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="AS13">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU13">
-        <v>4.5</v>
+        <v>14.1</v>
       </c>
       <c r="AV13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AW13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY13">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:51">
@@ -2964,154 +2970,154 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F14">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>585</v>
+        <v>311</v>
       </c>
       <c r="H14">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="I14">
-        <v>0.975</v>
+        <v>0.514</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K14">
-        <v>22919</v>
+        <v>23892</v>
       </c>
       <c r="L14">
-        <v>3520</v>
+        <v>3360</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N14">
-        <v>22919</v>
+        <v>23892</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="R14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S14">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W14">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="X14">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="Y14">
-        <v>37.6</v>
+        <v>33.2</v>
       </c>
       <c r="Z14">
-        <v>7.9</v>
+        <v>3.9</v>
       </c>
       <c r="AA14">
-        <v>13.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB14">
-        <v>0.593</v>
+        <v>0.679</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>7.9</v>
+        <v>3.9</v>
       </c>
       <c r="AG14">
-        <v>13.3</v>
+        <v>5.7</v>
       </c>
       <c r="AH14">
-        <v>0.597</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="AI14">
-        <v>0.593</v>
+        <v>0.679</v>
       </c>
       <c r="AJ14">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="AK14">
-        <v>11.7</v>
+        <v>5.1</v>
       </c>
       <c r="AL14">
-        <v>0.596</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="AM14">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AN14">
-        <v>10.1</v>
+        <v>6.5</v>
       </c>
       <c r="AO14">
-        <v>14.1</v>
+        <v>9.9</v>
       </c>
       <c r="AP14">
+        <v>0.9</v>
+      </c>
+      <c r="AQ14">
+        <v>0.9</v>
+      </c>
+      <c r="AR14">
         <v>1.4</v>
       </c>
-      <c r="AQ14">
-        <v>1.4</v>
-      </c>
-      <c r="AR14">
-        <v>2.4</v>
-      </c>
       <c r="AS14">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AU14">
-        <v>22.9</v>
+        <v>11.3</v>
       </c>
       <c r="AV14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AW14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="15" spans="1:51">
@@ -3119,85 +3125,85 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F15">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G15">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="H15">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="I15">
-        <v>0.944</v>
+        <v>0.975</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K15">
-        <v>22328</v>
+        <v>22919</v>
       </c>
       <c r="L15">
         <v>3520</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N15">
-        <v>22328</v>
+        <v>22919</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q15">
         <v>1985</v>
       </c>
       <c r="R15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W15">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="X15">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y15">
-        <v>34.7</v>
+        <v>37.6</v>
       </c>
       <c r="Z15">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="AA15">
-        <v>10.2</v>
+        <v>13.4</v>
       </c>
       <c r="AB15">
-        <v>0.612</v>
+        <v>0.593</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -3209,64 +3215,64 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="AG15">
+        <v>13.3</v>
+      </c>
+      <c r="AH15">
+        <v>0.597</v>
+      </c>
+      <c r="AI15">
+        <v>0.593</v>
+      </c>
+      <c r="AJ15">
+        <v>7</v>
+      </c>
+      <c r="AK15">
+        <v>11.7</v>
+      </c>
+      <c r="AL15">
+        <v>0.596</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
         <v>10.1</v>
       </c>
-      <c r="AH15">
-        <v>0.617</v>
-      </c>
-      <c r="AI15">
-        <v>0.612</v>
-      </c>
-      <c r="AJ15">
-        <v>5.9</v>
-      </c>
-      <c r="AK15">
-        <v>10</v>
-      </c>
-      <c r="AL15">
-        <v>0.592</v>
-      </c>
-      <c r="AM15">
-        <v>3.5</v>
-      </c>
-      <c r="AN15">
-        <v>9.699999999999999</v>
-      </c>
       <c r="AO15">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AS15">
+        <v>3.6</v>
+      </c>
+      <c r="AT15">
         <v>3.3</v>
       </c>
-      <c r="AT15">
-        <v>3.5</v>
-      </c>
       <c r="AU15">
-        <v>18.3</v>
+        <v>22.9</v>
       </c>
       <c r="AV15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AW15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY15">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="16" spans="1:51">
@@ -3274,154 +3280,154 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G16">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="H16">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="I16">
-        <v>0.911</v>
+        <v>0.944</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16">
-        <v>21759</v>
+        <v>22328</v>
       </c>
       <c r="L16">
         <v>3520</v>
       </c>
       <c r="M16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N16">
-        <v>21759</v>
+        <v>22328</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q16">
         <v>1985</v>
       </c>
       <c r="R16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="W16">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X16">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y16">
-        <v>35.7</v>
+        <v>34.7</v>
       </c>
       <c r="Z16">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA16">
-        <v>12.4</v>
+        <v>10.2</v>
       </c>
       <c r="AB16">
-        <v>0.572</v>
+        <v>0.612</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG16">
-        <v>12.4</v>
+        <v>10.1</v>
       </c>
       <c r="AH16">
-        <v>0.573</v>
+        <v>0.617</v>
       </c>
       <c r="AI16">
-        <v>0.572</v>
+        <v>0.612</v>
       </c>
       <c r="AJ16">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AK16">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="AL16">
-        <v>0.594</v>
+        <v>0.592</v>
       </c>
       <c r="AM16">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AN16">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AO16">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR16">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AS16">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AT16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU16">
-        <v>20.6</v>
+        <v>18.3</v>
       </c>
       <c r="AV16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY16">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="17" spans="1:51">
@@ -3429,154 +3435,154 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F17">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G17">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="H17">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="I17">
-        <v>0.795</v>
+        <v>0.911</v>
       </c>
       <c r="J17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K17">
-        <v>21291</v>
+        <v>21759</v>
       </c>
       <c r="L17">
-        <v>2936</v>
+        <v>3520</v>
       </c>
       <c r="M17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N17">
-        <v>21291</v>
+        <v>21759</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17">
-        <v>1976</v>
+        <v>1985</v>
       </c>
       <c r="R17" t="s">
         <v>182</v>
       </c>
       <c r="S17">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="T17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="W17">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="X17">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="Y17">
-        <v>32.8</v>
+        <v>35.7</v>
       </c>
       <c r="Z17">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AA17">
-        <v>13.9</v>
+        <v>12.4</v>
       </c>
       <c r="AB17">
-        <v>0.539</v>
+        <v>0.572</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AG17">
+        <v>12.4</v>
+      </c>
+      <c r="AH17">
+        <v>0.573</v>
+      </c>
+      <c r="AI17">
+        <v>0.572</v>
+      </c>
+      <c r="AJ17">
+        <v>6.4</v>
+      </c>
+      <c r="AK17">
+        <v>10.7</v>
+      </c>
+      <c r="AL17">
+        <v>0.594</v>
+      </c>
+      <c r="AM17">
+        <v>4.3</v>
+      </c>
+      <c r="AN17">
+        <v>9.6</v>
+      </c>
+      <c r="AO17">
         <v>13.8</v>
       </c>
-      <c r="AH17">
-        <v>0.545</v>
-      </c>
-      <c r="AI17">
-        <v>0.539</v>
-      </c>
-      <c r="AJ17">
-        <v>3.8</v>
-      </c>
-      <c r="AK17">
-        <v>4.7</v>
-      </c>
-      <c r="AL17">
-        <v>0.801</v>
-      </c>
-      <c r="AM17">
-        <v>1.9</v>
-      </c>
-      <c r="AN17">
-        <v>7.3</v>
-      </c>
-      <c r="AO17">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AP17">
+        <v>1.4</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>2.9</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
         <v>3.4</v>
       </c>
-      <c r="AQ17">
-        <v>1.4</v>
-      </c>
-      <c r="AR17">
-        <v>1.3</v>
-      </c>
-      <c r="AS17">
-        <v>1.9</v>
-      </c>
-      <c r="AT17">
-        <v>2.3</v>
-      </c>
       <c r="AU17">
-        <v>18.8</v>
+        <v>20.6</v>
       </c>
       <c r="AV17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AW17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY17">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="18" spans="1:51">
@@ -3584,154 +3590,154 @@
         <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F18">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="H18">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="I18">
-        <v>0.663</v>
+        <v>0.795</v>
       </c>
       <c r="J18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K18">
-        <v>20786</v>
+        <v>21291</v>
       </c>
       <c r="L18">
-        <v>3004</v>
+        <v>2936</v>
       </c>
       <c r="M18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N18">
-        <v>20786</v>
+        <v>21291</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q18">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="R18" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="S18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="W18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18">
-        <v>33.8</v>
+        <v>32.8</v>
       </c>
       <c r="Z18">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA18">
-        <v>9.4</v>
+        <v>13.9</v>
       </c>
       <c r="AB18">
-        <v>0.473</v>
+        <v>0.539</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG18">
-        <v>9.4</v>
+        <v>13.8</v>
       </c>
       <c r="AH18">
-        <v>0.475</v>
+        <v>0.545</v>
       </c>
       <c r="AI18">
-        <v>0.473</v>
+        <v>0.539</v>
       </c>
       <c r="AJ18">
+        <v>3.8</v>
+      </c>
+      <c r="AK18">
+        <v>4.7</v>
+      </c>
+      <c r="AL18">
+        <v>0.801</v>
+      </c>
+      <c r="AM18">
+        <v>1.9</v>
+      </c>
+      <c r="AN18">
+        <v>7.3</v>
+      </c>
+      <c r="AO18">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AP18">
+        <v>3.4</v>
+      </c>
+      <c r="AQ18">
+        <v>1.4</v>
+      </c>
+      <c r="AR18">
+        <v>1.3</v>
+      </c>
+      <c r="AS18">
+        <v>1.9</v>
+      </c>
+      <c r="AT18">
         <v>2.3</v>
       </c>
-      <c r="AK18">
-        <v>3.2</v>
-      </c>
-      <c r="AL18">
-        <v>0.729</v>
-      </c>
-      <c r="AM18">
-        <v>2.3</v>
-      </c>
-      <c r="AN18">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AO18">
-        <v>11.7</v>
-      </c>
-      <c r="AP18">
-        <v>3.2</v>
-      </c>
-      <c r="AQ18">
-        <v>1.2</v>
-      </c>
-      <c r="AR18">
-        <v>3.3</v>
-      </c>
-      <c r="AS18">
-        <v>1.7</v>
-      </c>
-      <c r="AT18">
-        <v>2.6</v>
-      </c>
       <c r="AU18">
-        <v>11.2</v>
+        <v>18.8</v>
       </c>
       <c r="AV18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AW18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY18">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="19" spans="1:51">
@@ -3739,85 +3745,85 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G19">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H19">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="I19">
-        <v>0.677</v>
+        <v>0.663</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K19">
-        <v>19951</v>
+        <v>20786</v>
       </c>
       <c r="L19">
-        <v>2971</v>
+        <v>3004</v>
       </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N19">
-        <v>19951</v>
+        <v>20786</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q19">
         <v>1974</v>
       </c>
       <c r="R19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="W19">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="X19">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="Y19">
-        <v>35.2</v>
+        <v>33.8</v>
       </c>
       <c r="Z19">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="AA19">
-        <v>5.7</v>
+        <v>9.4</v>
       </c>
       <c r="AB19">
-        <v>0.51</v>
+        <v>0.473</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3829,64 +3835,64 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="AG19">
-        <v>5.6</v>
+        <v>9.4</v>
       </c>
       <c r="AH19">
-        <v>0.514</v>
+        <v>0.475</v>
       </c>
       <c r="AI19">
-        <v>0.51</v>
+        <v>0.473</v>
       </c>
       <c r="AJ19">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="AK19">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AL19">
-        <v>0.416</v>
+        <v>0.729</v>
       </c>
       <c r="AM19">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="AN19">
-        <v>7.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AO19">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="AP19">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="AQ19">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AR19">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="AS19">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AU19">
-        <v>7.3</v>
+        <v>11.2</v>
       </c>
       <c r="AV19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AW19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY19">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="20" spans="1:51">
@@ -3894,154 +3900,154 @@
         <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G20">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="H20">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="I20">
-        <v>0.542</v>
+        <v>0.677</v>
       </c>
       <c r="J20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20">
-        <v>19367</v>
+        <v>19951</v>
       </c>
       <c r="L20">
         <v>2971</v>
       </c>
       <c r="M20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N20">
-        <v>19367</v>
+        <v>19951</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q20">
         <v>1974</v>
       </c>
       <c r="R20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W20">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="X20">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Y20">
-        <v>36.1</v>
+        <v>35.2</v>
       </c>
       <c r="Z20">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AA20">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="AB20">
-        <v>0.453</v>
+        <v>0.51</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AG20">
-        <v>8.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="AH20">
-        <v>0.458</v>
+        <v>0.514</v>
       </c>
       <c r="AI20">
-        <v>0.454</v>
+        <v>0.51</v>
       </c>
       <c r="AJ20">
+        <v>1.5</v>
+      </c>
+      <c r="AK20">
+        <v>3.6</v>
+      </c>
+      <c r="AL20">
+        <v>0.416</v>
+      </c>
+      <c r="AM20">
+        <v>3.7</v>
+      </c>
+      <c r="AN20">
+        <v>7.6</v>
+      </c>
+      <c r="AO20">
+        <v>11.3</v>
+      </c>
+      <c r="AP20">
+        <v>1.9</v>
+      </c>
+      <c r="AQ20">
         <v>1.8</v>
       </c>
-      <c r="AK20">
-        <v>4.1</v>
-      </c>
-      <c r="AL20">
-        <v>0.428</v>
-      </c>
-      <c r="AM20">
-        <v>3.9</v>
-      </c>
-      <c r="AN20">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO20">
-        <v>12.2</v>
-      </c>
-      <c r="AP20">
-        <v>1.7</v>
-      </c>
-      <c r="AQ20">
-        <v>1.4</v>
-      </c>
       <c r="AR20">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AS20">
         <v>1.1</v>
       </c>
       <c r="AT20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU20">
-        <v>9.699999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="AV20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AW20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY20">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="21" spans="1:51">
@@ -4049,154 +4055,154 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>476</v>
+        <v>339</v>
       </c>
       <c r="H21">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="I21">
-        <v>0.787</v>
+        <v>0.542</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21">
-        <v>19099</v>
+        <v>19367</v>
       </c>
       <c r="L21">
-        <v>3205</v>
+        <v>2971</v>
       </c>
       <c r="M21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N21">
-        <v>19099</v>
+        <v>19367</v>
       </c>
       <c r="O21" t="s">
         <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="Q21">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="R21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S21">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W21">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y21">
-        <v>37.2</v>
+        <v>36.1</v>
       </c>
       <c r="Z21">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="AA21">
-        <v>15.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.421</v>
+        <v>0.453</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="AE21">
-        <v>0.31</v>
+        <v>0.111</v>
       </c>
       <c r="AF21">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="AG21">
-        <v>11.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH21">
-        <v>0.452</v>
+        <v>0.458</v>
       </c>
       <c r="AI21">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="AJ21">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="AK21">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="AL21">
-        <v>0.733</v>
+        <v>0.428</v>
       </c>
       <c r="AM21">
+        <v>3.9</v>
+      </c>
+      <c r="AN21">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO21">
+        <v>12.2</v>
+      </c>
+      <c r="AP21">
+        <v>1.7</v>
+      </c>
+      <c r="AQ21">
         <v>1.4</v>
       </c>
-      <c r="AN21">
-        <v>3.9</v>
-      </c>
-      <c r="AO21">
-        <v>5.3</v>
-      </c>
-      <c r="AP21">
-        <v>3.7</v>
-      </c>
-      <c r="AQ21">
+      <c r="AR21">
+        <v>2.4</v>
+      </c>
+      <c r="AS21">
+        <v>1.1</v>
+      </c>
+      <c r="AT21">
         <v>2.1</v>
       </c>
-      <c r="AR21">
-        <v>0.7</v>
-      </c>
-      <c r="AS21">
-        <v>2.8</v>
-      </c>
-      <c r="AT21">
-        <v>2.7</v>
-      </c>
       <c r="AU21">
-        <v>18.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AW21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY21">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:51">
@@ -4204,154 +4210,154 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="H22">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="I22">
-        <v>0.908</v>
+        <v>0.787</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22">
-        <v>18288</v>
+        <v>19099</v>
       </c>
       <c r="L22">
-        <v>2971</v>
+        <v>3205</v>
       </c>
       <c r="M22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N22">
-        <v>18288</v>
+        <v>19099</v>
       </c>
       <c r="O22" t="s">
         <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="Q22">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="R22" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="W22">
         <v>73</v>
       </c>
       <c r="X22">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y22">
-        <v>39.4</v>
+        <v>37.2</v>
       </c>
       <c r="Z22">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="AA22">
+        <v>15.2</v>
+      </c>
+      <c r="AB22">
+        <v>0.421</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>3.3</v>
+      </c>
+      <c r="AE22">
+        <v>0.31</v>
+      </c>
+      <c r="AF22">
+        <v>5.4</v>
+      </c>
+      <c r="AG22">
+        <v>11.9</v>
+      </c>
+      <c r="AH22">
+        <v>0.452</v>
+      </c>
+      <c r="AI22">
+        <v>0.455</v>
+      </c>
+      <c r="AJ22">
+        <v>4.4</v>
+      </c>
+      <c r="AK22">
         <v>6</v>
       </c>
-      <c r="AB22">
-        <v>0.481</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0.1</v>
-      </c>
-      <c r="AE22">
-        <v>0.167</v>
-      </c>
-      <c r="AF22">
-        <v>2.9</v>
-      </c>
-      <c r="AG22">
-        <v>5.9</v>
-      </c>
-      <c r="AH22">
-        <v>0.485</v>
-      </c>
-      <c r="AI22">
-        <v>0.482</v>
-      </c>
-      <c r="AJ22">
-        <v>1.2</v>
-      </c>
-      <c r="AK22">
-        <v>2.6</v>
-      </c>
       <c r="AL22">
-        <v>0.45</v>
+        <v>0.733</v>
       </c>
       <c r="AM22">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="AN22">
-        <v>11.4</v>
+        <v>3.9</v>
       </c>
       <c r="AO22">
-        <v>15.4</v>
+        <v>5.3</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="AR22">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="AT22">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AU22">
-        <v>6.9</v>
+        <v>18.3</v>
       </c>
       <c r="AV22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AW22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY22">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="23" spans="1:51">
@@ -4359,154 +4365,154 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="G23">
-        <v>116</v>
+        <v>531</v>
       </c>
       <c r="H23">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="I23">
-        <v>0.967</v>
+        <v>0.908</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23">
-        <v>17783</v>
+        <v>18288</v>
       </c>
       <c r="L23">
         <v>2971</v>
       </c>
       <c r="M23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N23">
-        <v>17783</v>
+        <v>18288</v>
       </c>
       <c r="O23" t="s">
         <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q23">
         <v>1974</v>
       </c>
       <c r="R23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W23">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="X23">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Y23">
-        <v>36.5</v>
+        <v>39.4</v>
       </c>
       <c r="Z23">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AA23">
         <v>6</v>
       </c>
       <c r="AB23">
-        <v>0.531</v>
+        <v>0.481</v>
       </c>
       <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="AF23">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AG23">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AH23">
-        <v>0.535</v>
+        <v>0.485</v>
       </c>
       <c r="AI23">
-        <v>0.531</v>
+        <v>0.482</v>
       </c>
       <c r="AJ23">
         <v>1.2</v>
       </c>
       <c r="AK23">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AL23">
-        <v>0.423</v>
+        <v>0.45</v>
       </c>
       <c r="AM23">
         <v>4</v>
       </c>
       <c r="AN23">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="AO23">
-        <v>13</v>
+        <v>15.4</v>
       </c>
       <c r="AP23">
+        <v>1.6</v>
+      </c>
+      <c r="AQ23">
         <v>1.4</v>
       </c>
-      <c r="AQ23">
-        <v>1.7</v>
-      </c>
       <c r="AR23">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AS23">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU23">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AW23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY23">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="24" spans="1:51">
@@ -4514,43 +4520,43 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>130</v>
       </c>
       <c r="F24">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="G24">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="H24">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I24">
-        <v>0.39</v>
+        <v>0.967</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K24">
-        <v>17363</v>
+        <v>17783</v>
       </c>
       <c r="L24">
-        <v>2648</v>
+        <v>2971</v>
       </c>
       <c r="M24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N24">
-        <v>17363</v>
+        <v>17783</v>
       </c>
       <c r="O24" t="s">
         <v>73</v>
@@ -4559,40 +4565,40 @@
         <v>106</v>
       </c>
       <c r="Q24">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="R24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V24" t="s">
         <v>130</v>
       </c>
       <c r="W24">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="X24">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Y24">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="Z24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AA24">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AB24">
-        <v>0.484</v>
+        <v>0.531</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -4604,81 +4610,81 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG24">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AH24">
-        <v>0.484</v>
+        <v>0.535</v>
       </c>
       <c r="AI24">
-        <v>0.484</v>
+        <v>0.531</v>
       </c>
       <c r="AJ24">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="AK24">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="AL24">
-        <v>0.725</v>
+        <v>0.423</v>
       </c>
       <c r="AM24">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AN24">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO24">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="AR24">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AS24">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AT24">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AU24">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AV24" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AW24" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY24">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="25" spans="1:51">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25">
         <v>48</v>
@@ -4693,7 +4699,7 @@
         <v>0.39</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K25">
         <v>17363</v>
@@ -4702,22 +4708,22 @@
         <v>2648</v>
       </c>
       <c r="M25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N25">
-        <v>17364</v>
+        <v>17363</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q25">
         <v>1966</v>
       </c>
       <c r="R25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S25">
         <v>35</v>
@@ -4726,28 +4732,28 @@
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V25" t="s">
         <v>132</v>
       </c>
       <c r="W25">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="X25">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="Y25">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="Z25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AA25">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB25">
-        <v>0.477</v>
+        <v>0.484</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -4759,61 +4765,61 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG25">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AH25">
-        <v>0.477</v>
+        <v>0.484</v>
       </c>
       <c r="AI25">
-        <v>0.477</v>
+        <v>0.484</v>
       </c>
       <c r="AJ25">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AK25">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AL25">
-        <v>0.695</v>
+        <v>0.725</v>
       </c>
       <c r="AM25">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AN25">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="AO25">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="AP25">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>0.4</v>
       </c>
       <c r="AR25">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AS25">
         <v>1.9</v>
       </c>
       <c r="AT25">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AU25">
-        <v>9.1</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AW25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX25" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4821,19 +4827,19 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26">
         <v>48</v>
@@ -4848,7 +4854,7 @@
         <v>0.39</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K26">
         <v>17363</v>
@@ -4857,22 +4863,22 @@
         <v>2648</v>
       </c>
       <c r="M26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N26">
-        <v>17365</v>
+        <v>17364</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q26">
         <v>1966</v>
       </c>
       <c r="R26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S26">
         <v>35</v>
@@ -4881,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V26" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="W26">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="X26">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="Y26">
-        <v>33.7</v>
+        <v>35</v>
       </c>
       <c r="Z26">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AA26">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AB26">
-        <v>0.495</v>
+        <v>0.477</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4914,61 +4920,61 @@
         <v>0</v>
       </c>
       <c r="AF26">
+        <v>3.4</v>
+      </c>
+      <c r="AG26">
+        <v>7.2</v>
+      </c>
+      <c r="AH26">
+        <v>0.477</v>
+      </c>
+      <c r="AI26">
+        <v>0.477</v>
+      </c>
+      <c r="AJ26">
+        <v>2.2</v>
+      </c>
+      <c r="AK26">
+        <v>3.1</v>
+      </c>
+      <c r="AL26">
+        <v>0.695</v>
+      </c>
+      <c r="AM26">
         <v>3.8</v>
       </c>
-      <c r="AG26">
-        <v>7.8</v>
-      </c>
-      <c r="AH26">
-        <v>0.495</v>
-      </c>
-      <c r="AI26">
-        <v>0.495</v>
-      </c>
-      <c r="AJ26">
-        <v>4</v>
-      </c>
-      <c r="AK26">
-        <v>5.3</v>
-      </c>
-      <c r="AL26">
-        <v>0.759</v>
-      </c>
-      <c r="AM26">
-        <v>4.6</v>
-      </c>
       <c r="AN26">
-        <v>7.8</v>
+        <v>10.3</v>
       </c>
       <c r="AO26">
-        <v>12.4</v>
+        <v>14.1</v>
       </c>
       <c r="AP26">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AQ26">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR26">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AU26">
-        <v>11.7</v>
+        <v>9.1</v>
       </c>
       <c r="AV26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AW26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY26">
         <v>2001</v>
@@ -4979,154 +4985,154 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G27">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I27">
-        <v>0.512</v>
+        <v>0.39</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K27">
-        <v>16726</v>
+        <v>17363</v>
       </c>
       <c r="L27">
-        <v>2696</v>
+        <v>2648</v>
       </c>
       <c r="M27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N27">
-        <v>16726</v>
+        <v>17365</v>
       </c>
       <c r="O27" t="s">
         <v>74</v>
       </c>
       <c r="P27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q27">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="R27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V27" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="W27">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="X27">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="Y27">
-        <v>34.8</v>
+        <v>33.7</v>
       </c>
       <c r="Z27">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="AA27">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AB27">
-        <v>0.551</v>
+        <v>0.495</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>8.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="AG27">
-        <v>14.9</v>
+        <v>7.8</v>
       </c>
       <c r="AH27">
-        <v>0.553</v>
+        <v>0.495</v>
       </c>
       <c r="AI27">
-        <v>0.551</v>
+        <v>0.495</v>
       </c>
       <c r="AJ27">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AK27">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="AL27">
-        <v>0.711</v>
+        <v>0.759</v>
       </c>
       <c r="AM27">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="AN27">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AO27">
-        <v>9.5</v>
+        <v>12.4</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AR27">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="AS27">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="AU27">
-        <v>21.7</v>
+        <v>11.7</v>
       </c>
       <c r="AV27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AW27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY27">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="28" spans="1:51">
@@ -5134,154 +5140,154 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F28">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G28">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H28">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I28">
-        <v>0.754</v>
+        <v>0.512</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K28">
-        <v>16217</v>
+        <v>16726</v>
       </c>
       <c r="L28">
         <v>2696</v>
       </c>
       <c r="M28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N28">
-        <v>16217</v>
+        <v>16726</v>
       </c>
       <c r="O28" t="s">
         <v>75</v>
       </c>
       <c r="P28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q28">
         <v>1970</v>
       </c>
       <c r="R28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="W28">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X28">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="Y28">
-        <v>38.1</v>
+        <v>34.8</v>
       </c>
       <c r="Z28">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA28">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="AB28">
-        <v>0.511</v>
+        <v>0.551</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG28">
-        <v>13.7</v>
+        <v>14.9</v>
       </c>
       <c r="AH28">
-        <v>0.513</v>
+        <v>0.553</v>
       </c>
       <c r="AI28">
-        <v>0.511</v>
+        <v>0.551</v>
       </c>
       <c r="AJ28">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AK28">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AL28">
-        <v>0.652</v>
+        <v>0.711</v>
       </c>
       <c r="AM28">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AN28">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO28">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP28">
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
+        <v>3.7</v>
+      </c>
+      <c r="AS28">
+        <v>2.7</v>
+      </c>
+      <c r="AT28">
         <v>3.9</v>
       </c>
-      <c r="AS28">
-        <v>3</v>
-      </c>
-      <c r="AT28">
-        <v>3.5</v>
-      </c>
       <c r="AU28">
-        <v>20.1</v>
+        <v>21.7</v>
       </c>
       <c r="AV28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AW28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX28" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY28">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:51">
@@ -5289,85 +5295,85 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G29">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H29">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I29">
-        <v>0.336</v>
+        <v>0.754</v>
       </c>
       <c r="J29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K29">
-        <v>15842</v>
+        <v>16217</v>
       </c>
       <c r="L29">
-        <v>2648</v>
+        <v>2696</v>
       </c>
       <c r="M29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N29">
-        <v>15842</v>
+        <v>16217</v>
       </c>
       <c r="O29" t="s">
         <v>76</v>
       </c>
       <c r="P29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q29">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="R29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S29">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T29">
         <v>7</v>
       </c>
       <c r="U29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="W29">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="X29">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="Y29">
-        <v>35.6</v>
+        <v>38.1</v>
       </c>
       <c r="Z29">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AA29">
-        <v>9.1</v>
+        <v>13.8</v>
       </c>
       <c r="AB29">
-        <v>0.537</v>
+        <v>0.511</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -5379,64 +5385,64 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AG29">
-        <v>9.1</v>
+        <v>13.7</v>
       </c>
       <c r="AH29">
-        <v>0.537</v>
+        <v>0.513</v>
       </c>
       <c r="AI29">
-        <v>0.537</v>
+        <v>0.511</v>
       </c>
       <c r="AJ29">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="AK29">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL29">
-        <v>0.67</v>
+        <v>0.652</v>
       </c>
       <c r="AM29">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AN29">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AO29">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AR29">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AU29">
-        <v>13.4</v>
+        <v>20.1</v>
       </c>
       <c r="AV29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AW29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY29">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="30" spans="1:51">
@@ -5444,85 +5450,85 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F30">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G30">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I30">
-        <v>0.522</v>
+        <v>0.336</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>15239</v>
+        <v>15842</v>
       </c>
       <c r="L30">
         <v>2648</v>
       </c>
       <c r="M30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N30">
-        <v>15239</v>
+        <v>15842</v>
       </c>
       <c r="O30" t="s">
         <v>77</v>
       </c>
       <c r="P30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q30">
         <v>1966</v>
       </c>
       <c r="R30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="W30">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X30">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y30">
-        <v>37.2</v>
+        <v>35.6</v>
       </c>
       <c r="Z30">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AA30">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AB30">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -5534,64 +5540,64 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AG30">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AH30">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="AI30">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="AJ30">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AK30">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AL30">
-        <v>0.705</v>
+        <v>0.67</v>
       </c>
       <c r="AM30">
         <v>3.4</v>
       </c>
       <c r="AN30">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="AO30">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AR30">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AS30">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>3.1</v>
       </c>
       <c r="AU30">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="AV30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AW30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY30">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="31" spans="1:51">
@@ -5599,43 +5605,43 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
         <v>108</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F31">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H31">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I31">
-        <v>0.496</v>
+        <v>0.522</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K31">
-        <v>14747</v>
+        <v>15239</v>
       </c>
       <c r="L31">
-        <v>2585</v>
+        <v>2648</v>
       </c>
       <c r="M31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N31">
-        <v>14747</v>
+        <v>15239</v>
       </c>
       <c r="O31" t="s">
         <v>78</v>
@@ -5644,109 +5650,109 @@
         <v>108</v>
       </c>
       <c r="Q31">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T31">
         <v>6</v>
       </c>
       <c r="U31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W31">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X31">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y31">
-        <v>39</v>
+        <v>37.2</v>
       </c>
       <c r="Z31">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA31">
-        <v>15.8</v>
+        <v>9</v>
       </c>
       <c r="AB31">
-        <v>0.484</v>
+        <v>0.527</v>
       </c>
       <c r="AC31">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="AG31">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="AH31">
-        <v>0.532</v>
+        <v>0.527</v>
       </c>
       <c r="AI31">
-        <v>0.523</v>
+        <v>0.527</v>
       </c>
       <c r="AJ31">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AK31">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="AL31">
-        <v>0.748</v>
+        <v>0.705</v>
       </c>
       <c r="AM31">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="AN31">
-        <v>2.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AO31">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="AP31">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="AS31">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AU31">
-        <v>19.3</v>
+        <v>13.3</v>
       </c>
       <c r="AV31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AW31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY31">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="32" spans="1:51">
@@ -5754,154 +5760,154 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F32">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G32">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I32">
-        <v>0.429</v>
+        <v>0.496</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K32">
-        <v>14209</v>
+        <v>14747</v>
       </c>
       <c r="L32">
-        <v>2648</v>
+        <v>2585</v>
       </c>
       <c r="M32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N32">
-        <v>14209</v>
+        <v>14747</v>
       </c>
       <c r="O32" t="s">
         <v>79</v>
       </c>
       <c r="P32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q32">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="R32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V32" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="W32">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X32">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y32">
-        <v>37.8</v>
+        <v>39</v>
       </c>
       <c r="Z32">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA32">
-        <v>7.7</v>
+        <v>15.8</v>
       </c>
       <c r="AB32">
-        <v>0.556</v>
+        <v>0.484</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="AF32">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG32">
-        <v>7.7</v>
+        <v>12.1</v>
       </c>
       <c r="AH32">
-        <v>0.556</v>
+        <v>0.532</v>
       </c>
       <c r="AI32">
-        <v>0.556</v>
+        <v>0.523</v>
       </c>
       <c r="AJ32">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AK32">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AL32">
-        <v>0.654</v>
+        <v>0.748</v>
       </c>
       <c r="AM32">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="AN32">
-        <v>8.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AO32">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="AR32">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="AS32">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AT32">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AU32">
-        <v>11.5</v>
+        <v>19.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AW32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AX32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY32">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="33" spans="1:51">
@@ -5909,154 +5915,154 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F33">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I33">
-        <v>0.228</v>
+        <v>0.429</v>
       </c>
       <c r="J33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K33">
-        <v>13792</v>
+        <v>14209</v>
       </c>
       <c r="L33">
-        <v>2176</v>
+        <v>2648</v>
       </c>
       <c r="M33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N33">
-        <v>13792</v>
+        <v>14209</v>
       </c>
       <c r="O33" t="s">
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q33">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="R33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W33">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X33">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y33">
-        <v>41</v>
+        <v>37.8</v>
       </c>
       <c r="Z33">
-        <v>11.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA33">
-        <v>21.2</v>
+        <v>7.7</v>
       </c>
       <c r="AB33">
-        <v>0.528</v>
+        <v>0.556</v>
       </c>
       <c r="AC33">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>0.421</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>11.1</v>
+        <v>4.3</v>
       </c>
       <c r="AG33">
-        <v>20.9</v>
+        <v>7.7</v>
       </c>
       <c r="AH33">
-        <v>0.529</v>
+        <v>0.556</v>
       </c>
       <c r="AI33">
-        <v>0.53</v>
+        <v>0.556</v>
       </c>
       <c r="AJ33">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="AK33">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="AL33">
-        <v>0.716</v>
+        <v>0.654</v>
       </c>
       <c r="AM33">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AN33">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AO33">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="AP33">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AS33">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AT33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU33">
-        <v>27.3</v>
+        <v>11.5</v>
       </c>
       <c r="AV33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AW33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY33">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="34" spans="1:51">
@@ -6064,154 +6070,154 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="G34">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="H34">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I34">
-        <v>0.745</v>
+        <v>0.228</v>
       </c>
       <c r="J34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K34">
-        <v>13326</v>
+        <v>13792</v>
       </c>
       <c r="L34">
         <v>2176</v>
       </c>
       <c r="M34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N34">
-        <v>13326</v>
+        <v>13792</v>
       </c>
       <c r="O34" t="s">
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q34">
         <v>1962</v>
       </c>
       <c r="R34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W34">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X34">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y34">
-        <v>39.5</v>
+        <v>41</v>
       </c>
       <c r="Z34">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="AA34">
-        <v>19.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB34">
+        <v>0.528</v>
+      </c>
+      <c r="AC34">
+        <v>0.1</v>
+      </c>
+      <c r="AD34">
+        <v>0.2</v>
+      </c>
+      <c r="AE34">
+        <v>0.421</v>
+      </c>
+      <c r="AF34">
+        <v>11.1</v>
+      </c>
+      <c r="AG34">
+        <v>20.9</v>
+      </c>
+      <c r="AH34">
         <v>0.529</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0.1</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>10.3</v>
-      </c>
-      <c r="AG34">
-        <v>19.5</v>
-      </c>
-      <c r="AH34">
-        <v>0.532</v>
-      </c>
       <c r="AI34">
-        <v>0.529</v>
+        <v>0.53</v>
       </c>
       <c r="AJ34">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AK34">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AL34">
-        <v>0.779</v>
+        <v>0.716</v>
       </c>
       <c r="AM34">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AN34">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="AO34">
-        <v>13</v>
+        <v>11.9</v>
       </c>
       <c r="AP34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AQ34">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AR34">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AS34">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AT34">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU34">
-        <v>26.1</v>
+        <v>27.3</v>
       </c>
       <c r="AV34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AW34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY34">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="35" spans="1:51">
@@ -6219,85 +6225,85 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F35">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G35">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H35">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I35">
-        <v>0.479</v>
+        <v>0.745</v>
       </c>
       <c r="J35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K35">
-        <v>12802</v>
+        <v>13326</v>
       </c>
       <c r="L35">
-        <v>2494</v>
+        <v>2176</v>
       </c>
       <c r="M35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N35">
-        <v>12802</v>
+        <v>13326</v>
       </c>
       <c r="O35" t="s">
         <v>82</v>
       </c>
       <c r="P35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q35">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="R35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S35">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V35" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="W35">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="X35">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="Y35">
-        <v>37.7</v>
+        <v>39.5</v>
       </c>
       <c r="Z35">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AA35">
-        <v>15.8</v>
+        <v>19.5</v>
       </c>
       <c r="AB35">
-        <v>0.551</v>
+        <v>0.529</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -6306,67 +6312,67 @@
         <v>0.1</v>
       </c>
       <c r="AE35">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AG35">
-        <v>15.7</v>
+        <v>19.5</v>
       </c>
       <c r="AH35">
-        <v>0.554</v>
+        <v>0.532</v>
       </c>
       <c r="AI35">
-        <v>0.552</v>
+        <v>0.529</v>
       </c>
       <c r="AJ35">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AK35">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AL35">
-        <v>0.701</v>
+        <v>0.779</v>
       </c>
       <c r="AM35">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AN35">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO35">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="AP35">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="AQ35">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AS35">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="AT35">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AU35">
-        <v>23.2</v>
+        <v>26.1</v>
       </c>
       <c r="AV35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AW35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AX35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY35">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="36" spans="1:51">
@@ -6374,154 +6380,154 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F36">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>96</v>
       </c>
       <c r="I36">
-        <v>0.531</v>
+        <v>0.479</v>
       </c>
       <c r="J36" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K36">
-        <v>12366</v>
+        <v>12802</v>
       </c>
       <c r="L36">
-        <v>2301</v>
+        <v>2494</v>
       </c>
       <c r="M36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N36">
-        <v>12366</v>
+        <v>12802</v>
       </c>
       <c r="O36" t="s">
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q36">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="R36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W36">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="X36">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Y36">
-        <v>33.5</v>
+        <v>37.7</v>
       </c>
       <c r="Z36">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA36">
-        <v>6.8</v>
+        <v>15.8</v>
       </c>
       <c r="AB36">
-        <v>0.493</v>
+        <v>0.551</v>
       </c>
       <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
         <v>0.1</v>
       </c>
-      <c r="AD36">
-        <v>0.4</v>
-      </c>
       <c r="AE36">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="AF36">
-        <v>3.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG36">
-        <v>6.5</v>
+        <v>15.7</v>
       </c>
       <c r="AH36">
-        <v>0.509</v>
+        <v>0.554</v>
       </c>
       <c r="AI36">
-        <v>0.498</v>
+        <v>0.552</v>
       </c>
       <c r="AJ36">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="AK36">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL36">
-        <v>0.631</v>
+        <v>0.701</v>
       </c>
       <c r="AM36">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="AN36">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="AO36">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="AR36">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="AS36">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="AT36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AU36">
-        <v>8.199999999999999</v>
+        <v>23.2</v>
       </c>
       <c r="AV36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AW36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY36">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="37" spans="1:51">
@@ -6529,130 +6535,130 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G37">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H37">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I37">
-        <v>0.533</v>
+        <v>0.531</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K37">
-        <v>11899</v>
+        <v>12366</v>
       </c>
       <c r="L37">
         <v>2301</v>
       </c>
       <c r="M37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N37">
-        <v>11899</v>
+        <v>12366</v>
       </c>
       <c r="O37" t="s">
         <v>84</v>
       </c>
       <c r="P37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q37">
         <v>1961</v>
       </c>
       <c r="R37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W37">
         <v>82</v>
       </c>
       <c r="X37">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Y37">
-        <v>29</v>
+        <v>33.5</v>
       </c>
       <c r="Z37">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AA37">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AB37">
-        <v>0.581</v>
+        <v>0.493</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD37">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AE37">
-        <v>0.111</v>
+        <v>0.2</v>
       </c>
       <c r="AF37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG37">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AH37">
-        <v>0.589</v>
+        <v>0.509</v>
       </c>
       <c r="AI37">
-        <v>0.582</v>
+        <v>0.498</v>
       </c>
       <c r="AJ37">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AK37">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AL37">
-        <v>0.654</v>
+        <v>0.631</v>
       </c>
       <c r="AM37">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AN37">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="AO37">
-        <v>9.699999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AP37">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>0.7</v>
@@ -6664,19 +6670,19 @@
         <v>3.4</v>
       </c>
       <c r="AU37">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AW37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY37">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="38" spans="1:51">
@@ -6684,154 +6690,154 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <v>49</v>
+      </c>
+      <c r="G38">
+        <v>49</v>
+      </c>
+      <c r="H38">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38">
-        <v>32</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38">
-        <v>26</v>
-      </c>
-      <c r="G38">
-        <v>26</v>
-      </c>
-      <c r="H38">
-        <v>85</v>
-      </c>
       <c r="I38">
-        <v>0.306</v>
+        <v>0.533</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K38">
-        <v>11635</v>
+        <v>11899</v>
       </c>
       <c r="L38">
-        <v>2081</v>
+        <v>2301</v>
       </c>
       <c r="M38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N38">
-        <v>11635</v>
+        <v>11899</v>
       </c>
       <c r="O38" t="s">
         <v>85</v>
       </c>
       <c r="P38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q38">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="R38" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="S38">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="T38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V38" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="W38">
         <v>82</v>
       </c>
       <c r="X38">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="Y38">
-        <v>35.5</v>
+        <v>29</v>
       </c>
       <c r="Z38">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="AA38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB38">
-        <v>0.462</v>
+        <v>0.581</v>
       </c>
       <c r="AC38">
         <v>0</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AF38">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="AG38">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="AH38">
-        <v>0.462</v>
+        <v>0.589</v>
       </c>
       <c r="AI38">
-        <v>0.462</v>
+        <v>0.582</v>
       </c>
       <c r="AJ38">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AK38">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AL38">
-        <v>0.66</v>
+        <v>0.654</v>
       </c>
       <c r="AM38">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="AN38">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO38">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="AS38">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AT38">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU38">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AW38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY38">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="39" spans="1:51">
@@ -6839,67 +6845,67 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G39">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I39">
-        <v>0.463</v>
+        <v>0.306</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K39">
-        <v>11208</v>
+        <v>11635</v>
       </c>
       <c r="L39">
-        <v>2193</v>
+        <v>2081</v>
       </c>
       <c r="M39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N39">
-        <v>11208</v>
+        <v>11635</v>
       </c>
       <c r="O39" t="s">
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q39">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="R39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S39">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W39">
         <v>82</v>
@@ -6908,85 +6914,85 @@
         <v>82</v>
       </c>
       <c r="Y39">
-        <v>40.4</v>
+        <v>35.5</v>
       </c>
       <c r="Z39">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="AA39">
-        <v>24.4</v>
+        <v>5</v>
       </c>
       <c r="AB39">
-        <v>0.535</v>
+        <v>0.462</v>
       </c>
       <c r="AC39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="AG39">
-        <v>23.7</v>
+        <v>5</v>
       </c>
       <c r="AH39">
-        <v>0.546</v>
+        <v>0.462</v>
       </c>
       <c r="AI39">
-        <v>0.537</v>
+        <v>0.462</v>
       </c>
       <c r="AJ39">
-        <v>8.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AK39">
-        <v>10.5</v>
+        <v>2.4</v>
       </c>
       <c r="AL39">
-        <v>0.841</v>
+        <v>0.66</v>
       </c>
       <c r="AM39">
+        <v>2.8</v>
+      </c>
+      <c r="AN39">
+        <v>7.5</v>
+      </c>
+      <c r="AO39">
+        <v>10.3</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>0.5</v>
+      </c>
+      <c r="AR39">
+        <v>3.8</v>
+      </c>
+      <c r="AS39">
         <v>1.7</v>
       </c>
-      <c r="AN39">
-        <v>3.8</v>
-      </c>
-      <c r="AO39">
-        <v>5.5</v>
-      </c>
-      <c r="AP39">
-        <v>5.9</v>
-      </c>
-      <c r="AQ39">
-        <v>3.2</v>
-      </c>
-      <c r="AR39">
-        <v>1.6</v>
-      </c>
-      <c r="AS39">
-        <v>3.1</v>
-      </c>
       <c r="AT39">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU39">
-        <v>35</v>
+        <v>6.2</v>
       </c>
       <c r="AV39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AW39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY39">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="40" spans="1:51">
@@ -6994,154 +7000,154 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I40">
-        <v>0.321</v>
+        <v>0.463</v>
       </c>
       <c r="J40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K40">
-        <v>10811</v>
+        <v>11208</v>
       </c>
       <c r="L40">
-        <v>1823</v>
+        <v>2193</v>
       </c>
       <c r="M40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N40">
-        <v>10811</v>
+        <v>11208</v>
       </c>
       <c r="O40" t="s">
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q40">
-        <v>1956</v>
+        <v>1963</v>
       </c>
       <c r="R40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S40">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T40">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="U40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V40" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="W40">
         <v>82</v>
       </c>
       <c r="X40">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="Y40">
-        <v>27.5</v>
+        <v>40.4</v>
       </c>
       <c r="Z40">
-        <v>3.9</v>
+        <v>13</v>
       </c>
       <c r="AA40">
-        <v>9</v>
+        <v>24.4</v>
       </c>
       <c r="AB40">
-        <v>0.438</v>
+        <v>0.535</v>
       </c>
       <c r="AC40">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD40">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="AE40">
-        <v>0.385</v>
+        <v>0.132</v>
       </c>
       <c r="AF40">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="AG40">
-        <v>6.2</v>
+        <v>23.7</v>
       </c>
       <c r="AH40">
-        <v>0.461</v>
+        <v>0.546</v>
       </c>
       <c r="AI40">
-        <v>0.498</v>
+        <v>0.537</v>
       </c>
       <c r="AJ40">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK40">
-        <v>1.8</v>
+        <v>10.5</v>
       </c>
       <c r="AL40">
-        <v>0.851</v>
+        <v>0.841</v>
       </c>
       <c r="AM40">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="AN40">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AO40">
+        <v>5.5</v>
+      </c>
+      <c r="AP40">
+        <v>5.9</v>
+      </c>
+      <c r="AQ40">
+        <v>3.2</v>
+      </c>
+      <c r="AR40">
+        <v>1.6</v>
+      </c>
+      <c r="AS40">
         <v>3.1</v>
       </c>
-      <c r="AP40">
-        <v>4.5</v>
-      </c>
-      <c r="AQ40">
-        <v>1</v>
-      </c>
-      <c r="AR40">
-        <v>0.5</v>
-      </c>
-      <c r="AS40">
-        <v>1.2</v>
-      </c>
       <c r="AT40">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AU40">
-        <v>10.5</v>
+        <v>35</v>
       </c>
       <c r="AV40" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AW40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX40" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY40">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="41" spans="1:51">
@@ -7149,154 +7155,154 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F41">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G41">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H41">
         <v>78</v>
       </c>
       <c r="I41">
-        <v>0.346</v>
+        <v>0.321</v>
       </c>
       <c r="J41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K41">
-        <v>10190</v>
+        <v>10811</v>
       </c>
       <c r="L41">
-        <v>2158</v>
+        <v>1823</v>
       </c>
       <c r="M41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N41">
-        <v>10190</v>
+        <v>10811</v>
       </c>
       <c r="O41" t="s">
         <v>88</v>
       </c>
       <c r="P41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q41">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="R41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S41">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V41" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W41">
         <v>82</v>
       </c>
       <c r="X41">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="Y41">
-        <v>35.1</v>
+        <v>27.5</v>
       </c>
       <c r="Z41">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="AA41">
-        <v>13.3</v>
+        <v>9</v>
       </c>
       <c r="AB41">
-        <v>0.514</v>
+        <v>0.438</v>
       </c>
       <c r="AC41">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AD41">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="AE41">
-        <v>0.276</v>
+        <v>0.385</v>
       </c>
       <c r="AF41">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="AG41">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AH41">
-        <v>0.521</v>
+        <v>0.461</v>
       </c>
       <c r="AI41">
-        <v>0.518</v>
+        <v>0.498</v>
       </c>
       <c r="AJ41">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="AK41">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AL41">
-        <v>0.795</v>
+        <v>0.851</v>
       </c>
       <c r="AM41">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="AN41">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="AO41">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="AP41">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AQ41">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT41">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="AU41">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AV41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AW41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY41">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="42" spans="1:51">
@@ -7304,67 +7310,67 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F42">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G42">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H42">
         <v>78</v>
       </c>
       <c r="I42">
-        <v>0.41</v>
+        <v>0.346</v>
       </c>
       <c r="J42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K42">
-        <v>10042</v>
+        <v>10190</v>
       </c>
       <c r="L42">
-        <v>2081</v>
+        <v>2158</v>
       </c>
       <c r="M42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N42">
-        <v>10042</v>
+        <v>10190</v>
       </c>
       <c r="O42" t="s">
         <v>89</v>
       </c>
       <c r="P42" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q42">
-        <v>1956</v>
+        <v>1962</v>
       </c>
       <c r="R42" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="S42">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V42" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="W42">
         <v>82</v>
@@ -7373,85 +7379,85 @@
         <v>82</v>
       </c>
       <c r="Y42">
-        <v>34.3</v>
+        <v>35.1</v>
       </c>
       <c r="Z42">
+        <v>6.9</v>
+      </c>
+      <c r="AA42">
+        <v>13.3</v>
+      </c>
+      <c r="AB42">
+        <v>0.514</v>
+      </c>
+      <c r="AC42">
+        <v>0.1</v>
+      </c>
+      <c r="AD42">
+        <v>0.4</v>
+      </c>
+      <c r="AE42">
+        <v>0.276</v>
+      </c>
+      <c r="AF42">
+        <v>6.8</v>
+      </c>
+      <c r="AG42">
+        <v>13</v>
+      </c>
+      <c r="AH42">
+        <v>0.521</v>
+      </c>
+      <c r="AI42">
+        <v>0.518</v>
+      </c>
+      <c r="AJ42">
+        <v>3.2</v>
+      </c>
+      <c r="AK42">
+        <v>4</v>
+      </c>
+      <c r="AL42">
+        <v>0.795</v>
+      </c>
+      <c r="AM42">
+        <v>2.2</v>
+      </c>
+      <c r="AN42">
+        <v>4</v>
+      </c>
+      <c r="AO42">
+        <v>6.3</v>
+      </c>
+      <c r="AP42">
+        <v>5.5</v>
+      </c>
+      <c r="AQ42">
         <v>3.7</v>
       </c>
-      <c r="AA42">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB42">
-        <v>0.449</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>3.7</v>
-      </c>
-      <c r="AG42">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH42">
-        <v>0.449</v>
-      </c>
-      <c r="AI42">
-        <v>0.449</v>
-      </c>
-      <c r="AJ42">
-        <v>2.3</v>
-      </c>
-      <c r="AK42">
-        <v>3.3</v>
-      </c>
-      <c r="AL42">
-        <v>0.712</v>
-      </c>
-      <c r="AM42">
-        <v>2.5</v>
-      </c>
-      <c r="AN42">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AO42">
-        <v>11.3</v>
-      </c>
-      <c r="AP42">
-        <v>1.5</v>
-      </c>
-      <c r="AQ42">
-        <v>0.4</v>
-      </c>
       <c r="AR42">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AT42">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AU42">
-        <v>9.699999999999999</v>
+        <v>17</v>
       </c>
       <c r="AV42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AW42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY42">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="43" spans="1:51">
@@ -7459,154 +7465,154 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F43">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G43">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I43">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K43">
-        <v>9782</v>
+        <v>10042</v>
       </c>
       <c r="L43">
-        <v>1889</v>
+        <v>2081</v>
       </c>
       <c r="M43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N43">
-        <v>9782</v>
+        <v>10042</v>
       </c>
       <c r="O43" t="s">
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q43">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="R43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S43">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W43">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X43">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y43">
-        <v>38.9</v>
+        <v>34.3</v>
       </c>
       <c r="Z43">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="AA43">
-        <v>14.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB43">
-        <v>0.498</v>
+        <v>0.449</v>
       </c>
       <c r="AC43">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="AG43">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH43">
-        <v>0.501</v>
+        <v>0.449</v>
       </c>
       <c r="AI43">
-        <v>0.5</v>
+        <v>0.449</v>
       </c>
       <c r="AJ43">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="AK43">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="AL43">
-        <v>0.848</v>
+        <v>0.712</v>
       </c>
       <c r="AM43">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AN43">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO43">
-        <v>6.7</v>
+        <v>11.3</v>
       </c>
       <c r="AP43">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AR43">
-        <v>0.3</v>
+        <v>5.6</v>
       </c>
       <c r="AS43">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AT43">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="AU43">
-        <v>20.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AW43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AX43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AY43">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="44" spans="1:51">
@@ -7614,153 +7620,308 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H44">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I44">
-        <v>0.187</v>
+        <v>0.25</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K44">
-        <v>9435</v>
+        <v>9782</v>
       </c>
       <c r="L44">
         <v>1889</v>
       </c>
       <c r="M44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N44">
-        <v>9435</v>
+        <v>9782</v>
       </c>
       <c r="O44" t="s">
         <v>91</v>
       </c>
       <c r="P44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q44">
         <v>1957</v>
       </c>
       <c r="R44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="W44">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X44">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y44">
-        <v>35.7</v>
+        <v>38.9</v>
       </c>
       <c r="Z44">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AA44">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
       <c r="AB44">
-        <v>0.524</v>
+        <v>0.498</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD44">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE44">
-        <v>0.1</v>
+        <v>0.278</v>
       </c>
       <c r="AF44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG44">
-        <v>15.1</v>
+        <v>14</v>
       </c>
       <c r="AH44">
-        <v>0.528</v>
+        <v>0.501</v>
       </c>
       <c r="AI44">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="AJ44">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AK44">
         <v>7.9</v>
       </c>
       <c r="AL44">
-        <v>0.826</v>
+        <v>0.848</v>
       </c>
       <c r="AM44">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AN44">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AO44">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="AP44">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>0.3</v>
       </c>
       <c r="AS44">
+        <v>2.7</v>
+      </c>
+      <c r="AT44">
         <v>2.6</v>
       </c>
-      <c r="AT44">
+      <c r="AU44">
+        <v>20.9</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY44">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>0.187</v>
+      </c>
+      <c r="J45" t="s">
+        <v>138</v>
+      </c>
+      <c r="K45">
+        <v>9435</v>
+      </c>
+      <c r="L45">
+        <v>1889</v>
+      </c>
+      <c r="M45" t="s">
+        <v>180</v>
+      </c>
+      <c r="N45">
+        <v>9435</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q45">
+        <v>1957</v>
+      </c>
+      <c r="R45" t="s">
+        <v>186</v>
+      </c>
+      <c r="S45">
+        <v>26</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45" t="s">
+        <v>187</v>
+      </c>
+      <c r="V45" t="s">
+        <v>123</v>
+      </c>
+      <c r="W45">
+        <v>76</v>
+      </c>
+      <c r="X45">
+        <v>76</v>
+      </c>
+      <c r="Y45">
+        <v>35.7</v>
+      </c>
+      <c r="Z45">
+        <v>8</v>
+      </c>
+      <c r="AA45">
+        <v>15.2</v>
+      </c>
+      <c r="AB45">
+        <v>0.524</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0.1</v>
+      </c>
+      <c r="AE45">
+        <v>0.1</v>
+      </c>
+      <c r="AF45">
+        <v>8</v>
+      </c>
+      <c r="AG45">
+        <v>15.1</v>
+      </c>
+      <c r="AH45">
+        <v>0.528</v>
+      </c>
+      <c r="AI45">
+        <v>0.525</v>
+      </c>
+      <c r="AJ45">
+        <v>6.6</v>
+      </c>
+      <c r="AK45">
+        <v>7.9</v>
+      </c>
+      <c r="AL45">
+        <v>0.826</v>
+      </c>
+      <c r="AM45">
+        <v>2.5</v>
+      </c>
+      <c r="AN45">
+        <v>3.2</v>
+      </c>
+      <c r="AO45">
+        <v>5.8</v>
+      </c>
+      <c r="AP45">
+        <v>3.9</v>
+      </c>
+      <c r="AQ45">
+        <v>1.5</v>
+      </c>
+      <c r="AR45">
+        <v>0.3</v>
+      </c>
+      <c r="AS45">
+        <v>2.6</v>
+      </c>
+      <c r="AT45">
         <v>2.4</v>
       </c>
-      <c r="AU44">
+      <c r="AU45">
         <v>22.5</v>
       </c>
-      <c r="AV44" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>188</v>
-      </c>
-      <c r="AY44">
+      <c r="AV45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY45">
         <v>1983</v>
       </c>
     </row>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="190">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -46,21 +46,21 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
   </si>
   <si>
+    <t>player_id_y</t>
+  </si>
+  <si>
     <t>player_y</t>
   </si>
   <si>
@@ -578,9 +578,6 @@
   </si>
   <si>
     <t>NBA</t>
-  </si>
-  <si>
-    <t>PHI</t>
   </si>
   <si>
     <t>Yes</t>
@@ -944,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY45"/>
+  <dimension ref="A1:AY43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1145,11 +1142,11 @@
       <c r="M2" t="s">
         <v>139</v>
       </c>
-      <c r="N2">
-        <v>31747</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>4437</v>
       </c>
       <c r="P2" t="s">
         <v>94</v>
@@ -1251,10 +1248,10 @@
         <v>139</v>
       </c>
       <c r="AW2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX2" t="s">
         <v>189</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>190</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1300,11 +1297,11 @@
       <c r="M3" t="s">
         <v>140</v>
       </c>
-      <c r="N3">
-        <v>30733</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>2400</v>
       </c>
       <c r="P3" t="s">
         <v>95</v>
@@ -1406,10 +1403,10 @@
         <v>140</v>
       </c>
       <c r="AW3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1455,11 +1452,11 @@
       <c r="M4" t="s">
         <v>141</v>
       </c>
-      <c r="N4">
-        <v>30183</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>53</v>
+      </c>
+      <c r="O4">
+        <v>3459</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -1561,10 +1558,10 @@
         <v>141</v>
       </c>
       <c r="AW4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1610,11 +1607,11 @@
       <c r="M5" t="s">
         <v>142</v>
       </c>
-      <c r="N5">
-        <v>29529</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>54</v>
+      </c>
+      <c r="O5">
+        <v>4437</v>
       </c>
       <c r="P5" t="s">
         <v>94</v>
@@ -1716,10 +1713,10 @@
         <v>142</v>
       </c>
       <c r="AW5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX5" t="s">
         <v>189</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>190</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1765,11 +1762,11 @@
       <c r="M6" t="s">
         <v>143</v>
       </c>
-      <c r="N6">
-        <v>28507</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>55</v>
+      </c>
+      <c r="O6">
+        <v>1947</v>
       </c>
       <c r="P6" t="s">
         <v>97</v>
@@ -1871,10 +1868,10 @@
         <v>143</v>
       </c>
       <c r="AW6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX6" t="s">
         <v>189</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>190</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -1920,11 +1917,11 @@
       <c r="M7" t="s">
         <v>144</v>
       </c>
-      <c r="N7">
-        <v>28147</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>56</v>
+      </c>
+      <c r="O7">
+        <v>4437</v>
       </c>
       <c r="P7" t="s">
         <v>94</v>
@@ -2026,10 +2023,10 @@
         <v>144</v>
       </c>
       <c r="AW7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX7" t="s">
         <v>189</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>190</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2075,11 +2072,11 @@
       <c r="M8" t="s">
         <v>145</v>
       </c>
-      <c r="N8">
-        <v>27467</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" t="s">
         <v>57</v>
+      </c>
+      <c r="O8">
+        <v>4437</v>
       </c>
       <c r="P8" t="s">
         <v>94</v>
@@ -2181,10 +2178,10 @@
         <v>145</v>
       </c>
       <c r="AW8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX8" t="s">
         <v>189</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>190</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2230,11 +2227,11 @@
       <c r="M9" t="s">
         <v>146</v>
       </c>
-      <c r="N9">
-        <v>26494</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>58</v>
+      </c>
+      <c r="O9">
+        <v>1522</v>
       </c>
       <c r="P9" t="s">
         <v>98</v>
@@ -2336,10 +2333,10 @@
         <v>146</v>
       </c>
       <c r="AW9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2385,11 +2382,11 @@
       <c r="M10" t="s">
         <v>147</v>
       </c>
-      <c r="N10">
-        <v>26060</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>59</v>
+      </c>
+      <c r="O10">
+        <v>2981</v>
       </c>
       <c r="P10" t="s">
         <v>99</v>
@@ -2491,10 +2488,10 @@
         <v>147</v>
       </c>
       <c r="AW10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2540,11 +2537,11 @@
       <c r="M11" t="s">
         <v>148</v>
       </c>
-      <c r="N11">
-        <v>25447</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>60</v>
+      </c>
+      <c r="O11">
+        <v>2981</v>
       </c>
       <c r="P11" t="s">
         <v>99</v>
@@ -2646,10 +2643,10 @@
         <v>148</v>
       </c>
       <c r="AW11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2695,11 +2692,11 @@
       <c r="M12" t="s">
         <v>149</v>
       </c>
-      <c r="N12">
-        <v>24779</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
+      </c>
+      <c r="O12">
+        <v>2655</v>
       </c>
       <c r="P12" t="s">
         <v>100</v>
@@ -2801,10 +2798,10 @@
         <v>149</v>
       </c>
       <c r="AW12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX12" t="s">
         <v>189</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>190</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -2850,11 +2847,11 @@
       <c r="M13" t="s">
         <v>150</v>
       </c>
-      <c r="N13">
-        <v>24297</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>62</v>
+      </c>
+      <c r="O13">
+        <v>3439</v>
       </c>
       <c r="P13" t="s">
         <v>101</v>
@@ -2956,10 +2953,10 @@
         <v>150</v>
       </c>
       <c r="AW13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3005,11 +3002,11 @@
       <c r="M14" t="s">
         <v>151</v>
       </c>
-      <c r="N14">
-        <v>23892</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>63</v>
+      </c>
+      <c r="O14">
+        <v>5034</v>
       </c>
       <c r="P14" t="s">
         <v>102</v>
@@ -3111,10 +3108,10 @@
         <v>151</v>
       </c>
       <c r="AW14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3160,11 +3157,11 @@
       <c r="M15" t="s">
         <v>152</v>
       </c>
-      <c r="N15">
-        <v>22919</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>64</v>
+      </c>
+      <c r="O15">
+        <v>1553</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -3266,10 +3263,10 @@
         <v>152</v>
       </c>
       <c r="AW15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX15" t="s">
         <v>189</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>190</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3315,11 +3312,11 @@
       <c r="M16" t="s">
         <v>153</v>
       </c>
-      <c r="N16">
-        <v>22328</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>65</v>
+      </c>
+      <c r="O16">
+        <v>1553</v>
       </c>
       <c r="P16" t="s">
         <v>103</v>
@@ -3421,10 +3418,10 @@
         <v>153</v>
       </c>
       <c r="AW16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX16" t="s">
         <v>189</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>190</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3470,11 +3467,11 @@
       <c r="M17" t="s">
         <v>154</v>
       </c>
-      <c r="N17">
-        <v>21759</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>66</v>
+      </c>
+      <c r="O17">
+        <v>1553</v>
       </c>
       <c r="P17" t="s">
         <v>103</v>
@@ -3576,10 +3573,10 @@
         <v>154</v>
       </c>
       <c r="AW17" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX17" t="s">
         <v>189</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>190</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3625,11 +3622,11 @@
       <c r="M18" t="s">
         <v>155</v>
       </c>
-      <c r="N18">
-        <v>21291</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>67</v>
+      </c>
+      <c r="O18">
+        <v>3092</v>
       </c>
       <c r="P18" t="s">
         <v>104</v>
@@ -3731,10 +3728,10 @@
         <v>155</v>
       </c>
       <c r="AW18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -3780,11 +3777,11 @@
       <c r="M19" t="s">
         <v>156</v>
       </c>
-      <c r="N19">
-        <v>20786</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>68</v>
+      </c>
+      <c r="O19">
+        <v>3447</v>
       </c>
       <c r="P19" t="s">
         <v>105</v>
@@ -3886,10 +3883,10 @@
         <v>156</v>
       </c>
       <c r="AW19" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX19" t="s">
         <v>189</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>190</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -3935,11 +3932,11 @@
       <c r="M20" t="s">
         <v>157</v>
       </c>
-      <c r="N20">
-        <v>19951</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>69</v>
+      </c>
+      <c r="O20">
+        <v>356</v>
       </c>
       <c r="P20" t="s">
         <v>106</v>
@@ -4041,10 +4038,10 @@
         <v>157</v>
       </c>
       <c r="AW20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4090,11 +4087,11 @@
       <c r="M21" t="s">
         <v>158</v>
       </c>
-      <c r="N21">
-        <v>19367</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>70</v>
+      </c>
+      <c r="O21">
+        <v>356</v>
       </c>
       <c r="P21" t="s">
         <v>106</v>
@@ -4196,10 +4193,10 @@
         <v>158</v>
       </c>
       <c r="AW21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4245,11 +4242,11 @@
       <c r="M22" t="s">
         <v>159</v>
       </c>
-      <c r="N22">
-        <v>19099</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>71</v>
+      </c>
+      <c r="O22">
+        <v>3619</v>
       </c>
       <c r="P22" t="s">
         <v>181</v>
@@ -4351,10 +4348,10 @@
         <v>159</v>
       </c>
       <c r="AW22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4400,11 +4397,11 @@
       <c r="M23" t="s">
         <v>160</v>
       </c>
-      <c r="N23">
-        <v>18288</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>72</v>
+      </c>
+      <c r="O23">
+        <v>356</v>
       </c>
       <c r="P23" t="s">
         <v>106</v>
@@ -4506,10 +4503,10 @@
         <v>160</v>
       </c>
       <c r="AW23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4555,11 +4552,11 @@
       <c r="M24" t="s">
         <v>161</v>
       </c>
-      <c r="N24">
-        <v>17783</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>73</v>
+      </c>
+      <c r="O24">
+        <v>356</v>
       </c>
       <c r="P24" t="s">
         <v>106</v>
@@ -4661,10 +4658,10 @@
         <v>161</v>
       </c>
       <c r="AW24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4710,11 +4707,11 @@
       <c r="M25" t="s">
         <v>162</v>
       </c>
-      <c r="N25">
-        <v>17363</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>74</v>
+      </c>
+      <c r="O25">
+        <v>1421</v>
       </c>
       <c r="P25" t="s">
         <v>108</v>
@@ -4816,10 +4813,10 @@
         <v>162</v>
       </c>
       <c r="AW25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX25" t="s">
         <v>189</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>190</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4827,243 +4824,243 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G26">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="H26">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I26">
-        <v>0.39</v>
+        <v>0.512</v>
       </c>
       <c r="J26" t="s">
         <v>138</v>
       </c>
       <c r="K26">
-        <v>17363</v>
+        <v>16726</v>
       </c>
       <c r="L26">
-        <v>2648</v>
+        <v>2696</v>
       </c>
       <c r="M26" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26">
-        <v>17364</v>
-      </c>
-      <c r="O26" t="s">
-        <v>74</v>
+        <v>163</v>
+      </c>
+      <c r="N26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26">
+        <v>140</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q26">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="R26" t="s">
         <v>182</v>
       </c>
       <c r="S26">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="T26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U26" t="s">
         <v>187</v>
       </c>
       <c r="V26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W26">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="X26">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="Y26">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="Z26">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AA26">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AB26">
-        <v>0.477</v>
+        <v>0.551</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG26">
-        <v>7.2</v>
+        <v>14.9</v>
       </c>
       <c r="AH26">
-        <v>0.477</v>
+        <v>0.553</v>
       </c>
       <c r="AI26">
-        <v>0.477</v>
+        <v>0.551</v>
       </c>
       <c r="AJ26">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="AK26">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="AL26">
-        <v>0.695</v>
+        <v>0.711</v>
       </c>
       <c r="AM26">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="AN26">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="AO26">
-        <v>14.1</v>
+        <v>9.5</v>
       </c>
       <c r="AP26">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AS26">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="AT26">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="AU26">
-        <v>9.1</v>
+        <v>21.7</v>
       </c>
       <c r="AV26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AW26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY26">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:51">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H27">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I27">
-        <v>0.39</v>
+        <v>0.754</v>
       </c>
       <c r="J27" t="s">
         <v>138</v>
       </c>
       <c r="K27">
-        <v>17363</v>
+        <v>16217</v>
       </c>
       <c r="L27">
-        <v>2648</v>
+        <v>2696</v>
       </c>
       <c r="M27" t="s">
-        <v>162</v>
-      </c>
-      <c r="N27">
-        <v>17365</v>
-      </c>
-      <c r="O27" t="s">
-        <v>74</v>
+        <v>164</v>
+      </c>
+      <c r="N27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27">
+        <v>140</v>
       </c>
       <c r="P27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q27">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="R27" t="s">
         <v>182</v>
       </c>
       <c r="S27">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="T27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U27" t="s">
         <v>187</v>
       </c>
       <c r="V27" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="X27">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Y27">
-        <v>33.7</v>
+        <v>38.1</v>
       </c>
       <c r="Z27">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="AA27">
-        <v>7.8</v>
+        <v>13.8</v>
       </c>
       <c r="AB27">
-        <v>0.495</v>
+        <v>0.511</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -5075,305 +5072,305 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="AG27">
-        <v>7.8</v>
+        <v>13.7</v>
       </c>
       <c r="AH27">
-        <v>0.495</v>
+        <v>0.513</v>
       </c>
       <c r="AI27">
-        <v>0.495</v>
+        <v>0.511</v>
       </c>
       <c r="AJ27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK27">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL27">
-        <v>0.759</v>
+        <v>0.652</v>
       </c>
       <c r="AM27">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="AN27">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO27">
-        <v>12.4</v>
+        <v>11</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AR27">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT27">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU27">
-        <v>11.7</v>
+        <v>20.1</v>
       </c>
       <c r="AV27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AW27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX27" t="s">
         <v>189</v>
       </c>
-      <c r="AX27" t="s">
-        <v>190</v>
-      </c>
       <c r="AY27">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="28" spans="1:51">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F28">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I28">
-        <v>0.512</v>
+        <v>0.336</v>
       </c>
       <c r="J28" t="s">
         <v>138</v>
       </c>
       <c r="K28">
-        <v>16726</v>
+        <v>15842</v>
       </c>
       <c r="L28">
-        <v>2696</v>
+        <v>2648</v>
       </c>
       <c r="M28" t="s">
-        <v>163</v>
-      </c>
-      <c r="N28">
-        <v>16726</v>
-      </c>
-      <c r="O28" t="s">
-        <v>75</v>
+        <v>165</v>
+      </c>
+      <c r="N28" t="s">
+        <v>77</v>
+      </c>
+      <c r="O28">
+        <v>1421</v>
       </c>
       <c r="P28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q28">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="R28" t="s">
         <v>182</v>
       </c>
       <c r="S28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U28" t="s">
         <v>187</v>
       </c>
       <c r="V28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W28">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="X28">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y28">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="Z28">
-        <v>8.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AA28">
-        <v>15</v>
+        <v>9.1</v>
       </c>
       <c r="AB28">
-        <v>0.551</v>
+        <v>0.537</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>8.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="AG28">
-        <v>14.9</v>
+        <v>9.1</v>
       </c>
       <c r="AH28">
-        <v>0.553</v>
+        <v>0.537</v>
       </c>
       <c r="AI28">
-        <v>0.551</v>
+        <v>0.537</v>
       </c>
       <c r="AJ28">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="AK28">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AL28">
-        <v>0.711</v>
+        <v>0.67</v>
       </c>
       <c r="AM28">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AN28">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AO28">
-        <v>9.5</v>
+        <v>11.4</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR28">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AS28">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AT28">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU28">
-        <v>21.7</v>
+        <v>13.4</v>
       </c>
       <c r="AV28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AW28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="29" spans="1:51">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F29">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G29">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H29">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I29">
-        <v>0.754</v>
+        <v>0.522</v>
       </c>
       <c r="J29" t="s">
         <v>138</v>
       </c>
       <c r="K29">
-        <v>16217</v>
+        <v>15239</v>
       </c>
       <c r="L29">
-        <v>2696</v>
+        <v>2648</v>
       </c>
       <c r="M29" t="s">
-        <v>164</v>
-      </c>
-      <c r="N29">
-        <v>16217</v>
-      </c>
-      <c r="O29" t="s">
-        <v>76</v>
+        <v>166</v>
+      </c>
+      <c r="N29" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29">
+        <v>1421</v>
       </c>
       <c r="P29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q29">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="R29" t="s">
         <v>182</v>
       </c>
       <c r="S29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U29" t="s">
         <v>187</v>
       </c>
       <c r="V29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W29">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="X29">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="Y29">
-        <v>38.1</v>
+        <v>37.2</v>
       </c>
       <c r="Z29">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="AA29">
-        <v>13.8</v>
+        <v>9</v>
       </c>
       <c r="AB29">
-        <v>0.511</v>
+        <v>0.527</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -5385,224 +5382,224 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="AG29">
-        <v>13.7</v>
+        <v>9</v>
       </c>
       <c r="AH29">
-        <v>0.513</v>
+        <v>0.527</v>
       </c>
       <c r="AI29">
-        <v>0.511</v>
+        <v>0.527</v>
       </c>
       <c r="AJ29">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="AK29">
-        <v>9.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AL29">
-        <v>0.652</v>
+        <v>0.705</v>
       </c>
       <c r="AM29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AN29">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AO29">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="AP29">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AT29">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AU29">
-        <v>20.1</v>
+        <v>13.3</v>
       </c>
       <c r="AV29" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AW29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX29" t="s">
         <v>189</v>
       </c>
-      <c r="AX29" t="s">
-        <v>190</v>
-      </c>
       <c r="AY29">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="30" spans="1:51">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G30">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H30">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I30">
-        <v>0.336</v>
+        <v>0.496</v>
       </c>
       <c r="J30" t="s">
         <v>138</v>
       </c>
       <c r="K30">
-        <v>15842</v>
+        <v>14747</v>
       </c>
       <c r="L30">
-        <v>2648</v>
+        <v>2585</v>
       </c>
       <c r="M30" t="s">
-        <v>165</v>
-      </c>
-      <c r="N30">
-        <v>15842</v>
-      </c>
-      <c r="O30" t="s">
-        <v>77</v>
+        <v>167</v>
+      </c>
+      <c r="N30" t="s">
+        <v>79</v>
+      </c>
+      <c r="O30">
+        <v>1845</v>
       </c>
       <c r="P30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q30">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="R30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S30">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U30" t="s">
         <v>187</v>
       </c>
       <c r="V30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="W30">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X30">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y30">
-        <v>35.6</v>
+        <v>39</v>
       </c>
       <c r="Z30">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="AA30">
-        <v>9.1</v>
+        <v>15.8</v>
       </c>
       <c r="AB30">
-        <v>0.537</v>
+        <v>0.484</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>0.328</v>
       </c>
       <c r="AF30">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="AG30">
-        <v>9.1</v>
+        <v>12.1</v>
       </c>
       <c r="AH30">
-        <v>0.537</v>
+        <v>0.532</v>
       </c>
       <c r="AI30">
-        <v>0.537</v>
+        <v>0.523</v>
       </c>
       <c r="AJ30">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AK30">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AL30">
-        <v>0.67</v>
+        <v>0.748</v>
       </c>
       <c r="AM30">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="AN30">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="AO30">
-        <v>11.4</v>
+        <v>4.2</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="AR30">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="AT30">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AU30">
-        <v>13.4</v>
+        <v>19.3</v>
       </c>
       <c r="AV30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AW30" t="s">
         <v>189</v>
       </c>
       <c r="AX30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY30">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="31" spans="1:51">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
         <v>93</v>
@@ -5611,40 +5608,40 @@
         <v>108</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I31">
-        <v>0.522</v>
+        <v>0.429</v>
       </c>
       <c r="J31" t="s">
         <v>138</v>
       </c>
       <c r="K31">
-        <v>15239</v>
+        <v>14209</v>
       </c>
       <c r="L31">
         <v>2648</v>
       </c>
       <c r="M31" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31">
-        <v>15239</v>
-      </c>
-      <c r="O31" t="s">
-        <v>78</v>
+        <v>168</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31">
+        <v>1421</v>
       </c>
       <c r="P31" t="s">
         <v>108</v>
@@ -5656,34 +5653,34 @@
         <v>182</v>
       </c>
       <c r="S31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U31" t="s">
         <v>187</v>
       </c>
       <c r="V31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="W31">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X31">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y31">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="Z31">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AA31">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AB31">
-        <v>0.527</v>
+        <v>0.556</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -5695,287 +5692,287 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AG31">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AH31">
-        <v>0.527</v>
+        <v>0.556</v>
       </c>
       <c r="AI31">
-        <v>0.527</v>
+        <v>0.556</v>
       </c>
       <c r="AJ31">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="AK31">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="AL31">
-        <v>0.705</v>
+        <v>0.654</v>
       </c>
       <c r="AM31">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AN31">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AO31">
-        <v>11.6</v>
+        <v>12.5</v>
       </c>
       <c r="AP31">
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AS31">
         <v>2.3</v>
       </c>
       <c r="AT31">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AU31">
-        <v>13.3</v>
+        <v>11.5</v>
       </c>
       <c r="AV31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AW31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX31" t="s">
         <v>189</v>
       </c>
-      <c r="AX31" t="s">
-        <v>190</v>
-      </c>
       <c r="AY31">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:51">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
         <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G32">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I32">
-        <v>0.496</v>
+        <v>0.228</v>
       </c>
       <c r="J32" t="s">
         <v>138</v>
       </c>
       <c r="K32">
-        <v>14747</v>
+        <v>13792</v>
       </c>
       <c r="L32">
-        <v>2585</v>
+        <v>2176</v>
       </c>
       <c r="M32" t="s">
-        <v>167</v>
-      </c>
-      <c r="N32">
-        <v>14747</v>
-      </c>
-      <c r="O32" t="s">
-        <v>79</v>
+        <v>169</v>
+      </c>
+      <c r="N32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O32">
+        <v>2035</v>
       </c>
       <c r="P32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q32">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="R32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S32">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U32" t="s">
         <v>187</v>
       </c>
       <c r="V32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W32">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X32">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y32">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z32">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
       <c r="AA32">
-        <v>15.8</v>
+        <v>21.2</v>
       </c>
       <c r="AB32">
-        <v>0.484</v>
+        <v>0.528</v>
       </c>
       <c r="AC32">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD32">
+        <v>0.2</v>
+      </c>
+      <c r="AE32">
+        <v>0.421</v>
+      </c>
+      <c r="AF32">
+        <v>11.1</v>
+      </c>
+      <c r="AG32">
+        <v>20.9</v>
+      </c>
+      <c r="AH32">
+        <v>0.529</v>
+      </c>
+      <c r="AI32">
+        <v>0.53</v>
+      </c>
+      <c r="AJ32">
+        <v>4.9</v>
+      </c>
+      <c r="AK32">
+        <v>6.8</v>
+      </c>
+      <c r="AL32">
+        <v>0.716</v>
+      </c>
+      <c r="AM32">
+        <v>2.9</v>
+      </c>
+      <c r="AN32">
+        <v>9.1</v>
+      </c>
+      <c r="AO32">
+        <v>11.9</v>
+      </c>
+      <c r="AP32">
+        <v>3.6</v>
+      </c>
+      <c r="AQ32">
+        <v>1.6</v>
+      </c>
+      <c r="AR32">
         <v>3.7</v>
       </c>
-      <c r="AE32">
-        <v>0.328</v>
-      </c>
-      <c r="AF32">
-        <v>6.4</v>
-      </c>
-      <c r="AG32">
-        <v>12.1</v>
-      </c>
-      <c r="AH32">
-        <v>0.532</v>
-      </c>
-      <c r="AI32">
-        <v>0.523</v>
-      </c>
-      <c r="AJ32">
-        <v>2.8</v>
-      </c>
-      <c r="AK32">
-        <v>3.8</v>
-      </c>
-      <c r="AL32">
-        <v>0.748</v>
-      </c>
-      <c r="AM32">
-        <v>1.3</v>
-      </c>
-      <c r="AN32">
-        <v>2.9</v>
-      </c>
-      <c r="AO32">
-        <v>4.2</v>
-      </c>
-      <c r="AP32">
-        <v>7.5</v>
-      </c>
-      <c r="AQ32">
-        <v>2.9</v>
-      </c>
-      <c r="AR32">
-        <v>0.2</v>
-      </c>
       <c r="AS32">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU32">
-        <v>19.3</v>
+        <v>27.3</v>
       </c>
       <c r="AV32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AW32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AX32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY32">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="33" spans="1:51">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F33">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G33">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="H33">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I33">
-        <v>0.429</v>
+        <v>0.745</v>
       </c>
       <c r="J33" t="s">
         <v>138</v>
       </c>
       <c r="K33">
-        <v>14209</v>
+        <v>13326</v>
       </c>
       <c r="L33">
-        <v>2648</v>
+        <v>2176</v>
       </c>
       <c r="M33" t="s">
-        <v>168</v>
-      </c>
-      <c r="N33">
-        <v>14209</v>
-      </c>
-      <c r="O33" t="s">
-        <v>80</v>
+        <v>170</v>
+      </c>
+      <c r="N33" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33">
+        <v>2035</v>
       </c>
       <c r="P33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q33">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="R33" t="s">
         <v>182</v>
       </c>
       <c r="S33">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U33" t="s">
         <v>187</v>
       </c>
       <c r="V33" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="W33">
         <v>82</v>
@@ -5984,481 +5981,481 @@
         <v>82</v>
       </c>
       <c r="Y33">
-        <v>37.8</v>
+        <v>39.5</v>
       </c>
       <c r="Z33">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="AA33">
-        <v>7.7</v>
+        <v>19.5</v>
       </c>
       <c r="AB33">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="AC33">
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="AG33">
-        <v>7.7</v>
+        <v>19.5</v>
       </c>
       <c r="AH33">
-        <v>0.556</v>
+        <v>0.532</v>
       </c>
       <c r="AI33">
-        <v>0.556</v>
+        <v>0.529</v>
       </c>
       <c r="AJ33">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="AK33">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="AL33">
-        <v>0.654</v>
+        <v>0.779</v>
       </c>
       <c r="AM33">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AN33">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AO33">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP33">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR33">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AS33">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="AT33">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AU33">
-        <v>11.5</v>
+        <v>26.1</v>
       </c>
       <c r="AV33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AW33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX33" t="s">
         <v>189</v>
       </c>
-      <c r="AX33" t="s">
-        <v>190</v>
-      </c>
       <c r="AY33">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="34" spans="1:51">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F34">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I34">
-        <v>0.228</v>
+        <v>0.479</v>
       </c>
       <c r="J34" t="s">
         <v>138</v>
       </c>
       <c r="K34">
-        <v>13792</v>
+        <v>12802</v>
       </c>
       <c r="L34">
-        <v>2176</v>
+        <v>2494</v>
       </c>
       <c r="M34" t="s">
-        <v>169</v>
-      </c>
-      <c r="N34">
-        <v>13792</v>
-      </c>
-      <c r="O34" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+      <c r="N34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O34">
+        <v>1239</v>
       </c>
       <c r="P34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q34">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="R34" t="s">
         <v>182</v>
       </c>
       <c r="S34">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U34" t="s">
         <v>187</v>
       </c>
       <c r="V34" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W34">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="X34">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="Y34">
-        <v>41</v>
+        <v>37.7</v>
       </c>
       <c r="Z34">
-        <v>11.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AA34">
-        <v>21.2</v>
+        <v>15.8</v>
       </c>
       <c r="AB34">
-        <v>0.528</v>
+        <v>0.551</v>
       </c>
       <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <v>0.1</v>
       </c>
-      <c r="AD34">
-        <v>0.2</v>
-      </c>
       <c r="AE34">
-        <v>0.421</v>
+        <v>0.125</v>
       </c>
       <c r="AF34">
-        <v>11.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG34">
-        <v>20.9</v>
+        <v>15.7</v>
       </c>
       <c r="AH34">
-        <v>0.529</v>
+        <v>0.554</v>
       </c>
       <c r="AI34">
-        <v>0.53</v>
+        <v>0.552</v>
       </c>
       <c r="AJ34">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="AK34">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AL34">
-        <v>0.716</v>
+        <v>0.701</v>
       </c>
       <c r="AM34">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AN34">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="AO34">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="AP34">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AR34">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AS34">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="AT34">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AU34">
-        <v>27.3</v>
+        <v>23.2</v>
       </c>
       <c r="AV34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AW34" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX34" t="s">
         <v>189</v>
       </c>
-      <c r="AX34" t="s">
-        <v>190</v>
-      </c>
       <c r="AY34">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="35" spans="1:51">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F35">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G35">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H35">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I35">
-        <v>0.745</v>
+        <v>0.531</v>
       </c>
       <c r="J35" t="s">
         <v>138</v>
       </c>
       <c r="K35">
-        <v>13326</v>
+        <v>12366</v>
       </c>
       <c r="L35">
-        <v>2176</v>
+        <v>2301</v>
       </c>
       <c r="M35" t="s">
-        <v>170</v>
-      </c>
-      <c r="N35">
-        <v>13326</v>
-      </c>
-      <c r="O35" t="s">
-        <v>82</v>
+        <v>172</v>
+      </c>
+      <c r="N35" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35">
+        <v>1310</v>
       </c>
       <c r="P35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q35">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="R35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U35" t="s">
         <v>187</v>
       </c>
       <c r="V35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="W35">
         <v>82</v>
       </c>
       <c r="X35">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y35">
-        <v>39.5</v>
+        <v>33.5</v>
       </c>
       <c r="Z35">
-        <v>10.3</v>
+        <v>3.4</v>
       </c>
       <c r="AA35">
-        <v>19.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB35">
-        <v>0.529</v>
+        <v>0.493</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD35">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF35">
-        <v>10.3</v>
+        <v>3.3</v>
       </c>
       <c r="AG35">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH35">
-        <v>0.532</v>
+        <v>0.509</v>
       </c>
       <c r="AI35">
-        <v>0.529</v>
+        <v>0.498</v>
       </c>
       <c r="AJ35">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="AK35">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="AL35">
-        <v>0.779</v>
+        <v>0.631</v>
       </c>
       <c r="AM35">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="AN35">
-        <v>9.6</v>
+        <v>8.1</v>
       </c>
       <c r="AO35">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP35">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="AS35">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT35">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AU35">
-        <v>26.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AW35" t="s">
         <v>189</v>
       </c>
       <c r="AX35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY35">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="36" spans="1:51">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F36">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G36">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H36">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I36">
-        <v>0.479</v>
+        <v>0.533</v>
       </c>
       <c r="J36" t="s">
         <v>138</v>
       </c>
       <c r="K36">
-        <v>12802</v>
+        <v>11899</v>
       </c>
       <c r="L36">
-        <v>2494</v>
+        <v>2301</v>
       </c>
       <c r="M36" t="s">
-        <v>171</v>
-      </c>
-      <c r="N36">
-        <v>12802</v>
-      </c>
-      <c r="O36" t="s">
-        <v>83</v>
+        <v>173</v>
+      </c>
+      <c r="N36" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36">
+        <v>1310</v>
       </c>
       <c r="P36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q36">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="R36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S36">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U36" t="s">
         <v>187</v>
       </c>
       <c r="V36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="W36">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="X36">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="Y36">
-        <v>37.7</v>
+        <v>29</v>
       </c>
       <c r="Z36">
-        <v>8.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="AA36">
-        <v>15.8</v>
+        <v>6</v>
       </c>
       <c r="AB36">
-        <v>0.551</v>
+        <v>0.581</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -6467,281 +6464,281 @@
         <v>0.1</v>
       </c>
       <c r="AE36">
-        <v>0.125</v>
+        <v>0.111</v>
       </c>
       <c r="AF36">
-        <v>8.699999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="AG36">
-        <v>15.7</v>
+        <v>5.9</v>
       </c>
       <c r="AH36">
-        <v>0.554</v>
+        <v>0.589</v>
       </c>
       <c r="AI36">
-        <v>0.552</v>
+        <v>0.582</v>
       </c>
       <c r="AJ36">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK36">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AL36">
-        <v>0.701</v>
+        <v>0.654</v>
       </c>
       <c r="AM36">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AN36">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO36">
-        <v>12.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AP36">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="AQ36">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="AR36">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="AS36">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="AT36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU36">
-        <v>23.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AW36" t="s">
         <v>189</v>
       </c>
       <c r="AX36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY36">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="37" spans="1:51">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F37">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G37">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H37">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I37">
-        <v>0.531</v>
+        <v>0.306</v>
       </c>
       <c r="J37" t="s">
         <v>138</v>
       </c>
       <c r="K37">
-        <v>12366</v>
+        <v>11635</v>
       </c>
       <c r="L37">
-        <v>2301</v>
+        <v>2081</v>
       </c>
       <c r="M37" t="s">
-        <v>172</v>
-      </c>
-      <c r="N37">
-        <v>12366</v>
-      </c>
-      <c r="O37" t="s">
-        <v>84</v>
+        <v>174</v>
+      </c>
+      <c r="N37" t="s">
+        <v>86</v>
+      </c>
+      <c r="O37">
+        <v>3483</v>
       </c>
       <c r="P37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q37">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="R37" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S37">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U37" t="s">
         <v>187</v>
       </c>
       <c r="V37" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="W37">
         <v>82</v>
       </c>
       <c r="X37">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Y37">
-        <v>33.5</v>
+        <v>35.5</v>
       </c>
       <c r="Z37">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA37">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="AB37">
-        <v>0.493</v>
+        <v>0.462</v>
       </c>
       <c r="AC37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="AG37">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AH37">
-        <v>0.509</v>
+        <v>0.462</v>
       </c>
       <c r="AI37">
-        <v>0.498</v>
+        <v>0.462</v>
       </c>
       <c r="AJ37">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AK37">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AL37">
-        <v>0.631</v>
+        <v>0.66</v>
       </c>
       <c r="AM37">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="AN37">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="AO37">
-        <v>12.5</v>
+        <v>10.3</v>
       </c>
       <c r="AP37">
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="AS37">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AT37">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU37">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AV37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AW37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY37">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="38" spans="1:51">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F38">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G38">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I38">
-        <v>0.533</v>
+        <v>0.463</v>
       </c>
       <c r="J38" t="s">
         <v>138</v>
       </c>
       <c r="K38">
-        <v>11899</v>
+        <v>11208</v>
       </c>
       <c r="L38">
-        <v>2301</v>
+        <v>2193</v>
       </c>
       <c r="M38" t="s">
-        <v>173</v>
-      </c>
-      <c r="N38">
-        <v>11899</v>
-      </c>
-      <c r="O38" t="s">
-        <v>85</v>
+        <v>175</v>
+      </c>
+      <c r="N38" t="s">
+        <v>87</v>
+      </c>
+      <c r="O38">
+        <v>3643</v>
       </c>
       <c r="P38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q38">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="R38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S38">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T38">
         <v>4</v>
@@ -6750,317 +6747,317 @@
         <v>187</v>
       </c>
       <c r="V38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="W38">
         <v>82</v>
       </c>
       <c r="X38">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="Y38">
-        <v>29</v>
+        <v>40.4</v>
       </c>
       <c r="Z38">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="AA38">
-        <v>6</v>
+        <v>24.4</v>
       </c>
       <c r="AB38">
-        <v>0.581</v>
+        <v>0.535</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD38">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="AE38">
-        <v>0.111</v>
+        <v>0.132</v>
       </c>
       <c r="AF38">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="AG38">
+        <v>23.7</v>
+      </c>
+      <c r="AH38">
+        <v>0.546</v>
+      </c>
+      <c r="AI38">
+        <v>0.537</v>
+      </c>
+      <c r="AJ38">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK38">
+        <v>10.5</v>
+      </c>
+      <c r="AL38">
+        <v>0.841</v>
+      </c>
+      <c r="AM38">
+        <v>1.7</v>
+      </c>
+      <c r="AN38">
+        <v>3.8</v>
+      </c>
+      <c r="AO38">
+        <v>5.5</v>
+      </c>
+      <c r="AP38">
         <v>5.9</v>
       </c>
-      <c r="AH38">
-        <v>0.589</v>
-      </c>
-      <c r="AI38">
-        <v>0.582</v>
-      </c>
-      <c r="AJ38">
-        <v>1.7</v>
-      </c>
-      <c r="AK38">
-        <v>2.6</v>
-      </c>
-      <c r="AL38">
-        <v>0.654</v>
-      </c>
-      <c r="AM38">
-        <v>4.1</v>
-      </c>
-      <c r="AN38">
-        <v>5.6</v>
-      </c>
-      <c r="AO38">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AP38">
-        <v>0.9</v>
-      </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="AR38">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="AS38">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="AT38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AU38">
-        <v>8.800000000000001</v>
+        <v>35</v>
       </c>
       <c r="AV38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AW38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY38">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="39" spans="1:51">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H39">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I39">
-        <v>0.306</v>
+        <v>0.321</v>
       </c>
       <c r="J39" t="s">
         <v>138</v>
       </c>
       <c r="K39">
-        <v>11635</v>
+        <v>10811</v>
       </c>
       <c r="L39">
-        <v>2081</v>
+        <v>1823</v>
       </c>
       <c r="M39" t="s">
-        <v>174</v>
-      </c>
-      <c r="N39">
-        <v>11635</v>
-      </c>
-      <c r="O39" t="s">
-        <v>86</v>
+        <v>176</v>
+      </c>
+      <c r="N39" t="s">
+        <v>88</v>
+      </c>
+      <c r="O39">
+        <v>3632</v>
       </c>
       <c r="P39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q39">
         <v>1956</v>
       </c>
       <c r="R39" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="S39">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U39" t="s">
         <v>187</v>
       </c>
       <c r="V39" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W39">
         <v>82</v>
       </c>
       <c r="X39">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="Y39">
-        <v>35.5</v>
+        <v>27.5</v>
       </c>
       <c r="Z39">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="AA39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB39">
-        <v>0.462</v>
+        <v>0.438</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>0.385</v>
       </c>
       <c r="AF39">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AG39">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AH39">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="AI39">
-        <v>0.462</v>
+        <v>0.498</v>
       </c>
       <c r="AJ39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AK39">
+        <v>1.8</v>
+      </c>
+      <c r="AL39">
+        <v>0.851</v>
+      </c>
+      <c r="AM39">
+        <v>0.7</v>
+      </c>
+      <c r="AN39">
         <v>2.4</v>
       </c>
-      <c r="AL39">
-        <v>0.66</v>
-      </c>
-      <c r="AM39">
-        <v>2.8</v>
-      </c>
-      <c r="AN39">
-        <v>7.5</v>
-      </c>
       <c r="AO39">
-        <v>10.3</v>
+        <v>3.1</v>
       </c>
       <c r="AP39">
+        <v>4.5</v>
+      </c>
+      <c r="AQ39">
         <v>1</v>
       </c>
-      <c r="AQ39">
+      <c r="AR39">
         <v>0.5</v>
       </c>
-      <c r="AR39">
-        <v>3.8</v>
-      </c>
       <c r="AS39">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU39">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="AV39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AW39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY39">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="40" spans="1:51">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G40">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H40">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I40">
-        <v>0.463</v>
+        <v>0.346</v>
       </c>
       <c r="J40" t="s">
         <v>138</v>
       </c>
       <c r="K40">
-        <v>11208</v>
+        <v>10190</v>
       </c>
       <c r="L40">
-        <v>2193</v>
+        <v>2158</v>
       </c>
       <c r="M40" t="s">
-        <v>175</v>
-      </c>
-      <c r="N40">
-        <v>11208</v>
-      </c>
-      <c r="O40" t="s">
-        <v>87</v>
+        <v>177</v>
+      </c>
+      <c r="N40" t="s">
+        <v>89</v>
+      </c>
+      <c r="O40">
+        <v>148</v>
       </c>
       <c r="P40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q40">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="R40" t="s">
         <v>186</v>
       </c>
       <c r="S40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U40" t="s">
         <v>187</v>
       </c>
       <c r="V40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W40">
         <v>82</v>
@@ -7069,859 +7066,549 @@
         <v>82</v>
       </c>
       <c r="Y40">
-        <v>40.4</v>
+        <v>35.1</v>
       </c>
       <c r="Z40">
-        <v>13</v>
+        <v>6.9</v>
       </c>
       <c r="AA40">
-        <v>24.4</v>
+        <v>13.3</v>
       </c>
       <c r="AB40">
-        <v>0.535</v>
+        <v>0.514</v>
       </c>
       <c r="AC40">
         <v>0.1</v>
       </c>
       <c r="AD40">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AE40">
-        <v>0.132</v>
+        <v>0.276</v>
       </c>
       <c r="AF40">
+        <v>6.8</v>
+      </c>
+      <c r="AG40">
         <v>13</v>
       </c>
-      <c r="AG40">
-        <v>23.7</v>
-      </c>
       <c r="AH40">
-        <v>0.546</v>
+        <v>0.521</v>
       </c>
       <c r="AI40">
-        <v>0.537</v>
+        <v>0.518</v>
       </c>
       <c r="AJ40">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AK40">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="AL40">
-        <v>0.841</v>
+        <v>0.795</v>
       </c>
       <c r="AM40">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AN40">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AO40">
+        <v>6.3</v>
+      </c>
+      <c r="AP40">
         <v>5.5</v>
       </c>
-      <c r="AP40">
-        <v>5.9</v>
-      </c>
       <c r="AQ40">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="AR40">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AS40">
         <v>3.1</v>
       </c>
       <c r="AT40">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AU40">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AV40" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AW40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY40">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="41" spans="1:51">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G41">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>78</v>
       </c>
       <c r="I41">
-        <v>0.321</v>
+        <v>0.41</v>
       </c>
       <c r="J41" t="s">
         <v>138</v>
       </c>
       <c r="K41">
-        <v>10811</v>
+        <v>10042</v>
       </c>
       <c r="L41">
-        <v>1823</v>
+        <v>2081</v>
       </c>
       <c r="M41" t="s">
-        <v>176</v>
-      </c>
-      <c r="N41">
-        <v>10811</v>
-      </c>
-      <c r="O41" t="s">
-        <v>88</v>
+        <v>178</v>
+      </c>
+      <c r="N41" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41">
+        <v>3483</v>
       </c>
       <c r="P41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q41">
         <v>1956</v>
       </c>
       <c r="R41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S41">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T41">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U41" t="s">
         <v>187</v>
       </c>
       <c r="V41" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="W41">
         <v>82</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="Y41">
-        <v>27.5</v>
+        <v>34.3</v>
       </c>
       <c r="Z41">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AA41">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.438</v>
+        <v>0.449</v>
       </c>
       <c r="AC41">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AG41">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH41">
-        <v>0.461</v>
+        <v>0.449</v>
       </c>
       <c r="AI41">
-        <v>0.498</v>
+        <v>0.449</v>
       </c>
       <c r="AJ41">
+        <v>2.3</v>
+      </c>
+      <c r="AK41">
+        <v>3.3</v>
+      </c>
+      <c r="AL41">
+        <v>0.712</v>
+      </c>
+      <c r="AM41">
+        <v>2.5</v>
+      </c>
+      <c r="AN41">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO41">
+        <v>11.3</v>
+      </c>
+      <c r="AP41">
         <v>1.5</v>
       </c>
-      <c r="AK41">
-        <v>1.8</v>
-      </c>
-      <c r="AL41">
-        <v>0.851</v>
-      </c>
-      <c r="AM41">
-        <v>0.7</v>
-      </c>
-      <c r="AN41">
-        <v>2.4</v>
-      </c>
-      <c r="AO41">
-        <v>3.1</v>
-      </c>
-      <c r="AP41">
-        <v>4.5</v>
-      </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AR41">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="AS41">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AT41">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AU41">
-        <v>10.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AV41" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AW41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY41">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="42" spans="1:51">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F42">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G42">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H42">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I42">
-        <v>0.346</v>
+        <v>0.25</v>
       </c>
       <c r="J42" t="s">
         <v>138</v>
       </c>
       <c r="K42">
-        <v>10190</v>
+        <v>9782</v>
       </c>
       <c r="L42">
-        <v>2158</v>
+        <v>1889</v>
       </c>
       <c r="M42" t="s">
-        <v>177</v>
-      </c>
-      <c r="N42">
-        <v>10190</v>
-      </c>
-      <c r="O42" t="s">
-        <v>89</v>
+        <v>179</v>
+      </c>
+      <c r="N42" t="s">
+        <v>91</v>
+      </c>
+      <c r="O42">
+        <v>4605</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q42">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="R42" t="s">
         <v>186</v>
       </c>
       <c r="S42">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U42" t="s">
         <v>187</v>
       </c>
       <c r="V42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W42">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X42">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y42">
-        <v>35.1</v>
+        <v>38.9</v>
       </c>
       <c r="Z42">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA42">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="AB42">
-        <v>0.514</v>
+        <v>0.498</v>
       </c>
       <c r="AC42">
         <v>0.1</v>
       </c>
       <c r="AD42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AE42">
-        <v>0.276</v>
+        <v>0.278</v>
       </c>
       <c r="AF42">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH42">
-        <v>0.521</v>
+        <v>0.501</v>
       </c>
       <c r="AI42">
-        <v>0.518</v>
+        <v>0.5</v>
       </c>
       <c r="AJ42">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="AK42">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="AL42">
-        <v>0.795</v>
+        <v>0.848</v>
       </c>
       <c r="AM42">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AN42">
         <v>4</v>
       </c>
       <c r="AO42">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AP42">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AQ42">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AS42">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AT42">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="AU42">
-        <v>17</v>
+        <v>20.9</v>
       </c>
       <c r="AV42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AW42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY42">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="43" spans="1:51">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G43">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I43">
-        <v>0.41</v>
+        <v>0.187</v>
       </c>
       <c r="J43" t="s">
         <v>138</v>
       </c>
       <c r="K43">
-        <v>10042</v>
+        <v>9435</v>
       </c>
       <c r="L43">
-        <v>2081</v>
+        <v>1889</v>
       </c>
       <c r="M43" t="s">
-        <v>178</v>
-      </c>
-      <c r="N43">
-        <v>10042</v>
-      </c>
-      <c r="O43" t="s">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="N43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O43">
+        <v>4605</v>
       </c>
       <c r="P43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q43">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="R43" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="S43">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U43" t="s">
         <v>187</v>
       </c>
       <c r="V43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W43">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X43">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Y43">
-        <v>34.3</v>
+        <v>35.7</v>
       </c>
       <c r="Z43">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="AA43">
-        <v>8.199999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="AB43">
-        <v>0.449</v>
+        <v>0.524</v>
       </c>
       <c r="AC43">
         <v>0</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AF43">
-        <v>3.7</v>
+        <v>8</v>
       </c>
       <c r="AG43">
-        <v>8.199999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="AH43">
-        <v>0.449</v>
+        <v>0.528</v>
       </c>
       <c r="AI43">
-        <v>0.449</v>
+        <v>0.525</v>
       </c>
       <c r="AJ43">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="AK43">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="AL43">
-        <v>0.712</v>
+        <v>0.826</v>
       </c>
       <c r="AM43">
         <v>2.5</v>
       </c>
       <c r="AN43">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AO43">
-        <v>11.3</v>
+        <v>5.8</v>
       </c>
       <c r="AP43">
+        <v>3.9</v>
+      </c>
+      <c r="AQ43">
         <v>1.5</v>
       </c>
-      <c r="AQ43">
-        <v>0.4</v>
-      </c>
       <c r="AR43">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
       <c r="AS43">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT43">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="AU43">
-        <v>9.699999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="AV43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AW43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AX43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AY43">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="44" spans="1:51">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44">
-        <v>19</v>
-      </c>
-      <c r="G44">
-        <v>19</v>
-      </c>
-      <c r="H44">
-        <v>76</v>
-      </c>
-      <c r="I44">
-        <v>0.25</v>
-      </c>
-      <c r="J44" t="s">
-        <v>138</v>
-      </c>
-      <c r="K44">
-        <v>9782</v>
-      </c>
-      <c r="L44">
-        <v>1889</v>
-      </c>
-      <c r="M44" t="s">
-        <v>179</v>
-      </c>
-      <c r="N44">
-        <v>9782</v>
-      </c>
-      <c r="O44" t="s">
-        <v>91</v>
-      </c>
-      <c r="P44" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q44">
-        <v>1957</v>
-      </c>
-      <c r="R44" t="s">
-        <v>186</v>
-      </c>
-      <c r="S44">
-        <v>27</v>
-      </c>
-      <c r="T44">
-        <v>5</v>
-      </c>
-      <c r="U44" t="s">
-        <v>187</v>
-      </c>
-      <c r="V44" t="s">
-        <v>123</v>
-      </c>
-      <c r="W44">
-        <v>79</v>
-      </c>
-      <c r="X44">
-        <v>79</v>
-      </c>
-      <c r="Y44">
-        <v>38.9</v>
-      </c>
-      <c r="Z44">
-        <v>7.1</v>
-      </c>
-      <c r="AA44">
-        <v>14.2</v>
-      </c>
-      <c r="AB44">
-        <v>0.498</v>
-      </c>
-      <c r="AC44">
-        <v>0.1</v>
-      </c>
-      <c r="AD44">
-        <v>0.2</v>
-      </c>
-      <c r="AE44">
-        <v>0.278</v>
-      </c>
-      <c r="AF44">
-        <v>7</v>
-      </c>
-      <c r="AG44">
-        <v>14</v>
-      </c>
-      <c r="AH44">
-        <v>0.501</v>
-      </c>
-      <c r="AI44">
-        <v>0.5</v>
-      </c>
-      <c r="AJ44">
-        <v>6.7</v>
-      </c>
-      <c r="AK44">
-        <v>7.9</v>
-      </c>
-      <c r="AL44">
-        <v>0.848</v>
-      </c>
-      <c r="AM44">
-        <v>2.7</v>
-      </c>
-      <c r="AN44">
-        <v>4</v>
-      </c>
-      <c r="AO44">
-        <v>6.7</v>
-      </c>
-      <c r="AP44">
-        <v>4.5</v>
-      </c>
-      <c r="AQ44">
-        <v>1.4</v>
-      </c>
-      <c r="AR44">
-        <v>0.3</v>
-      </c>
-      <c r="AS44">
-        <v>2.7</v>
-      </c>
-      <c r="AT44">
-        <v>2.6</v>
-      </c>
-      <c r="AU44">
-        <v>20.9</v>
-      </c>
-      <c r="AV44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW44" t="s">
-        <v>190</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY44">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="45" spans="1:51">
-      <c r="A45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>14</v>
-      </c>
-      <c r="H45">
-        <v>75</v>
-      </c>
-      <c r="I45">
-        <v>0.187</v>
-      </c>
-      <c r="J45" t="s">
-        <v>138</v>
-      </c>
-      <c r="K45">
-        <v>9435</v>
-      </c>
-      <c r="L45">
-        <v>1889</v>
-      </c>
-      <c r="M45" t="s">
-        <v>180</v>
-      </c>
-      <c r="N45">
-        <v>9435</v>
-      </c>
-      <c r="O45" t="s">
-        <v>92</v>
-      </c>
-      <c r="P45" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q45">
-        <v>1957</v>
-      </c>
-      <c r="R45" t="s">
-        <v>186</v>
-      </c>
-      <c r="S45">
-        <v>26</v>
-      </c>
-      <c r="T45">
-        <v>4</v>
-      </c>
-      <c r="U45" t="s">
-        <v>187</v>
-      </c>
-      <c r="V45" t="s">
-        <v>123</v>
-      </c>
-      <c r="W45">
-        <v>76</v>
-      </c>
-      <c r="X45">
-        <v>76</v>
-      </c>
-      <c r="Y45">
-        <v>35.7</v>
-      </c>
-      <c r="Z45">
-        <v>8</v>
-      </c>
-      <c r="AA45">
-        <v>15.2</v>
-      </c>
-      <c r="AB45">
-        <v>0.524</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0.1</v>
-      </c>
-      <c r="AE45">
-        <v>0.1</v>
-      </c>
-      <c r="AF45">
-        <v>8</v>
-      </c>
-      <c r="AG45">
-        <v>15.1</v>
-      </c>
-      <c r="AH45">
-        <v>0.528</v>
-      </c>
-      <c r="AI45">
-        <v>0.525</v>
-      </c>
-      <c r="AJ45">
-        <v>6.6</v>
-      </c>
-      <c r="AK45">
-        <v>7.9</v>
-      </c>
-      <c r="AL45">
-        <v>0.826</v>
-      </c>
-      <c r="AM45">
-        <v>2.5</v>
-      </c>
-      <c r="AN45">
-        <v>3.2</v>
-      </c>
-      <c r="AO45">
-        <v>5.8</v>
-      </c>
-      <c r="AP45">
-        <v>3.9</v>
-      </c>
-      <c r="AQ45">
-        <v>1.5</v>
-      </c>
-      <c r="AR45">
-        <v>0.3</v>
-      </c>
-      <c r="AS45">
-        <v>2.6</v>
-      </c>
-      <c r="AT45">
-        <v>2.4</v>
-      </c>
-      <c r="AU45">
-        <v>22.5</v>
-      </c>
-      <c r="AV45" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>190</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY45">
         <v>1983</v>
       </c>
     </row>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -1146,7 +1146,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>4437</v>
+        <v>4444</v>
       </c>
       <c r="P2" t="s">
         <v>94</v>
@@ -1301,7 +1301,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="P3" t="s">
         <v>95</v>
@@ -1456,7 +1456,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>3459</v>
+        <v>3465</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -1611,7 +1611,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>4437</v>
+        <v>4444</v>
       </c>
       <c r="P5" t="s">
         <v>94</v>
@@ -1766,7 +1766,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="P6" t="s">
         <v>97</v>
@@ -1921,7 +1921,7 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>4437</v>
+        <v>4444</v>
       </c>
       <c r="P7" t="s">
         <v>94</v>
@@ -2076,7 +2076,7 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>4437</v>
+        <v>4444</v>
       </c>
       <c r="P8" t="s">
         <v>94</v>
@@ -2231,7 +2231,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="P9" t="s">
         <v>98</v>
@@ -2386,7 +2386,7 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="P10" t="s">
         <v>99</v>
@@ -2541,7 +2541,7 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="P11" t="s">
         <v>99</v>
@@ -2696,7 +2696,7 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>2655</v>
+        <v>2660</v>
       </c>
       <c r="P12" t="s">
         <v>100</v>
@@ -2851,7 +2851,7 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>3439</v>
+        <v>3445</v>
       </c>
       <c r="P13" t="s">
         <v>101</v>
@@ -3006,7 +3006,7 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>5034</v>
+        <v>5041</v>
       </c>
       <c r="P14" t="s">
         <v>102</v>
@@ -3161,7 +3161,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -3316,7 +3316,7 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="P16" t="s">
         <v>103</v>
@@ -3471,7 +3471,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="P17" t="s">
         <v>103</v>
@@ -3626,7 +3626,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="P18" t="s">
         <v>104</v>
@@ -3781,7 +3781,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>3447</v>
+        <v>3453</v>
       </c>
       <c r="P19" t="s">
         <v>105</v>
@@ -4246,7 +4246,7 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>3619</v>
+        <v>3625</v>
       </c>
       <c r="P22" t="s">
         <v>181</v>
@@ -4711,7 +4711,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="P25" t="s">
         <v>108</v>
@@ -5176,7 +5176,7 @@
         <v>77</v>
       </c>
       <c r="O28">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="P28" t="s">
         <v>108</v>
@@ -5331,7 +5331,7 @@
         <v>78</v>
       </c>
       <c r="O29">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="P29" t="s">
         <v>108</v>
@@ -5486,7 +5486,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="P30" t="s">
         <v>110</v>
@@ -5641,7 +5641,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="P31" t="s">
         <v>108</v>
@@ -5796,7 +5796,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="P32" t="s">
         <v>111</v>
@@ -5951,7 +5951,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>2035</v>
+        <v>2039</v>
       </c>
       <c r="P33" t="s">
         <v>111</v>
@@ -6106,7 +6106,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="P34" t="s">
         <v>112</v>
@@ -6261,7 +6261,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="P35" t="s">
         <v>113</v>
@@ -6416,7 +6416,7 @@
         <v>85</v>
       </c>
       <c r="O36">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="P36" t="s">
         <v>113</v>
@@ -6571,7 +6571,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>3483</v>
+        <v>3489</v>
       </c>
       <c r="P37" t="s">
         <v>114</v>
@@ -6726,7 +6726,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>3643</v>
+        <v>3649</v>
       </c>
       <c r="P38" t="s">
         <v>115</v>
@@ -6881,7 +6881,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>3632</v>
+        <v>3638</v>
       </c>
       <c r="P39" t="s">
         <v>116</v>
@@ -7191,7 +7191,7 @@
         <v>90</v>
       </c>
       <c r="O41">
-        <v>3483</v>
+        <v>3489</v>
       </c>
       <c r="P41" t="s">
         <v>114</v>
@@ -7346,7 +7346,7 @@
         <v>91</v>
       </c>
       <c r="O42">
-        <v>4605</v>
+        <v>4612</v>
       </c>
       <c r="P42" t="s">
         <v>118</v>
@@ -7501,7 +7501,7 @@
         <v>92</v>
       </c>
       <c r="O43">
-        <v>4605</v>
+        <v>4612</v>
       </c>
       <c r="P43" t="s">
         <v>118</v>

--- a/dpoy_winners.xlsx
+++ b/dpoy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="198">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -559,6 +559,24 @@
     <t>1982-83</t>
   </si>
   <si>
+    <t>James Wiseman</t>
+  </si>
+  <si>
+    <t>Ryan Anderson</t>
+  </si>
+  <si>
+    <t>Salah Mejri</t>
+  </si>
+  <si>
+    <t>Dwight Powell</t>
+  </si>
+  <si>
+    <t>MarShon Brooks</t>
+  </si>
+  <si>
+    <t>Udonis Haslem</t>
+  </si>
+  <si>
     <t>Metta Sandiford-Artest</t>
   </si>
   <si>
@@ -578,6 +596,12 @@
   </si>
   <si>
     <t>NBA</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>BRK</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1155,7 +1179,7 @@
         <v>1992</v>
       </c>
       <c r="R2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S2">
         <v>32</v>
@@ -1164,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="U2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V2" t="s">
         <v>119</v>
@@ -1248,10 +1272,10 @@
         <v>139</v>
       </c>
       <c r="AW2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY2">
         <v>2024</v>
@@ -1301,112 +1325,112 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>2404</v>
+        <v>2376</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Q3">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="R3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S3">
+        <v>22</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3">
         <v>24</v>
       </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-      <c r="U3" t="s">
-        <v>187</v>
-      </c>
-      <c r="V3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W3">
-        <v>63</v>
-      </c>
       <c r="X3">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="Y3">
-        <v>28.4</v>
+        <v>25.2</v>
       </c>
       <c r="Z3">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="AA3">
-        <v>13</v>
+        <v>10.2</v>
       </c>
       <c r="AB3">
-        <v>0.506</v>
+        <v>0.531</v>
       </c>
       <c r="AC3">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="AD3">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="AE3">
-        <v>0.355</v>
+        <v>0.167</v>
       </c>
       <c r="AF3">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AG3">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AH3">
-        <v>0.585</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.5669999999999999</v>
+        <v>0.537</v>
       </c>
       <c r="AJ3">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="AK3">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="AL3">
-        <v>0.788</v>
+        <v>0.712</v>
       </c>
       <c r="AM3">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="AN3">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AO3">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AR3">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="AS3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AU3">
-        <v>18.6</v>
+        <v>12.7</v>
       </c>
       <c r="AV3" t="s">
         <v>140</v>
       </c>
       <c r="AW3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY3">
         <v>2023</v>
@@ -1456,7 +1480,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="P4" t="s">
         <v>96</v>
@@ -1465,7 +1489,7 @@
         <v>1994</v>
       </c>
       <c r="R4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="S4">
         <v>28</v>
@@ -1474,7 +1498,7 @@
         <v>8</v>
       </c>
       <c r="U4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V4" t="s">
         <v>121</v>
@@ -1558,10 +1582,10 @@
         <v>141</v>
       </c>
       <c r="AW4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY4">
         <v>2022</v>
@@ -1620,7 +1644,7 @@
         <v>1992</v>
       </c>
       <c r="R5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S5">
         <v>29</v>
@@ -1629,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="U5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V5" t="s">
         <v>122</v>
@@ -1713,10 +1737,10 @@
         <v>142</v>
       </c>
       <c r="AW5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY5">
         <v>2021</v>
@@ -1766,7 +1790,7 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="P6" t="s">
         <v>97</v>
@@ -1775,7 +1799,7 @@
         <v>1994</v>
       </c>
       <c r="R6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="S6">
         <v>26</v>
@@ -1784,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="U6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V6" t="s">
         <v>123</v>
@@ -1868,10 +1892,10 @@
         <v>143</v>
       </c>
       <c r="AW6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY6">
         <v>2020</v>
@@ -1921,112 +1945,112 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>4444</v>
+        <v>4459</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="Q7">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="R7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="S7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="W7">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="X7">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="Y7">
-        <v>31.8</v>
+        <v>12.9</v>
       </c>
       <c r="Z7">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>8.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="AB7">
-        <v>0.669</v>
+        <v>0.304</v>
       </c>
       <c r="AC7">
+        <v>0.4</v>
+      </c>
+      <c r="AD7">
+        <v>1.6</v>
+      </c>
+      <c r="AE7">
+        <v>0.225</v>
+      </c>
+      <c r="AF7">
+        <v>0.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.2</v>
+      </c>
+      <c r="AH7">
+        <v>0.414</v>
+      </c>
+      <c r="AI7">
+        <v>0.37</v>
+      </c>
+      <c r="AJ7">
+        <v>0.5</v>
+      </c>
+      <c r="AK7">
+        <v>0.6</v>
+      </c>
+      <c r="AL7">
+        <v>0.75</v>
+      </c>
+      <c r="AM7">
+        <v>0.7</v>
+      </c>
+      <c r="AN7">
+        <v>1.4</v>
+      </c>
+      <c r="AO7">
+        <v>2.2</v>
+      </c>
+      <c r="AP7">
+        <v>0.8</v>
+      </c>
+      <c r="AQ7">
+        <v>0.2</v>
+      </c>
+      <c r="AR7">
         <v>0</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>5.9</v>
-      </c>
-      <c r="AG7">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH7">
-        <v>0.669</v>
-      </c>
-      <c r="AI7">
-        <v>0.669</v>
-      </c>
-      <c r="AJ7">
-        <v>4.1</v>
-      </c>
-      <c r="AK7">
-        <v>6.4</v>
-      </c>
-      <c r="AL7">
-        <v>0.636</v>
-      </c>
-      <c r="AM7">
-        <v>3.8</v>
-      </c>
-      <c r="AN7">
-        <v>9</v>
-      </c>
-      <c r="AO7">
-        <v>12.9</v>
-      </c>
-      <c r="AP7">
-        <v>2</v>
-      </c>
-      <c r="AQ7">
-        <v>0.8</v>
-      </c>
-      <c r="AR7">
-        <v>2.3</v>
-      </c>
       <c r="AS7">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="AT7">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>15.9</v>
+        <v>2.5</v>
       </c>
       <c r="AV7" t="s">
         <v>144</v>
       </c>
       <c r="AW7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AX7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY7">
         <v>2019</v>
@@ -2076,46 +2100,46 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>4444</v>
+        <v>4475</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="Q8">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="R8" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V8" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="W8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="X8">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>32.4</v>
+        <v>12</v>
       </c>
       <c r="Z8">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="AA8">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="AB8">
-        <v>0.622</v>
+        <v>0.642</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2127,61 +2151,61 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="AG8">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="AH8">
-        <v>0.622</v>
+        <v>0.657</v>
       </c>
       <c r="AI8">
-        <v>0.622</v>
+        <v>0.642</v>
       </c>
       <c r="AJ8">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="AK8">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="AL8">
-        <v>0.6820000000000001</v>
+        <v>0.576</v>
       </c>
       <c r="AM8">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="AN8">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="AO8">
-        <v>10.7</v>
+        <v>4</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="AS8">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="AT8">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AU8">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="AV8" t="s">
         <v>145</v>
       </c>
       <c r="AW8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AX8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY8">
         <v>2018</v>
@@ -2231,112 +2255,112 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>1525</v>
+        <v>1557</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="Q9">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="R9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="S9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V9" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="W9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>32.5</v>
+        <v>17.3</v>
       </c>
       <c r="Z9">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="AA9">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="AB9">
-        <v>0.418</v>
+        <v>0.515</v>
       </c>
       <c r="AC9">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD9">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.308</v>
+        <v>0.284</v>
       </c>
       <c r="AF9">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AG9">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="AH9">
-        <v>0.494</v>
+        <v>0.571</v>
       </c>
       <c r="AI9">
-        <v>0.481</v>
+        <v>0.542</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AK9">
+        <v>1.8</v>
+      </c>
+      <c r="AL9">
+        <v>0.759</v>
+      </c>
+      <c r="AM9">
+        <v>1.2</v>
+      </c>
+      <c r="AN9">
         <v>2.8</v>
       </c>
-      <c r="AL9">
-        <v>0.709</v>
-      </c>
-      <c r="AM9">
-        <v>1.3</v>
-      </c>
-      <c r="AN9">
-        <v>6.6</v>
-      </c>
       <c r="AO9">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="AP9">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="AS9">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="AT9">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AU9">
-        <v>10.2</v>
+        <v>6.7</v>
       </c>
       <c r="AV9" t="s">
         <v>146</v>
       </c>
       <c r="AW9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY9">
         <v>2017</v>
@@ -2395,7 +2419,7 @@
         <v>1991</v>
       </c>
       <c r="R10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="S10">
         <v>25</v>
@@ -2404,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V10" t="s">
         <v>125</v>
@@ -2488,10 +2512,10 @@
         <v>147</v>
       </c>
       <c r="AW10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY10">
         <v>2016</v>
@@ -2550,7 +2574,7 @@
         <v>1991</v>
       </c>
       <c r="R11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="S11">
         <v>24</v>
@@ -2559,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V11" t="s">
         <v>125</v>
@@ -2643,10 +2667,10 @@
         <v>148</v>
       </c>
       <c r="AW11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY11">
         <v>2015</v>
@@ -2705,7 +2729,7 @@
         <v>1985</v>
       </c>
       <c r="R12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S12">
         <v>29</v>
@@ -2714,7 +2738,7 @@
         <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V12" t="s">
         <v>126</v>
@@ -2798,10 +2822,10 @@
         <v>149</v>
       </c>
       <c r="AW12" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY12">
         <v>2014</v>
@@ -2854,109 +2878,109 @@
         <v>3445</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="Q13">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="R13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="S13">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V13" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="W13">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="X13">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>35</v>
+        <v>12.5</v>
       </c>
       <c r="Z13">
+        <v>2.1</v>
+      </c>
+      <c r="AA13">
+        <v>4.6</v>
+      </c>
+      <c r="AB13">
+        <v>0.463</v>
+      </c>
+      <c r="AC13">
+        <v>0.2</v>
+      </c>
+      <c r="AD13">
+        <v>0.8</v>
+      </c>
+      <c r="AE13">
+        <v>0.273</v>
+      </c>
+      <c r="AF13">
+        <v>1.9</v>
+      </c>
+      <c r="AG13">
+        <v>3.8</v>
+      </c>
+      <c r="AH13">
+        <v>0.5</v>
+      </c>
+      <c r="AI13">
+        <v>0.485</v>
+      </c>
+      <c r="AJ13">
+        <v>0.9</v>
+      </c>
+      <c r="AK13">
+        <v>1.3</v>
+      </c>
+      <c r="AL13">
+        <v>0.734</v>
+      </c>
+      <c r="AM13">
+        <v>0.4</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>1.4</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>0.5</v>
+      </c>
+      <c r="AR13">
+        <v>0.2</v>
+      </c>
+      <c r="AS13">
+        <v>0.9</v>
+      </c>
+      <c r="AT13">
+        <v>1.3</v>
+      </c>
+      <c r="AU13">
         <v>5.4</v>
-      </c>
-      <c r="AA13">
-        <v>10.9</v>
-      </c>
-      <c r="AB13">
-        <v>0.494</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0.2</v>
-      </c>
-      <c r="AE13">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="AF13">
-        <v>5.4</v>
-      </c>
-      <c r="AG13">
-        <v>10.7</v>
-      </c>
-      <c r="AH13">
-        <v>0.501</v>
-      </c>
-      <c r="AI13">
-        <v>0.494</v>
-      </c>
-      <c r="AJ13">
-        <v>3.4</v>
-      </c>
-      <c r="AK13">
-        <v>4</v>
-      </c>
-      <c r="AL13">
-        <v>0.848</v>
-      </c>
-      <c r="AM13">
-        <v>2.3</v>
-      </c>
-      <c r="AN13">
-        <v>5.5</v>
-      </c>
-      <c r="AO13">
-        <v>7.8</v>
-      </c>
-      <c r="AP13">
-        <v>4</v>
-      </c>
-      <c r="AQ13">
-        <v>1</v>
-      </c>
-      <c r="AR13">
-        <v>1.7</v>
-      </c>
-      <c r="AS13">
-        <v>2</v>
-      </c>
-      <c r="AT13">
-        <v>3.2</v>
-      </c>
-      <c r="AU13">
-        <v>14.1</v>
       </c>
       <c r="AV13" t="s">
         <v>150</v>
       </c>
       <c r="AW13" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX13" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY13">
         <v>2013</v>
@@ -3006,46 +3030,46 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>5041</v>
+        <v>5044</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="Q14">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="R14" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="S14">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="W14">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X14">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="Y14">
-        <v>33.2</v>
+        <v>24.8</v>
       </c>
       <c r="Z14">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="AA14">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB14">
-        <v>0.679</v>
+        <v>0.423</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -3057,61 +3081,61 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="AG14">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AH14">
-        <v>0.6830000000000001</v>
+        <v>0.423</v>
       </c>
       <c r="AI14">
-        <v>0.679</v>
+        <v>0.423</v>
       </c>
       <c r="AJ14">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="AK14">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="AL14">
-        <v>0.6889999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="AM14">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="AN14">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO14">
-        <v>9.9</v>
+        <v>7.3</v>
       </c>
       <c r="AP14">
+        <v>0.7</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+      <c r="AR14">
+        <v>0.4</v>
+      </c>
+      <c r="AS14">
         <v>0.9</v>
       </c>
-      <c r="AQ14">
-        <v>0.9</v>
-      </c>
-      <c r="AR14">
-        <v>1.4</v>
-      </c>
-      <c r="AS14">
-        <v>1.6</v>
-      </c>
       <c r="AT14">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AU14">
-        <v>11.3</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="s">
         <v>151</v>
       </c>
       <c r="AW14" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX14" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY14">
         <v>2012</v>
@@ -3161,7 +3185,7 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="P15" t="s">
         <v>103</v>
@@ -3170,7 +3194,7 @@
         <v>1985</v>
       </c>
       <c r="R15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S15">
         <v>26</v>
@@ -3179,7 +3203,7 @@
         <v>7</v>
       </c>
       <c r="U15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V15" t="s">
         <v>128</v>
@@ -3263,10 +3287,10 @@
         <v>152</v>
       </c>
       <c r="AW15" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX15" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY15">
         <v>2011</v>
@@ -3316,7 +3340,7 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="P16" t="s">
         <v>103</v>
@@ -3325,7 +3349,7 @@
         <v>1985</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S16">
         <v>25</v>
@@ -3334,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="U16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V16" t="s">
         <v>128</v>
@@ -3418,10 +3442,10 @@
         <v>153</v>
       </c>
       <c r="AW16" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX16" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY16">
         <v>2010</v>
@@ -3471,7 +3495,7 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="P17" t="s">
         <v>103</v>
@@ -3480,7 +3504,7 @@
         <v>1985</v>
       </c>
       <c r="R17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S17">
         <v>24</v>
@@ -3489,7 +3513,7 @@
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V17" t="s">
         <v>128</v>
@@ -3573,10 +3597,10 @@
         <v>154</v>
       </c>
       <c r="AW17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY17">
         <v>2009</v>
@@ -3626,7 +3650,7 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="P18" t="s">
         <v>104</v>
@@ -3635,7 +3659,7 @@
         <v>1976</v>
       </c>
       <c r="R18" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="S18">
         <v>32</v>
@@ -3644,7 +3668,7 @@
         <v>13</v>
       </c>
       <c r="U18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V18" t="s">
         <v>121</v>
@@ -3728,10 +3752,10 @@
         <v>155</v>
       </c>
       <c r="AW18" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX18" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY18">
         <v>2008</v>
@@ -3781,7 +3805,7 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="P19" t="s">
         <v>105</v>
@@ -3790,7 +3814,7 @@
         <v>1974</v>
       </c>
       <c r="R19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S19">
         <v>33</v>
@@ -3799,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="U19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V19" t="s">
         <v>129</v>
@@ -3883,10 +3907,10 @@
         <v>156</v>
       </c>
       <c r="AW19" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX19" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY19">
         <v>2007</v>
@@ -3936,7 +3960,7 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P20" t="s">
         <v>106</v>
@@ -3945,7 +3969,7 @@
         <v>1974</v>
       </c>
       <c r="R20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S20">
         <v>32</v>
@@ -3954,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="U20" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V20" t="s">
         <v>130</v>
@@ -4038,10 +4062,10 @@
         <v>157</v>
       </c>
       <c r="AW20" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX20" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY20">
         <v>2006</v>
@@ -4091,7 +4115,7 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P21" t="s">
         <v>106</v>
@@ -4100,7 +4124,7 @@
         <v>1974</v>
       </c>
       <c r="R21" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S21">
         <v>31</v>
@@ -4109,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="U21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V21" t="s">
         <v>130</v>
@@ -4193,10 +4217,10 @@
         <v>158</v>
       </c>
       <c r="AW21" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX21" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY21">
         <v>2005</v>
@@ -4246,16 +4270,16 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>1979</v>
       </c>
       <c r="R22" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="S22">
         <v>25</v>
@@ -4264,7 +4288,7 @@
         <v>5</v>
       </c>
       <c r="U22" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V22" t="s">
         <v>131</v>
@@ -4348,10 +4372,10 @@
         <v>159</v>
       </c>
       <c r="AW22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX22" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY22">
         <v>2004</v>
@@ -4401,7 +4425,7 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P23" t="s">
         <v>106</v>
@@ -4410,7 +4434,7 @@
         <v>1974</v>
       </c>
       <c r="R23" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S23">
         <v>29</v>
@@ -4419,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="U23" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V23" t="s">
         <v>130</v>
@@ -4503,10 +4527,10 @@
         <v>160</v>
       </c>
       <c r="AW23" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX23" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY23">
         <v>2003</v>
@@ -4556,7 +4580,7 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P24" t="s">
         <v>106</v>
@@ -4565,7 +4589,7 @@
         <v>1974</v>
       </c>
       <c r="R24" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S24">
         <v>28</v>
@@ -4574,7 +4598,7 @@
         <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V24" t="s">
         <v>130</v>
@@ -4658,10 +4682,10 @@
         <v>161</v>
       </c>
       <c r="AW24" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX24" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY24">
         <v>2002</v>
@@ -4711,7 +4735,7 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P25" t="s">
         <v>108</v>
@@ -4720,7 +4744,7 @@
         <v>1966</v>
       </c>
       <c r="R25" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S25">
         <v>35</v>
@@ -4729,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V25" t="s">
         <v>132</v>
@@ -4813,10 +4837,10 @@
         <v>162</v>
       </c>
       <c r="AW25" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX25" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY25">
         <v>2001</v>
@@ -4866,7 +4890,7 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P26" t="s">
         <v>109</v>
@@ -4875,7 +4899,7 @@
         <v>1970</v>
       </c>
       <c r="R26" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S26">
         <v>30</v>
@@ -4884,7 +4908,7 @@
         <v>8</v>
       </c>
       <c r="U26" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V26" t="s">
         <v>133</v>
@@ -4968,10 +4992,10 @@
         <v>163</v>
       </c>
       <c r="AW26" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX26" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY26">
         <v>2000</v>
@@ -5021,7 +5045,7 @@
         <v>76</v>
       </c>
       <c r="O27">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P27" t="s">
         <v>109</v>
@@ -5030,7 +5054,7 @@
         <v>1970</v>
       </c>
       <c r="R27" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S27">
         <v>29</v>
@@ -5039,7 +5063,7 @@
         <v>7</v>
       </c>
       <c r="U27" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V27" t="s">
         <v>133</v>
@@ -5123,10 +5147,10 @@
         <v>164</v>
       </c>
       <c r="AW27" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX27" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY27">
         <v>1999</v>
@@ -5176,7 +5200,7 @@
         <v>77</v>
       </c>
       <c r="O28">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P28" t="s">
         <v>108</v>
@@ -5185,7 +5209,7 @@
         <v>1966</v>
       </c>
       <c r="R28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S28">
         <v>32</v>
@@ -5194,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="U28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V28" t="s">
         <v>134</v>
@@ -5278,10 +5302,10 @@
         <v>165</v>
       </c>
       <c r="AW28" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX28" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY28">
         <v>1998</v>
@@ -5331,7 +5355,7 @@
         <v>78</v>
       </c>
       <c r="O29">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P29" t="s">
         <v>108</v>
@@ -5340,7 +5364,7 @@
         <v>1966</v>
       </c>
       <c r="R29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S29">
         <v>31</v>
@@ -5349,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="U29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V29" t="s">
         <v>134</v>
@@ -5433,10 +5457,10 @@
         <v>166</v>
       </c>
       <c r="AW29" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX29" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY29">
         <v>1997</v>
@@ -5486,7 +5510,7 @@
         <v>79</v>
       </c>
       <c r="O30">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="P30" t="s">
         <v>110</v>
@@ -5495,7 +5519,7 @@
         <v>1968</v>
       </c>
       <c r="R30" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="S30">
         <v>28</v>
@@ -5504,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="U30" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V30" t="s">
         <v>135</v>
@@ -5588,10 +5612,10 @@
         <v>167</v>
       </c>
       <c r="AW30" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX30" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY30">
         <v>1996</v>
@@ -5641,7 +5665,7 @@
         <v>80</v>
       </c>
       <c r="O31">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="P31" t="s">
         <v>108</v>
@@ -5650,7 +5674,7 @@
         <v>1966</v>
       </c>
       <c r="R31" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S31">
         <v>29</v>
@@ -5659,7 +5683,7 @@
         <v>4</v>
       </c>
       <c r="U31" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V31" t="s">
         <v>129</v>
@@ -5743,10 +5767,10 @@
         <v>168</v>
       </c>
       <c r="AW31" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX31" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY31">
         <v>1995</v>
@@ -5796,7 +5820,7 @@
         <v>81</v>
       </c>
       <c r="O32">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="P32" t="s">
         <v>111</v>
@@ -5805,7 +5829,7 @@
         <v>1962</v>
       </c>
       <c r="R32" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S32">
         <v>32</v>
@@ -5814,7 +5838,7 @@
         <v>10</v>
       </c>
       <c r="U32" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V32" t="s">
         <v>136</v>
@@ -5898,10 +5922,10 @@
         <v>169</v>
       </c>
       <c r="AW32" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX32" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY32">
         <v>1994</v>
@@ -5951,7 +5975,7 @@
         <v>82</v>
       </c>
       <c r="O33">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="P33" t="s">
         <v>111</v>
@@ -5960,7 +5984,7 @@
         <v>1962</v>
       </c>
       <c r="R33" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S33">
         <v>31</v>
@@ -5969,7 +5993,7 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V33" t="s">
         <v>136</v>
@@ -6053,10 +6077,10 @@
         <v>170</v>
       </c>
       <c r="AW33" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX33" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY33">
         <v>1993</v>
@@ -6106,7 +6130,7 @@
         <v>83</v>
       </c>
       <c r="O34">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="P34" t="s">
         <v>112</v>
@@ -6115,7 +6139,7 @@
         <v>1965</v>
       </c>
       <c r="R34" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S34">
         <v>27</v>
@@ -6124,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V34" t="s">
         <v>125</v>
@@ -6208,10 +6232,10 @@
         <v>171</v>
       </c>
       <c r="AW34" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AX34" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY34">
         <v>1992</v>
@@ -6261,7 +6285,7 @@
         <v>84</v>
       </c>
       <c r="O35">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P35" t="s">
         <v>113</v>
@@ -6270,7 +6294,7 @@
         <v>1961</v>
       </c>
       <c r="R35" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="S35">
         <v>30</v>
@@ -6279,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="U35" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V35" t="s">
         <v>130</v>
@@ -6363,10 +6387,10 @@
         <v>172</v>
       </c>
       <c r="AW35" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX35" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY35">
         <v>1991</v>
@@ -6416,7 +6440,7 @@
         <v>85</v>
       </c>
       <c r="O36">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P36" t="s">
         <v>113</v>
@@ -6425,7 +6449,7 @@
         <v>1961</v>
       </c>
       <c r="R36" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="S36">
         <v>29</v>
@@ -6434,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V36" t="s">
         <v>130</v>
@@ -6518,10 +6542,10 @@
         <v>173</v>
       </c>
       <c r="AW36" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX36" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY36">
         <v>1990</v>
@@ -6571,7 +6595,7 @@
         <v>86</v>
       </c>
       <c r="O37">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="P37" t="s">
         <v>114</v>
@@ -6580,7 +6604,7 @@
         <v>1956</v>
       </c>
       <c r="R37" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S37">
         <v>33</v>
@@ -6589,7 +6613,7 @@
         <v>7</v>
       </c>
       <c r="U37" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V37" t="s">
         <v>122</v>
@@ -6673,10 +6697,10 @@
         <v>174</v>
       </c>
       <c r="AW37" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX37" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY37">
         <v>1989</v>
@@ -6726,7 +6750,7 @@
         <v>87</v>
       </c>
       <c r="O38">
-        <v>3649</v>
+        <v>3650</v>
       </c>
       <c r="P38" t="s">
         <v>115</v>
@@ -6735,7 +6759,7 @@
         <v>1963</v>
       </c>
       <c r="R38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S38">
         <v>25</v>
@@ -6744,7 +6768,7 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V38" t="s">
         <v>126</v>
@@ -6828,10 +6852,10 @@
         <v>175</v>
       </c>
       <c r="AW38" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX38" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY38">
         <v>1988</v>
@@ -6881,7 +6905,7 @@
         <v>88</v>
       </c>
       <c r="O39">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="P39" t="s">
         <v>116</v>
@@ -6890,7 +6914,7 @@
         <v>1956</v>
       </c>
       <c r="R39" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S39">
         <v>31</v>
@@ -6899,7 +6923,7 @@
         <v>9</v>
       </c>
       <c r="U39" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V39" t="s">
         <v>137</v>
@@ -6983,10 +7007,10 @@
         <v>176</v>
       </c>
       <c r="AW39" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX39" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY39">
         <v>1987</v>
@@ -7036,7 +7060,7 @@
         <v>89</v>
       </c>
       <c r="O40">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P40" t="s">
         <v>117</v>
@@ -7045,7 +7069,7 @@
         <v>1962</v>
       </c>
       <c r="R40" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S40">
         <v>24</v>
@@ -7054,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="U40" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V40" t="s">
         <v>125</v>
@@ -7138,10 +7162,10 @@
         <v>177</v>
       </c>
       <c r="AW40" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX40" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY40">
         <v>1986</v>
@@ -7191,7 +7215,7 @@
         <v>90</v>
       </c>
       <c r="O41">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="P41" t="s">
         <v>114</v>
@@ -7200,7 +7224,7 @@
         <v>1956</v>
       </c>
       <c r="R41" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="S41">
         <v>29</v>
@@ -7209,7 +7233,7 @@
         <v>3</v>
       </c>
       <c r="U41" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V41" t="s">
         <v>122</v>
@@ -7293,10 +7317,10 @@
         <v>178</v>
       </c>
       <c r="AW41" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX41" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY41">
         <v>1985</v>
@@ -7346,7 +7370,7 @@
         <v>91</v>
       </c>
       <c r="O42">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="P42" t="s">
         <v>118</v>
@@ -7355,7 +7379,7 @@
         <v>1957</v>
       </c>
       <c r="R42" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S42">
         <v>27</v>
@@ -7364,7 +7388,7 @@
         <v>5</v>
       </c>
       <c r="U42" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V42" t="s">
         <v>123</v>
@@ -7448,10 +7472,10 @@
         <v>179</v>
       </c>
       <c r="AW42" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX42" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY42">
         <v>1984</v>
@@ -7501,7 +7525,7 @@
         <v>92</v>
       </c>
       <c r="O43">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="P43" t="s">
         <v>118</v>
@@ -7510,7 +7534,7 @@
         <v>1957</v>
       </c>
       <c r="R43" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="S43">
         <v>26</v>
@@ -7519,7 +7543,7 @@
         <v>4</v>
       </c>
       <c r="U43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="V43" t="s">
         <v>123</v>
@@ -7603,10 +7627,10 @@
         <v>180</v>
       </c>
       <c r="AW43" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AX43" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AY43">
         <v>1983</v>
